--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20375"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgarnet0\Dropbox\2021XC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcxcl\Dropbox\2021XC\Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EB607B-3B7B-4999-9665-9088C772909F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76AA0FC-CEA3-48BD-8157-79C97904B511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{1F97B90D-26B3-4DE4-ACCC-8E22994B6ECC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1F97B90D-26B3-4DE4-ACCC-8E22994B6ECC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -130,6 +130,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -161,7 +164,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,19 +482,19 @@
   <dimension ref="A1:E108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" customWidth="1"/>
+    <col min="3" max="3" width="26.81640625" customWidth="1"/>
+    <col min="4" max="4" width="20.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -507,7 +510,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>40768</v>
       </c>
@@ -524,8 +527,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>40768</v>
+      </c>
       <c r="C3" t="s">
         <v>30</v>
       </c>
@@ -536,8 +541,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>40768</v>
+      </c>
       <c r="C4" t="s">
         <v>32</v>
       </c>
@@ -548,7 +555,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>40769</v>
       </c>
@@ -565,7 +572,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>40770</v>
       </c>
@@ -582,7 +589,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>40771</v>
       </c>
@@ -599,7 +606,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>40772</v>
       </c>
@@ -610,7 +617,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>40773</v>
       </c>
@@ -621,7 +628,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>40774</v>
       </c>
@@ -635,7 +642,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>40775</v>
       </c>
@@ -646,7 +653,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>40776</v>
       </c>
@@ -657,7 +664,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>40777</v>
       </c>
@@ -668,7 +675,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>40778</v>
       </c>
@@ -682,7 +689,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>40779</v>
       </c>
@@ -693,7 +700,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>40780</v>
       </c>
@@ -704,7 +711,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>40781</v>
       </c>
@@ -718,7 +725,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>40782</v>
       </c>
@@ -729,7 +736,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>40783</v>
       </c>
@@ -740,7 +747,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>40784</v>
       </c>
@@ -751,7 +758,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>40785</v>
       </c>
@@ -765,7 +772,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>40786</v>
       </c>
@@ -776,7 +783,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>40787</v>
       </c>
@@ -790,7 +797,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>40788</v>
       </c>
@@ -801,7 +808,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>40789</v>
       </c>
@@ -818,7 +825,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>40790</v>
       </c>
@@ -826,7 +833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>40791</v>
       </c>
@@ -834,7 +841,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>40792</v>
       </c>
@@ -842,7 +849,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>40793</v>
       </c>
@@ -850,7 +857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>40794</v>
       </c>
@@ -858,7 +865,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>40795</v>
       </c>
@@ -866,7 +873,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>40796</v>
       </c>
@@ -874,7 +881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>40797</v>
       </c>
@@ -882,7 +889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>40798</v>
       </c>
@@ -890,7 +897,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>40799</v>
       </c>
@@ -898,7 +905,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>40800</v>
       </c>
@@ -906,7 +913,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>40801</v>
       </c>
@@ -914,7 +921,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>40802</v>
       </c>
@@ -922,7 +929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>40803</v>
       </c>
@@ -930,7 +937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>40804</v>
       </c>
@@ -938,7 +945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>40805</v>
       </c>
@@ -946,7 +953,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>40806</v>
       </c>
@@ -954,7 +961,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>40807</v>
       </c>
@@ -962,7 +969,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>40808</v>
       </c>
@@ -970,7 +977,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>40809</v>
       </c>
@@ -978,7 +985,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>40810</v>
       </c>
@@ -986,7 +993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>40811</v>
       </c>
@@ -994,7 +1001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>40812</v>
       </c>
@@ -1002,7 +1009,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>40813</v>
       </c>
@@ -1010,7 +1017,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>40814</v>
       </c>
@@ -1018,7 +1025,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>40815</v>
       </c>
@@ -1026,7 +1033,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>40816</v>
       </c>
@@ -1034,7 +1041,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>40817</v>
       </c>
@@ -1042,7 +1049,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>40818</v>
       </c>
@@ -1059,7 +1066,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>40819</v>
       </c>
@@ -1067,7 +1074,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>40820</v>
       </c>
@@ -1075,7 +1082,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>40821</v>
       </c>
@@ -1083,7 +1090,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>40822</v>
       </c>
@@ -1091,7 +1098,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>40823</v>
       </c>
@@ -1099,7 +1106,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>40824</v>
       </c>
@@ -1107,7 +1114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>40825</v>
       </c>
@@ -1115,7 +1122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>40826</v>
       </c>
@@ -1123,7 +1130,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>40827</v>
       </c>
@@ -1131,7 +1138,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>40828</v>
       </c>
@@ -1139,7 +1146,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>40829</v>
       </c>
@@ -1147,7 +1154,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>40830</v>
       </c>
@@ -1155,7 +1162,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>40831</v>
       </c>
@@ -1163,7 +1170,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>40832</v>
       </c>
@@ -1171,7 +1178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>40833</v>
       </c>
@@ -1179,7 +1186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>40834</v>
       </c>
@@ -1187,7 +1194,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>40835</v>
       </c>
@@ -1195,7 +1202,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>40836</v>
       </c>
@@ -1203,7 +1210,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>40837</v>
       </c>
@@ -1211,7 +1218,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>40838</v>
       </c>
@@ -1219,7 +1226,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>40839</v>
       </c>
@@ -1227,7 +1234,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>40840</v>
       </c>
@@ -1235,7 +1242,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>40841</v>
       </c>
@@ -1243,7 +1250,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>40842</v>
       </c>
@@ -1251,7 +1258,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>40843</v>
       </c>
@@ -1259,7 +1266,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>40844</v>
       </c>
@@ -1267,7 +1274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>40845</v>
       </c>
@@ -1275,7 +1282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>40846</v>
       </c>
@@ -1283,7 +1290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>40847</v>
       </c>
@@ -1291,7 +1298,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>40848</v>
       </c>
@@ -1299,7 +1306,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>40849</v>
       </c>
@@ -1307,7 +1314,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>40850</v>
       </c>
@@ -1315,7 +1322,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>40851</v>
       </c>
@@ -1323,7 +1330,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>40852</v>
       </c>
@@ -1331,7 +1338,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>40853</v>
       </c>
@@ -1342,7 +1349,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>40854</v>
       </c>
@@ -1350,7 +1357,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>40855</v>
       </c>
@@ -1358,7 +1365,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>40856</v>
       </c>
@@ -1366,7 +1373,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>40857</v>
       </c>
@@ -1374,7 +1381,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>40858</v>
       </c>
@@ -1382,7 +1389,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>40859</v>
       </c>
@@ -1390,7 +1397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>40860</v>
       </c>
@@ -1398,7 +1405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>40861</v>
       </c>
@@ -1406,7 +1413,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>40862</v>
       </c>
@@ -1414,7 +1421,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>40863</v>
       </c>
@@ -1422,7 +1429,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>40864</v>
       </c>
@@ -1430,7 +1437,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>40865</v>
       </c>
@@ -1438,7 +1445,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>40866</v>
       </c>
@@ -1449,7 +1456,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>40867</v>
       </c>
@@ -1457,7 +1464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>40868</v>
       </c>
@@ -1465,7 +1472,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>40869</v>
       </c>
@@ -1473,7 +1480,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>40870</v>
       </c>
@@ -1481,7 +1488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>40871</v>
       </c>
@@ -1489,7 +1496,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>40872</v>
       </c>
@@ -1499,5 +1506,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcxcl\Dropbox\2021XC\Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76AA0FC-CEA3-48BD-8157-79C97904B511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219AF854-C6C8-4A55-BDE6-1F5636B98FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1F97B90D-26B3-4DE4-ACCC-8E22994B6ECC}"/>
   </bookViews>
@@ -131,7 +131,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -164,7 +164,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,7 +482,7 @@
   <dimension ref="A1:E108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -512,7 +512,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>40768</v>
+        <v>44421</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -529,7 +529,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>40768</v>
+        <v>44421</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
@@ -543,7 +543,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>40768</v>
+        <v>44421</v>
       </c>
       <c r="C4" t="s">
         <v>32</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>40769</v>
+        <v>44422</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -574,7 +574,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>40770</v>
+        <v>44423</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -591,7 +591,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>40771</v>
+        <v>44424</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -608,7 +608,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>40772</v>
+        <v>44425</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -619,7 +619,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>40773</v>
+        <v>44426</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -630,7 +630,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>40774</v>
+        <v>44427</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>40775</v>
+        <v>44428</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -655,7 +655,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>40776</v>
+        <v>44429</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>40777</v>
+        <v>44430</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -677,7 +677,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>40778</v>
+        <v>44431</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
@@ -691,7 +691,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>40779</v>
+        <v>44432</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -702,7 +702,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>40780</v>
+        <v>44433</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
@@ -713,7 +713,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>40781</v>
+        <v>44434</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
@@ -727,7 +727,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>40782</v>
+        <v>44435</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
@@ -738,7 +738,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>40783</v>
+        <v>44436</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>40784</v>
+        <v>44437</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -760,7 +760,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>40785</v>
+        <v>44438</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
@@ -774,7 +774,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>40786</v>
+        <v>44439</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>40787</v>
+        <v>44440</v>
       </c>
       <c r="B23" t="s">
         <v>9</v>
@@ -799,7 +799,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>40788</v>
+        <v>44441</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
@@ -810,7 +810,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>40789</v>
+        <v>44442</v>
       </c>
       <c r="B25" t="s">
         <v>4</v>
@@ -827,7 +827,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>40790</v>
+        <v>44443</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>40791</v>
+        <v>44444</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
@@ -843,7 +843,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>40792</v>
+        <v>44445</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
@@ -851,7 +851,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>40793</v>
+        <v>44446</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
@@ -859,7 +859,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>40794</v>
+        <v>44447</v>
       </c>
       <c r="B30" t="s">
         <v>9</v>
@@ -867,7 +867,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>40795</v>
+        <v>44448</v>
       </c>
       <c r="B31" t="s">
         <v>10</v>
@@ -875,7 +875,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>40796</v>
+        <v>44449</v>
       </c>
       <c r="B32" t="s">
         <v>4</v>
@@ -883,7 +883,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>40797</v>
+        <v>44450</v>
       </c>
       <c r="B33" t="s">
         <v>5</v>
@@ -891,7 +891,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>40798</v>
+        <v>44451</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
@@ -899,7 +899,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>40799</v>
+        <v>44452</v>
       </c>
       <c r="B35" t="s">
         <v>7</v>
@@ -907,7 +907,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>40800</v>
+        <v>44453</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
@@ -915,7 +915,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>40801</v>
+        <v>44454</v>
       </c>
       <c r="B37" t="s">
         <v>9</v>
@@ -923,7 +923,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>40802</v>
+        <v>44455</v>
       </c>
       <c r="B38" t="s">
         <v>10</v>
@@ -931,7 +931,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>40803</v>
+        <v>44456</v>
       </c>
       <c r="B39" t="s">
         <v>4</v>
@@ -939,7 +939,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>40804</v>
+        <v>44457</v>
       </c>
       <c r="B40" t="s">
         <v>5</v>
@@ -947,7 +947,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>40805</v>
+        <v>44458</v>
       </c>
       <c r="B41" t="s">
         <v>6</v>
@@ -955,7 +955,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>40806</v>
+        <v>44459</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
@@ -963,7 +963,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>40807</v>
+        <v>44460</v>
       </c>
       <c r="B43" t="s">
         <v>8</v>
@@ -971,7 +971,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>40808</v>
+        <v>44461</v>
       </c>
       <c r="B44" t="s">
         <v>9</v>
@@ -979,7 +979,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>40809</v>
+        <v>44462</v>
       </c>
       <c r="B45" t="s">
         <v>10</v>
@@ -987,7 +987,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>40810</v>
+        <v>44463</v>
       </c>
       <c r="B46" t="s">
         <v>4</v>
@@ -995,7 +995,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>40811</v>
+        <v>44464</v>
       </c>
       <c r="B47" t="s">
         <v>5</v>
@@ -1003,7 +1003,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>40812</v>
+        <v>44465</v>
       </c>
       <c r="B48" t="s">
         <v>6</v>
@@ -1011,7 +1011,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>40813</v>
+        <v>44466</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
@@ -1019,7 +1019,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>40814</v>
+        <v>44467</v>
       </c>
       <c r="B50" t="s">
         <v>8</v>
@@ -1027,7 +1027,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>40815</v>
+        <v>44468</v>
       </c>
       <c r="B51" t="s">
         <v>9</v>
@@ -1035,7 +1035,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>40816</v>
+        <v>44469</v>
       </c>
       <c r="B52" t="s">
         <v>10</v>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>40817</v>
+        <v>44470</v>
       </c>
       <c r="B53" t="s">
         <v>4</v>
@@ -1051,7 +1051,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>40818</v>
+        <v>44471</v>
       </c>
       <c r="B54" t="s">
         <v>5</v>
@@ -1068,7 +1068,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>40819</v>
+        <v>44472</v>
       </c>
       <c r="B55" t="s">
         <v>6</v>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>40820</v>
+        <v>44473</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>40821</v>
+        <v>44474</v>
       </c>
       <c r="B57" t="s">
         <v>8</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>40822</v>
+        <v>44475</v>
       </c>
       <c r="B58" t="s">
         <v>9</v>
@@ -1100,7 +1100,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>40823</v>
+        <v>44476</v>
       </c>
       <c r="B59" t="s">
         <v>10</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>40824</v>
+        <v>44477</v>
       </c>
       <c r="B60" t="s">
         <v>4</v>
@@ -1116,7 +1116,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>40825</v>
+        <v>44478</v>
       </c>
       <c r="B61" t="s">
         <v>5</v>
@@ -1124,7 +1124,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>40826</v>
+        <v>44479</v>
       </c>
       <c r="B62" t="s">
         <v>6</v>
@@ -1132,7 +1132,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>40827</v>
+        <v>44480</v>
       </c>
       <c r="B63" t="s">
         <v>7</v>
@@ -1140,7 +1140,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>40828</v>
+        <v>44481</v>
       </c>
       <c r="B64" t="s">
         <v>8</v>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>40829</v>
+        <v>44482</v>
       </c>
       <c r="B65" t="s">
         <v>9</v>
@@ -1156,7 +1156,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>40830</v>
+        <v>44483</v>
       </c>
       <c r="B66" t="s">
         <v>10</v>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>40831</v>
+        <v>44484</v>
       </c>
       <c r="B67" t="s">
         <v>4</v>
@@ -1172,7 +1172,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>40832</v>
+        <v>44485</v>
       </c>
       <c r="B68" t="s">
         <v>5</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>40833</v>
+        <v>44486</v>
       </c>
       <c r="B69" t="s">
         <v>6</v>
@@ -1188,7 +1188,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>40834</v>
+        <v>44487</v>
       </c>
       <c r="B70" t="s">
         <v>7</v>
@@ -1196,7 +1196,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>40835</v>
+        <v>44488</v>
       </c>
       <c r="B71" t="s">
         <v>8</v>
@@ -1204,7 +1204,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>40836</v>
+        <v>44489</v>
       </c>
       <c r="B72" t="s">
         <v>9</v>
@@ -1212,7 +1212,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>40837</v>
+        <v>44490</v>
       </c>
       <c r="B73" t="s">
         <v>10</v>
@@ -1220,7 +1220,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>40838</v>
+        <v>44491</v>
       </c>
       <c r="B74" t="s">
         <v>4</v>
@@ -1228,7 +1228,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>40839</v>
+        <v>44492</v>
       </c>
       <c r="B75" t="s">
         <v>5</v>
@@ -1236,7 +1236,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>40840</v>
+        <v>44493</v>
       </c>
       <c r="B76" t="s">
         <v>6</v>
@@ -1244,7 +1244,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>40841</v>
+        <v>44494</v>
       </c>
       <c r="B77" t="s">
         <v>7</v>
@@ -1252,7 +1252,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>40842</v>
+        <v>44495</v>
       </c>
       <c r="B78" t="s">
         <v>8</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>40843</v>
+        <v>44496</v>
       </c>
       <c r="B79" t="s">
         <v>9</v>
@@ -1268,7 +1268,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>40844</v>
+        <v>44497</v>
       </c>
       <c r="B80" t="s">
         <v>10</v>
@@ -1276,7 +1276,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>40845</v>
+        <v>44498</v>
       </c>
       <c r="B81" t="s">
         <v>4</v>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>40846</v>
+        <v>44499</v>
       </c>
       <c r="B82" t="s">
         <v>5</v>
@@ -1292,7 +1292,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>40847</v>
+        <v>44500</v>
       </c>
       <c r="B83" t="s">
         <v>6</v>
@@ -1300,7 +1300,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>40848</v>
+        <v>44501</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
@@ -1308,7 +1308,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <v>40849</v>
+        <v>44502</v>
       </c>
       <c r="B85" t="s">
         <v>8</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <v>40850</v>
+        <v>44503</v>
       </c>
       <c r="B86" t="s">
         <v>9</v>
@@ -1324,7 +1324,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
-        <v>40851</v>
+        <v>44504</v>
       </c>
       <c r="B87" t="s">
         <v>10</v>
@@ -1332,7 +1332,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <v>40852</v>
+        <v>44505</v>
       </c>
       <c r="B88" t="s">
         <v>4</v>
@@ -1340,7 +1340,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
-        <v>40853</v>
+        <v>44506</v>
       </c>
       <c r="B89" t="s">
         <v>5</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
-        <v>40854</v>
+        <v>44507</v>
       </c>
       <c r="B90" t="s">
         <v>6</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
-        <v>40855</v>
+        <v>44508</v>
       </c>
       <c r="B91" t="s">
         <v>7</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
-        <v>40856</v>
+        <v>44509</v>
       </c>
       <c r="B92" t="s">
         <v>8</v>
@@ -1375,7 +1375,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
-        <v>40857</v>
+        <v>44510</v>
       </c>
       <c r="B93" t="s">
         <v>9</v>
@@ -1383,7 +1383,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
-        <v>40858</v>
+        <v>44511</v>
       </c>
       <c r="B94" t="s">
         <v>10</v>
@@ -1391,7 +1391,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
-        <v>40859</v>
+        <v>44512</v>
       </c>
       <c r="B95" t="s">
         <v>4</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
-        <v>40860</v>
+        <v>44513</v>
       </c>
       <c r="B96" t="s">
         <v>5</v>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
-        <v>40861</v>
+        <v>44514</v>
       </c>
       <c r="B97" t="s">
         <v>6</v>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
-        <v>40862</v>
+        <v>44515</v>
       </c>
       <c r="B98" t="s">
         <v>7</v>
@@ -1423,7 +1423,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
-        <v>40863</v>
+        <v>44516</v>
       </c>
       <c r="B99" t="s">
         <v>8</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
-        <v>40864</v>
+        <v>44517</v>
       </c>
       <c r="B100" t="s">
         <v>9</v>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
-        <v>40865</v>
+        <v>44518</v>
       </c>
       <c r="B101" t="s">
         <v>10</v>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
-        <v>40866</v>
+        <v>44519</v>
       </c>
       <c r="B102" t="s">
         <v>4</v>
@@ -1458,7 +1458,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
-        <v>40867</v>
+        <v>44520</v>
       </c>
       <c r="B103" t="s">
         <v>5</v>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
-        <v>40868</v>
+        <v>44521</v>
       </c>
       <c r="B104" t="s">
         <v>6</v>
@@ -1474,7 +1474,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
-        <v>40869</v>
+        <v>44522</v>
       </c>
       <c r="B105" t="s">
         <v>7</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
-        <v>40870</v>
+        <v>44523</v>
       </c>
       <c r="B106" t="s">
         <v>8</v>
@@ -1490,7 +1490,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
-        <v>40871</v>
+        <v>44524</v>
       </c>
       <c r="B107" t="s">
         <v>9</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
-        <v>40872</v>
+        <v>44525</v>
       </c>
       <c r="B108" t="s">
         <v>10</v>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcxcl\Dropbox\2021XC\Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219AF854-C6C8-4A55-BDE6-1F5636B98FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBC8B47-886A-4109-AF37-D21D9FAF0003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1F97B90D-26B3-4DE4-ACCC-8E22994B6ECC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="43">
   <si>
     <t>Date</t>
   </si>
@@ -111,9 +111,6 @@
     <t>Off</t>
   </si>
   <si>
-    <t>Water Park?</t>
-  </si>
-  <si>
     <t>4pm</t>
   </si>
   <si>
@@ -124,6 +121,39 @@
   </si>
   <si>
     <t>Team Meetings</t>
+  </si>
+  <si>
+    <t>Campus</t>
+  </si>
+  <si>
+    <t>Meeting</t>
+  </si>
+  <si>
+    <t>2pm</t>
+  </si>
+  <si>
+    <t>Church</t>
+  </si>
+  <si>
+    <t>Gtown Baptist (Alan Reddit)</t>
+  </si>
+  <si>
+    <t>11am</t>
+  </si>
+  <si>
+    <t>Running 101</t>
+  </si>
+  <si>
+    <t>1pm</t>
+  </si>
+  <si>
+    <t>Asher</t>
+  </si>
+  <si>
+    <t>Franfort Water Park?</t>
+  </si>
+  <si>
+    <t>Frankfort, KY</t>
   </si>
 </sst>
 </file>
@@ -479,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC89124E-97CA-4317-8E8E-A3FBD6EF8403}">
-  <dimension ref="A1:E108"/>
+  <dimension ref="A1:E113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -490,7 +520,7 @@
     <col min="1" max="1" width="13.81640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.26953125" customWidth="1"/>
     <col min="3" max="3" width="26.81640625" customWidth="1"/>
-    <col min="4" max="4" width="20.453125" customWidth="1"/>
+    <col min="4" max="4" width="23.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -518,7 +548,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -532,7 +562,7 @@
         <v>44421</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
@@ -546,7 +576,7 @@
         <v>44421</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -574,235 +604,271 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>44423</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
+        <v>44422</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>44424</v>
+        <v>44423</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>44425</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
+        <v>44423</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>44426</v>
+        <v>44424</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>44427</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
+        <v>44424</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>44428</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
+        <v>44424</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>44429</v>
+        <v>44425</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>44430</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
+        <v>44425</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>44431</v>
+        <v>44426</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>44432</v>
+        <v>44427</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
         <v>21</v>
       </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>44433</v>
+        <v>44428</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
       </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>44434</v>
+        <v>44429</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>44435</v>
+        <v>44430</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>44436</v>
+        <v>44431</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>21</v>
       </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>44437</v>
+        <v>44432</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>44438</v>
+        <v>44433</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
         <v>21</v>
       </c>
-      <c r="D21" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>44439</v>
+        <v>44434</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
         <v>21</v>
       </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>44440</v>
+        <v>44435</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C23" t="s">
         <v>21</v>
       </c>
-      <c r="D23" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>44441</v>
+        <v>44436</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
         <v>21</v>
@@ -810,697 +876,758 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>44442</v>
+        <v>44437</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>44443</v>
+        <v>44438</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>44444</v>
+        <v>44439</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>44445</v>
+        <v>44440</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>44446</v>
+        <v>44441</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>44447</v>
+        <v>44442</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>44448</v>
+        <v>44443</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>44449</v>
+        <v>44444</v>
       </c>
       <c r="B32" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>44450</v>
+        <v>44445</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>44451</v>
+        <v>44446</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>44452</v>
+        <v>44447</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>44453</v>
+        <v>44448</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>44454</v>
+        <v>44449</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>44455</v>
+        <v>44450</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>44456</v>
+        <v>44451</v>
       </c>
       <c r="B39" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>44457</v>
+        <v>44452</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>44458</v>
+        <v>44453</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>44459</v>
+        <v>44454</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>44460</v>
+        <v>44455</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>44461</v>
+        <v>44456</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>44462</v>
+        <v>44457</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>44463</v>
+        <v>44458</v>
       </c>
       <c r="B46" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>44464</v>
+        <v>44459</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>44465</v>
+        <v>44460</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>44466</v>
+        <v>44461</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>44467</v>
+        <v>44462</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>44468</v>
+        <v>44463</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>44469</v>
+        <v>44464</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>44470</v>
+        <v>44465</v>
       </c>
       <c r="B53" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>44471</v>
+        <v>44466</v>
       </c>
       <c r="B54" t="s">
-        <v>5</v>
-      </c>
-      <c r="C54" t="s">
-        <v>17</v>
-      </c>
-      <c r="D54" t="s">
-        <v>18</v>
-      </c>
-      <c r="E54" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>44472</v>
+        <v>44467</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>44473</v>
+        <v>44468</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>44474</v>
+        <v>44469</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>44475</v>
+        <v>44470</v>
       </c>
       <c r="B58" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>44476</v>
+        <v>44471</v>
       </c>
       <c r="B59" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="C59" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>44477</v>
+        <v>44472</v>
       </c>
       <c r="B60" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>44478</v>
+        <v>44473</v>
       </c>
       <c r="B61" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>44479</v>
+        <v>44474</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>44480</v>
+        <v>44475</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>44481</v>
+        <v>44476</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>44482</v>
+        <v>44477</v>
       </c>
       <c r="B65" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>44483</v>
+        <v>44478</v>
       </c>
       <c r="B66" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>44484</v>
+        <v>44479</v>
       </c>
       <c r="B67" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>44485</v>
+        <v>44480</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>44486</v>
+        <v>44481</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>44487</v>
+        <v>44482</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>44488</v>
+        <v>44483</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>44489</v>
+        <v>44484</v>
       </c>
       <c r="B72" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>44490</v>
+        <v>44485</v>
       </c>
       <c r="B73" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>44491</v>
+        <v>44486</v>
       </c>
       <c r="B74" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>44492</v>
+        <v>44487</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>44493</v>
+        <v>44488</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>44494</v>
+        <v>44489</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>44495</v>
+        <v>44490</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>44496</v>
+        <v>44491</v>
       </c>
       <c r="B79" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>44497</v>
+        <v>44492</v>
       </c>
       <c r="B80" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>44498</v>
+        <v>44493</v>
       </c>
       <c r="B81" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>44499</v>
+        <v>44494</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>44500</v>
+        <v>44495</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>44501</v>
+        <v>44496</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <v>44502</v>
+        <v>44497</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <v>44503</v>
+        <v>44498</v>
       </c>
       <c r="B86" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
-        <v>44504</v>
+        <v>44499</v>
       </c>
       <c r="B87" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <v>44505</v>
+        <v>44500</v>
       </c>
       <c r="B88" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
-        <v>44506</v>
+        <v>44501</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
-      </c>
-      <c r="C89" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
-        <v>44507</v>
+        <v>44502</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
-        <v>44508</v>
+        <v>44503</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
-        <v>44509</v>
+        <v>44504</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
-        <v>44510</v>
+        <v>44505</v>
       </c>
       <c r="B93" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
-        <v>44511</v>
+        <v>44506</v>
       </c>
       <c r="B94" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="C94" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
-        <v>44512</v>
+        <v>44507</v>
       </c>
       <c r="B95" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
-        <v>44513</v>
+        <v>44508</v>
       </c>
       <c r="B96" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
-        <v>44514</v>
+        <v>44509</v>
       </c>
       <c r="B97" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
-        <v>44515</v>
+        <v>44510</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
-        <v>44516</v>
+        <v>44511</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
-        <v>44517</v>
+        <v>44512</v>
       </c>
       <c r="B100" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
-        <v>44518</v>
+        <v>44513</v>
       </c>
       <c r="B101" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
-        <v>44519</v>
+        <v>44514</v>
       </c>
       <c r="B102" t="s">
-        <v>4</v>
-      </c>
-      <c r="C102" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
-        <v>44520</v>
+        <v>44515</v>
       </c>
       <c r="B103" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
-        <v>44521</v>
+        <v>44516</v>
       </c>
       <c r="B104" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
-        <v>44522</v>
+        <v>44517</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
-        <v>44523</v>
+        <v>44518</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
-        <v>44524</v>
+        <v>44519</v>
       </c>
       <c r="B107" t="s">
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="C107" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
+        <v>44520</v>
+      </c>
+      <c r="B108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A109" s="1">
+        <v>44521</v>
+      </c>
+      <c r="B109" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110" s="1">
+        <v>44522</v>
+      </c>
+      <c r="B110" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111" s="1">
+        <v>44523</v>
+      </c>
+      <c r="B111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A112" s="1">
+        <v>44524</v>
+      </c>
+      <c r="B112" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" s="1">
         <v>44525</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B113" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20375"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcxcl\Dropbox\2021XC\Calendar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgarnet0\Documents\GitHub\Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBC8B47-886A-4109-AF37-D21D9FAF0003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD94E74D-87BE-4344-86B2-ACD55434E717}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1F97B90D-26B3-4DE4-ACCC-8E22994B6ECC}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" xr2:uid="{1F97B90D-26B3-4DE4-ACCC-8E22994B6ECC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="51">
   <si>
     <t>Date</t>
   </si>
@@ -114,12 +114,6 @@
     <t>4pm</t>
   </si>
   <si>
-    <t>Physicals</t>
-  </si>
-  <si>
-    <t>Move in (No Practice)</t>
-  </si>
-  <si>
     <t>Team Meetings</t>
   </si>
   <si>
@@ -154,6 +148,36 @@
   </si>
   <si>
     <t>Frankfort, KY</t>
+  </si>
+  <si>
+    <t>5:30pm</t>
+  </si>
+  <si>
+    <t>East Campus AT Room</t>
+  </si>
+  <si>
+    <t>Physicals (New Athletes / New Injuries ONLY)</t>
+  </si>
+  <si>
+    <t>Physicals Check-In / Paperwork</t>
+  </si>
+  <si>
+    <t>Conference Center</t>
+  </si>
+  <si>
+    <t>10am-2pm</t>
+  </si>
+  <si>
+    <t>Check-In and Move-In</t>
+  </si>
+  <si>
+    <t>After Physicals</t>
+  </si>
+  <si>
+    <t>Asher 112?</t>
+  </si>
+  <si>
+    <t>Student Center?</t>
   </si>
 </sst>
 </file>
@@ -509,21 +533,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC89124E-97CA-4317-8E8E-A3FBD6EF8403}">
-  <dimension ref="A1:E113"/>
+  <dimension ref="A1:E114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" customWidth="1"/>
-    <col min="3" max="3" width="26.81640625" customWidth="1"/>
-    <col min="4" max="4" width="23.7265625" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,7 +565,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44421</v>
       </c>
@@ -548,1086 +573,1100 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44421</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44421</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>44422</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
+        <v>44421</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44422</v>
       </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>44422</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
         <v>32</v>
       </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>44423</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44423</v>
       </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
       <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>44423</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
         <v>35</v>
       </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>44424</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44424</v>
       </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44424</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>44424</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>44425</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44425</v>
       </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
       <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>44425</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
         <v>38</v>
       </c>
-      <c r="D13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>44426</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>44427</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
       </c>
       <c r="C15" t="s">
         <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>44428</v>
+        <v>44427</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>44429</v>
+        <v>44428</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
+        <v>44429</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>44430</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>44431</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>7</v>
-      </c>
-      <c r="C19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>44432</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
       </c>
       <c r="C20" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>44433</v>
+        <v>44432</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>44434</v>
+        <v>44433</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
         <v>21</v>
       </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>44435</v>
+        <v>44434</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>44436</v>
+        <v>44435</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
+        <v>44436</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>44437</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>6</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>44438</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>7</v>
-      </c>
-      <c r="C26" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
-        <v>44439</v>
-      </c>
-      <c r="B27" t="s">
-        <v>8</v>
       </c>
       <c r="C27" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>44440</v>
+        <v>44439</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
         <v>21</v>
       </c>
-      <c r="D28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>44441</v>
+        <v>44440</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
+        <v>44441</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>44442</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>4</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>14</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" t="s">
         <v>15</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E31" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>44443</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>44444</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>44445</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>44446</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>44447</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>44448</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>44449</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>44450</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>44451</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>44452</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>44453</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>44454</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>44455</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>44456</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
         <v>44457</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <v>44458</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>44459</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
         <v>44460</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>44461</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="1">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
         <v>44462</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="1">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
         <v>44463</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="1">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
         <v>44464</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="1">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
         <v>44465</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="1">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
         <v>44466</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="1">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
         <v>44467</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="1">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
         <v>44468</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="1">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
         <v>44469</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="1">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
         <v>44470</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="1">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
         <v>44471</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B60" t="s">
         <v>5</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C60" t="s">
         <v>17</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D60" t="s">
         <v>18</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E60" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="1">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
         <v>44472</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="1">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
         <v>44473</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B62" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="1">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
         <v>44474</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B63" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="1">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
         <v>44475</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B64" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="1">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
         <v>44476</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="1">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
         <v>44477</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" s="1">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
         <v>44478</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" s="1">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
         <v>44479</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B68" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" s="1">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
         <v>44480</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" s="1">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
         <v>44481</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B70" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" s="1">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
         <v>44482</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" s="1">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
         <v>44483</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B72" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" s="1">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
         <v>44484</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" s="1">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
         <v>44485</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B74" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" s="1">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
         <v>44486</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B75" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" s="1">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
         <v>44487</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B76" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" s="1">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
         <v>44488</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B77" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" s="1">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
         <v>44489</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B78" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" s="1">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
         <v>44490</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B79" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" s="1">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
         <v>44491</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B80" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" s="1">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
         <v>44492</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B81" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" s="1">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
         <v>44493</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B82" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" s="1">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
         <v>44494</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B83" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" s="1">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
         <v>44495</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B84" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" s="1">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
         <v>44496</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B85" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A85" s="1">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
         <v>44497</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B86" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A86" s="1">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
         <v>44498</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B87" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87" s="1">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
         <v>44499</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B88" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A88" s="1">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
         <v>44500</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B89" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A89" s="1">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
         <v>44501</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B90" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A90" s="1">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
         <v>44502</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B91" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A91" s="1">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
         <v>44503</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B92" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A92" s="1">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
         <v>44504</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B93" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A93" s="1">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
         <v>44505</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B94" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A94" s="1">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
         <v>44506</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B95" t="s">
         <v>5</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C95" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A95" s="1">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
         <v>44507</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B96" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A96" s="1">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
         <v>44508</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B97" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A97" s="1">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
         <v>44509</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B98" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A98" s="1">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
         <v>44510</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B99" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A99" s="1">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
         <v>44511</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B100" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A100" s="1">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
         <v>44512</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B101" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A101" s="1">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
         <v>44513</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B102" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A102" s="1">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
         <v>44514</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B103" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A103" s="1">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
         <v>44515</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B104" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A104" s="1">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
         <v>44516</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B105" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A105" s="1">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
         <v>44517</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B106" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A106" s="1">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
         <v>44518</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B107" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A107" s="1">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
         <v>44519</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B108" t="s">
         <v>4</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C108" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A108" s="1">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
         <v>44520</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B109" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A109" s="1">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
         <v>44521</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B110" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A110" s="1">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
         <v>44522</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B111" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A111" s="1">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
         <v>44523</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B112" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A112" s="1">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
         <v>44524</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B113" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A113" s="1">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
         <v>44525</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B114" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20375"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgarnet0\Documents\GitHub\Calendar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcxcl\Dropbox\2021XC\Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD94E74D-87BE-4344-86B2-ACD55434E717}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7F03EA-C3EB-4C1F-998D-C760BC06407D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" xr2:uid="{1F97B90D-26B3-4DE4-ACCC-8E22994B6ECC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1F97B90D-26B3-4DE4-ACCC-8E22994B6ECC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="63">
   <si>
     <t>Date</t>
   </si>
@@ -178,6 +187,42 @@
   </si>
   <si>
     <t>Student Center?</t>
+  </si>
+  <si>
+    <t>JennaStrong Invitational</t>
+  </si>
+  <si>
+    <t>Wilmington, OH</t>
+  </si>
+  <si>
+    <t>4:30pm</t>
+  </si>
+  <si>
+    <t>Asbury Invitational</t>
+  </si>
+  <si>
+    <t>Wilmore, KY</t>
+  </si>
+  <si>
+    <t>Practice (First day of classes)</t>
+  </si>
+  <si>
+    <t>Bowling Green, KY</t>
+  </si>
+  <si>
+    <t>Meet TBA</t>
+  </si>
+  <si>
+    <t>Fast Cats Classic*** (Partial Team)</t>
+  </si>
+  <si>
+    <t>Owensboro, KY</t>
+  </si>
+  <si>
+    <t>Meet</t>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
 </sst>
 </file>
@@ -533,22 +578,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC89124E-97CA-4317-8E8E-A3FBD6EF8403}">
-  <dimension ref="A1:E114"/>
+  <dimension ref="A1:F114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" customWidth="1"/>
+    <col min="3" max="3" width="29.26953125" customWidth="1"/>
+    <col min="4" max="4" width="23.7265625" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -564,8 +609,11 @@
       <c r="E1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>44421</v>
       </c>
@@ -582,7 +630,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>44421</v>
       </c>
@@ -596,7 +644,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>44421</v>
       </c>
@@ -610,7 +658,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>44421</v>
       </c>
@@ -624,7 +672,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>44422</v>
       </c>
@@ -641,7 +689,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>44422</v>
       </c>
@@ -655,7 +703,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>44423</v>
       </c>
@@ -672,7 +720,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>44423</v>
       </c>
@@ -686,7 +734,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>44424</v>
       </c>
@@ -703,7 +751,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>44424</v>
       </c>
@@ -717,7 +765,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>44424</v>
       </c>
@@ -731,7 +779,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>44425</v>
       </c>
@@ -748,7 +796,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>44425</v>
       </c>
@@ -762,7 +810,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>44426</v>
       </c>
@@ -779,7 +827,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>44427</v>
       </c>
@@ -796,7 +844,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>44428</v>
       </c>
@@ -813,7 +861,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>44429</v>
       </c>
@@ -830,7 +878,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>44430</v>
       </c>
@@ -841,7 +889,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>44431</v>
       </c>
@@ -849,13 +897,13 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>44432</v>
       </c>
@@ -866,7 +914,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>44433</v>
       </c>
@@ -877,7 +925,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>44434</v>
       </c>
@@ -891,7 +939,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>44435</v>
       </c>
@@ -902,7 +950,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>44436</v>
       </c>
@@ -913,7 +961,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>44437</v>
       </c>
@@ -924,7 +972,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>44438</v>
       </c>
@@ -938,7 +986,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>44439</v>
       </c>
@@ -949,7 +997,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>44440</v>
       </c>
@@ -963,7 +1011,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>44441</v>
       </c>
@@ -974,7 +1022,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>44442</v>
       </c>
@@ -990,8 +1038,11 @@
       <c r="E31" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>44443</v>
       </c>
@@ -999,7 +1050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>44444</v>
       </c>
@@ -1007,7 +1058,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>44445</v>
       </c>
@@ -1015,7 +1066,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>44446</v>
       </c>
@@ -1023,7 +1074,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>44447</v>
       </c>
@@ -1031,7 +1082,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>44448</v>
       </c>
@@ -1039,7 +1090,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>44449</v>
       </c>
@@ -1047,7 +1098,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>44450</v>
       </c>
@@ -1055,7 +1106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>44451</v>
       </c>
@@ -1063,7 +1114,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>44452</v>
       </c>
@@ -1071,7 +1122,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>44453</v>
       </c>
@@ -1079,7 +1130,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>44454</v>
       </c>
@@ -1087,7 +1138,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>44455</v>
       </c>
@@ -1095,7 +1146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>44456</v>
       </c>
@@ -1103,15 +1154,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>44457</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>58</v>
+      </c>
+      <c r="F46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>44458</v>
       </c>
@@ -1119,7 +1176,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>44459</v>
       </c>
@@ -1127,7 +1184,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>44460</v>
       </c>
@@ -1135,7 +1192,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>44461</v>
       </c>
@@ -1143,7 +1200,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>44462</v>
       </c>
@@ -1151,7 +1208,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>44463</v>
       </c>
@@ -1159,7 +1216,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>44464</v>
       </c>
@@ -1167,7 +1224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>44465</v>
       </c>
@@ -1175,7 +1232,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>44466</v>
       </c>
@@ -1183,7 +1240,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>44467</v>
       </c>
@@ -1191,7 +1248,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>44468</v>
       </c>
@@ -1199,7 +1256,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>44469</v>
       </c>
@@ -1207,7 +1264,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>44470</v>
       </c>
@@ -1215,7 +1272,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>44471</v>
       </c>
@@ -1231,8 +1288,11 @@
       <c r="E60" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>44472</v>
       </c>
@@ -1240,7 +1300,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>44473</v>
       </c>
@@ -1248,7 +1308,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>44474</v>
       </c>
@@ -1256,7 +1316,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>44475</v>
       </c>
@@ -1264,7 +1324,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>44476</v>
       </c>
@@ -1272,15 +1332,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>44477</v>
       </c>
       <c r="B66" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>59</v>
+      </c>
+      <c r="D66" t="s">
+        <v>60</v>
+      </c>
+      <c r="E66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F66" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>44478</v>
       </c>
@@ -1288,7 +1360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>44479</v>
       </c>
@@ -1296,7 +1368,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>44480</v>
       </c>
@@ -1304,7 +1376,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>44481</v>
       </c>
@@ -1312,7 +1384,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>44482</v>
       </c>
@@ -1320,7 +1392,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>44483</v>
       </c>
@@ -1328,15 +1400,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>44484</v>
       </c>
       <c r="B73" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>51</v>
+      </c>
+      <c r="D73" t="s">
+        <v>52</v>
+      </c>
+      <c r="E73" t="s">
+        <v>53</v>
+      </c>
+      <c r="F73" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>44485</v>
       </c>
@@ -1344,7 +1428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>44486</v>
       </c>
@@ -1352,7 +1436,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>44487</v>
       </c>
@@ -1360,7 +1444,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>44488</v>
       </c>
@@ -1368,7 +1452,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>44489</v>
       </c>
@@ -1376,7 +1460,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>44490</v>
       </c>
@@ -1384,7 +1468,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>44491</v>
       </c>
@@ -1392,15 +1476,27 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>44492</v>
       </c>
       <c r="B81" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>54</v>
+      </c>
+      <c r="D81" t="s">
+        <v>55</v>
+      </c>
+      <c r="E81" t="s">
+        <v>16</v>
+      </c>
+      <c r="F81" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>44493</v>
       </c>
@@ -1408,7 +1504,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>44494</v>
       </c>
@@ -1416,7 +1512,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>44495</v>
       </c>
@@ -1424,7 +1520,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>44496</v>
       </c>
@@ -1432,7 +1528,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>44497</v>
       </c>
@@ -1440,7 +1536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>44498</v>
       </c>
@@ -1448,7 +1544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>44499</v>
       </c>
@@ -1456,7 +1552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>44500</v>
       </c>
@@ -1464,7 +1560,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>44501</v>
       </c>
@@ -1472,7 +1568,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>44502</v>
       </c>
@@ -1480,7 +1576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>44503</v>
       </c>
@@ -1488,7 +1584,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>44504</v>
       </c>
@@ -1496,7 +1592,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>44505</v>
       </c>
@@ -1504,7 +1600,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>44506</v>
       </c>
@@ -1514,8 +1610,17 @@
       <c r="C95" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>57</v>
+      </c>
+      <c r="E95" t="s">
+        <v>16</v>
+      </c>
+      <c r="F95" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>44507</v>
       </c>
@@ -1523,7 +1628,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>44508</v>
       </c>
@@ -1531,7 +1636,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>44509</v>
       </c>
@@ -1539,7 +1644,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>44510</v>
       </c>
@@ -1547,7 +1652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>44511</v>
       </c>
@@ -1555,7 +1660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>44512</v>
       </c>
@@ -1563,7 +1668,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>44513</v>
       </c>
@@ -1571,7 +1676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>44514</v>
       </c>
@@ -1579,7 +1684,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>44515</v>
       </c>
@@ -1587,7 +1692,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>44516</v>
       </c>
@@ -1595,7 +1700,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>44517</v>
       </c>
@@ -1603,7 +1708,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>44518</v>
       </c>
@@ -1611,7 +1716,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>44519</v>
       </c>
@@ -1621,8 +1726,11 @@
       <c r="C108" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F108" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>44520</v>
       </c>
@@ -1630,7 +1738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>44521</v>
       </c>
@@ -1638,7 +1746,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>44522</v>
       </c>
@@ -1646,7 +1754,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>44523</v>
       </c>
@@ -1654,7 +1762,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>44524</v>
       </c>
@@ -1662,7 +1770,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>44525</v>
       </c>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcxcl\Dropbox\2021XC\Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7F03EA-C3EB-4C1F-998D-C760BC06407D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7F0E73-A615-4C27-B52C-8D75588105F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1F97B90D-26B3-4DE4-ACCC-8E22994B6ECC}"/>
   </bookViews>
@@ -78,9 +78,6 @@
     <t>Conference Championships</t>
   </si>
   <si>
-    <t>Berea/Centre Jamboree</t>
-  </si>
-  <si>
     <t>Berea, KY</t>
   </si>
   <si>
@@ -223,6 +220,9 @@
   </si>
   <si>
     <t>Type</t>
+  </si>
+  <si>
+    <t>&lt;a href="meetInfo2021.html" title="meetInfo"&gt;Berea Centre Jamboree&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -580,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC89124E-97CA-4317-8E8E-A3FBD6EF8403}">
   <dimension ref="A1:F114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -610,7 +610,7 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -621,13 +621,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -635,13 +635,13 @@
         <v>44421</v>
       </c>
       <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
         <v>44</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>45</v>
-      </c>
-      <c r="E3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -649,13 +649,13 @@
         <v>44421</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -663,13 +663,13 @@
         <v>44421</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -680,13 +680,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -694,13 +694,13 @@
         <v>44422</v>
       </c>
       <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
         <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -711,13 +711,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -725,13 +725,13 @@
         <v>44423</v>
       </c>
       <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
         <v>33</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>34</v>
-      </c>
-      <c r="E9" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -742,13 +742,13 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -756,13 +756,13 @@
         <v>44424</v>
       </c>
       <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
         <v>36</v>
-      </c>
-      <c r="D11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -770,13 +770,13 @@
         <v>44424</v>
       </c>
       <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
         <v>39</v>
       </c>
-      <c r="D12" t="s">
-        <v>40</v>
-      </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -787,13 +787,13 @@
         <v>8</v>
       </c>
       <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
         <v>21</v>
-      </c>
-      <c r="D13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -801,13 +801,13 @@
         <v>44425</v>
       </c>
       <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" t="s">
         <v>36</v>
-      </c>
-      <c r="D14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -818,13 +818,13 @@
         <v>9</v>
       </c>
       <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
         <v>21</v>
-      </c>
-      <c r="D15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -835,13 +835,13 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
         <v>21</v>
-      </c>
-      <c r="D16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -852,13 +852,13 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" t="s">
         <v>21</v>
-      </c>
-      <c r="D17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -869,13 +869,13 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -886,7 +886,7 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -897,10 +897,10 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -911,7 +911,7 @@
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
@@ -922,7 +922,7 @@
         <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -933,10 +933,10 @@
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
@@ -947,7 +947,7 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
@@ -958,7 +958,7 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
@@ -969,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
@@ -980,10 +980,10 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
@@ -994,7 +994,7 @@
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -1005,10 +1005,10 @@
         <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
@@ -1019,7 +1019,7 @@
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
@@ -1030,16 +1030,16 @@
         <v>4</v>
       </c>
       <c r="C31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" t="s">
         <v>14</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>15</v>
       </c>
-      <c r="E31" t="s">
-        <v>16</v>
-      </c>
       <c r="F31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
@@ -1162,10 +1162,10 @@
         <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
@@ -1280,16 +1280,16 @@
         <v>5</v>
       </c>
       <c r="C60" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" t="s">
         <v>17</v>
       </c>
-      <c r="D60" t="s">
-        <v>18</v>
-      </c>
       <c r="E60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
@@ -1340,16 +1340,16 @@
         <v>4</v>
       </c>
       <c r="C66" t="s">
+        <v>58</v>
+      </c>
+      <c r="D66" t="s">
         <v>59</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
+        <v>15</v>
+      </c>
+      <c r="F66" t="s">
         <v>60</v>
-      </c>
-      <c r="E66" t="s">
-        <v>16</v>
-      </c>
-      <c r="F66" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
@@ -1408,16 +1408,16 @@
         <v>4</v>
       </c>
       <c r="C73" t="s">
+        <v>50</v>
+      </c>
+      <c r="D73" t="s">
         <v>51</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>52</v>
       </c>
-      <c r="E73" t="s">
-        <v>53</v>
-      </c>
       <c r="F73" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
@@ -1484,16 +1484,16 @@
         <v>5</v>
       </c>
       <c r="C81" t="s">
+        <v>53</v>
+      </c>
+      <c r="D81" t="s">
         <v>54</v>
       </c>
-      <c r="D81" t="s">
-        <v>55</v>
-      </c>
       <c r="E81" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F81" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
@@ -1611,13 +1611,13 @@
         <v>13</v>
       </c>
       <c r="D95" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E95" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F95" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
@@ -1727,7 +1727,7 @@
         <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcxcl\Dropbox\2021XC\Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7F0E73-A615-4C27-B52C-8D75588105F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5717C6-9590-48C8-93DC-71C3FB149429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1F97B90D-26B3-4DE4-ACCC-8E22994B6ECC}"/>
   </bookViews>
@@ -580,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC89124E-97CA-4317-8E8E-A3FBD6EF8403}">
   <dimension ref="A1:F114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcxcl\Dropbox\2021XC\Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5717C6-9590-48C8-93DC-71C3FB149429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38702E0-0252-403A-83A7-D96163B05DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1F97B90D-26B3-4DE4-ACCC-8E22994B6ECC}"/>
   </bookViews>
@@ -222,7 +222,7 @@
     <t>Type</t>
   </si>
   <si>
-    <t>&lt;a href="meetInfo2021.html" title="meetInfo"&gt;Berea Centre Jamboree&lt;/a&gt;</t>
+    <t>&lt;a href="MeetInfo2021.html" title="meetInfo"&gt;Berea Centre Jamboree&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -580,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC89124E-97CA-4317-8E8E-A3FBD6EF8403}">
   <dimension ref="A1:F114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcxcl\Dropbox\2021XC\Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38702E0-0252-403A-83A7-D96163B05DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1A9206-32CA-459D-8765-202DC428EB0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1F97B90D-26B3-4DE4-ACCC-8E22994B6ECC}"/>
   </bookViews>
@@ -195,9 +195,6 @@
     <t>4:30pm</t>
   </si>
   <si>
-    <t>Asbury Invitational</t>
-  </si>
-  <si>
     <t>Wilmore, KY</t>
   </si>
   <si>
@@ -223,6 +220,9 @@
   </si>
   <si>
     <t>&lt;a href="MeetInfo2021.html" title="meetInfo"&gt;Berea Centre Jamboree&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AsburyInfo.html" title="meetInfo"&gt;Asbury Invitational&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -580,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC89124E-97CA-4317-8E8E-A3FBD6EF8403}">
   <dimension ref="A1:F114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -610,7 +610,7 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -897,7 +897,7 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
         <v>19</v>
@@ -1030,7 +1030,7 @@
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D31" t="s">
         <v>14</v>
@@ -1039,7 +1039,7 @@
         <v>15</v>
       </c>
       <c r="F31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
@@ -1162,10 +1162,10 @@
         <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
@@ -1289,7 +1289,7 @@
         <v>15</v>
       </c>
       <c r="F60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
@@ -1340,16 +1340,16 @@
         <v>4</v>
       </c>
       <c r="C66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D66" t="s">
         <v>58</v>
-      </c>
-      <c r="D66" t="s">
-        <v>59</v>
       </c>
       <c r="E66" t="s">
         <v>15</v>
       </c>
       <c r="F66" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
@@ -1417,7 +1417,7 @@
         <v>52</v>
       </c>
       <c r="F73" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
@@ -1484,16 +1484,16 @@
         <v>5</v>
       </c>
       <c r="C81" t="s">
+        <v>62</v>
+      </c>
+      <c r="D81" t="s">
         <v>53</v>
-      </c>
-      <c r="D81" t="s">
-        <v>54</v>
       </c>
       <c r="E81" t="s">
         <v>15</v>
       </c>
       <c r="F81" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
@@ -1611,13 +1611,13 @@
         <v>13</v>
       </c>
       <c r="D95" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E95" t="s">
         <v>15</v>
       </c>
       <c r="F95" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
@@ -1727,7 +1727,7 @@
         <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcxcl\Dropbox\2021XC\Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1A9206-32CA-459D-8765-202DC428EB0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902C3444-250C-4091-9166-0437331ADE5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1F97B90D-26B3-4DE4-ACCC-8E22994B6ECC}"/>
   </bookViews>
@@ -580,7 +580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC89124E-97CA-4317-8E8E-A3FBD6EF8403}">
   <dimension ref="A1:F114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
       <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcxcl\Dropbox\2021XC\Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902C3444-250C-4091-9166-0437331ADE5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD1AA7B-F0EA-440C-92AA-4067A244C38B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1F97B90D-26B3-4DE4-ACCC-8E22994B6ECC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{1F97B90D-26B3-4DE4-ACCC-8E22994B6ECC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="72">
   <si>
     <t>Date</t>
   </si>
@@ -223,6 +224,33 @@
   </si>
   <si>
     <t>&lt;a href="AsburyInfo.html" title="meetInfo"&gt;Asbury Invitational&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Physicals: Team Physician Check Up (New Athletes ONLY)</t>
+  </si>
+  <si>
+    <t>2:00pm-6:00pm</t>
+  </si>
+  <si>
+    <t>6:00pm</t>
+  </si>
+  <si>
+    <t>Main Campus Training Room (Alumni Gym)</t>
+  </si>
+  <si>
+    <t>East Campus Conference Center</t>
+  </si>
+  <si>
+    <t>First Day Of Classes</t>
+  </si>
+  <si>
+    <t>Frehmen Move-In</t>
+  </si>
+  <si>
+    <t>Returning Student Move-In</t>
+  </si>
+  <si>
+    <t>Physcials Check in / Paperwork (Everyone Who has not had a physical)</t>
   </si>
 </sst>
 </file>
@@ -580,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC89124E-97CA-4317-8E8E-A3FBD6EF8403}">
   <dimension ref="A1:F114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1782,4 +1810,878 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883D8E59-CB80-4D96-BB0B-8467B07800EC}">
+  <dimension ref="A1:F102"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" customWidth="1"/>
+    <col min="3" max="3" width="29.26953125" customWidth="1"/>
+    <col min="4" max="4" width="23.7265625" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>44426</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>44427</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>44428</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>44429</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>44430</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>44431</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>44432</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>44433</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>44434</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>44435</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>44436</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>44437</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>44439</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>44440</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>44441</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>44442</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>44443</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>44444</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>44446</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>44447</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>44448</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>44449</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>44450</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>44451</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>44453</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>44454</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>44455</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>44456</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>44457</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>44458</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>44460</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>44461</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>44462</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>44463</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>44464</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>44465</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>44467</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>44468</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>44469</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>44470</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>44471</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>44472</v>
+      </c>
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>44474</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>44475</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>44476</v>
+      </c>
+      <c r="B53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>44477</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>44478</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <v>44479</v>
+      </c>
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>44481</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>44482</v>
+      </c>
+      <c r="B59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <v>44483</v>
+      </c>
+      <c r="B60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>44484</v>
+      </c>
+      <c r="B61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <v>44485</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <v>44486</v>
+      </c>
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <v>44487</v>
+      </c>
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <v>44488</v>
+      </c>
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
+        <v>44489</v>
+      </c>
+      <c r="B66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <v>44490</v>
+      </c>
+      <c r="B67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
+        <v>44491</v>
+      </c>
+      <c r="B68" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <v>44492</v>
+      </c>
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
+        <v>44493</v>
+      </c>
+      <c r="B70" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
+        <v>44495</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
+        <v>44496</v>
+      </c>
+      <c r="B73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
+        <v>44497</v>
+      </c>
+      <c r="B74" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
+        <v>44498</v>
+      </c>
+      <c r="B75" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
+        <v>44499</v>
+      </c>
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
+        <v>44500</v>
+      </c>
+      <c r="B77" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
+        <v>44502</v>
+      </c>
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
+        <v>44503</v>
+      </c>
+      <c r="B80" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
+        <v>44504</v>
+      </c>
+      <c r="B81" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
+        <v>44505</v>
+      </c>
+      <c r="B82" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B84" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="1">
+        <v>44508</v>
+      </c>
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="1">
+        <v>44509</v>
+      </c>
+      <c r="B86" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="1">
+        <v>44510</v>
+      </c>
+      <c r="B87" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="1">
+        <v>44511</v>
+      </c>
+      <c r="B88" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="1">
+        <v>44512</v>
+      </c>
+      <c r="B89" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="1">
+        <v>44513</v>
+      </c>
+      <c r="B90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="1">
+        <v>44514</v>
+      </c>
+      <c r="B91" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B92" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="1">
+        <v>44516</v>
+      </c>
+      <c r="B93" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="1">
+        <v>44517</v>
+      </c>
+      <c r="B94" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="1">
+        <v>44518</v>
+      </c>
+      <c r="B95" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="1">
+        <v>44519</v>
+      </c>
+      <c r="B96" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" s="1">
+        <v>44520</v>
+      </c>
+      <c r="B97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" s="1">
+        <v>44521</v>
+      </c>
+      <c r="B98" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="1">
+        <v>44522</v>
+      </c>
+      <c r="B99" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" s="1">
+        <v>44523</v>
+      </c>
+      <c r="B100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" s="1">
+        <v>44524</v>
+      </c>
+      <c r="B101" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" s="1">
+        <v>44525</v>
+      </c>
+      <c r="B102" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcxcl\Dropbox\2021XC\Calendar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgarnet0\Documents\GitHub\Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD1AA7B-F0EA-440C-92AA-4067A244C38B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47048260-4A3E-4505-B9A9-739905936E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{1F97B90D-26B3-4DE4-ACCC-8E22994B6ECC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1F97B90D-26B3-4DE4-ACCC-8E22994B6ECC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="73">
   <si>
     <t>Date</t>
   </si>
@@ -251,6 +251,9 @@
   </si>
   <si>
     <t>Physcials Check in / Paperwork (Everyone Who has not had a physical)</t>
+  </si>
+  <si>
+    <t>Photo Day</t>
   </si>
 </sst>
 </file>
@@ -606,22 +609,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC89124E-97CA-4317-8E8E-A3FBD6EF8403}">
-  <dimension ref="A1:F114"/>
+  <dimension ref="A1:F115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" customWidth="1"/>
-    <col min="3" max="3" width="29.26953125" customWidth="1"/>
-    <col min="4" max="4" width="23.7265625" customWidth="1"/>
-    <col min="5" max="5" width="16.1796875" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -641,7 +644,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44421</v>
       </c>
@@ -658,7 +661,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44421</v>
       </c>
@@ -672,7 +675,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44421</v>
       </c>
@@ -686,7 +689,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44421</v>
       </c>
@@ -700,7 +703,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44422</v>
       </c>
@@ -717,7 +720,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44422</v>
       </c>
@@ -731,7 +734,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44423</v>
       </c>
@@ -748,7 +751,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44423</v>
       </c>
@@ -762,7 +765,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44424</v>
       </c>
@@ -779,7 +782,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44424</v>
       </c>
@@ -793,1016 +796,1030 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44424</v>
       </c>
       <c r="C12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>44424</v>
+      </c>
+      <c r="C13" t="s">
         <v>38</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>39</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>44425</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44425</v>
       </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
       <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>44425</v>
+      </c>
+      <c r="C15" t="s">
         <v>35</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>37</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>44426</v>
       </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>44427</v>
-      </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
         <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>44428</v>
+        <v>44427</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
         <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>44429</v>
+        <v>44428</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
+        <v>44429</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>44430</v>
       </c>
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>44431</v>
       </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
         <v>54</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>44432</v>
       </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <v>44433</v>
-      </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>44434</v>
+        <v>44433</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
         <v>20</v>
       </c>
-      <c r="D23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>44435</v>
+        <v>44434</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>44436</v>
+        <v>44435</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
+        <v>44436</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>44437</v>
       </c>
-      <c r="B26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>44438</v>
       </c>
-      <c r="B27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
-        <v>44439</v>
-      </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>44440</v>
+        <v>44439</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
         <v>20</v>
       </c>
-      <c r="D29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>44441</v>
+        <v>44440</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
+        <v>44441</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>44442</v>
       </c>
-      <c r="B31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
         <v>61</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D32" t="s">
         <v>14</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E32" t="s">
         <v>15</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F32" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>44443</v>
       </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>44444</v>
       </c>
-      <c r="B33" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>44445</v>
       </c>
-      <c r="B34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>44446</v>
       </c>
-      <c r="B35" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>44447</v>
       </c>
-      <c r="B36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>44448</v>
       </c>
-      <c r="B37" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>44449</v>
       </c>
-      <c r="B38" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>44450</v>
       </c>
-      <c r="B39" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>44451</v>
       </c>
-      <c r="B40" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>44452</v>
       </c>
-      <c r="B41" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>44453</v>
       </c>
-      <c r="B42" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>44454</v>
       </c>
-      <c r="B43" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>44455</v>
       </c>
-      <c r="B44" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
         <v>44456</v>
       </c>
-      <c r="B45" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <v>44457</v>
       </c>
-      <c r="B46" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" t="s">
         <v>56</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F47" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>44458</v>
       </c>
-      <c r="B47" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
         <v>44459</v>
       </c>
-      <c r="B48" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>44460</v>
       </c>
-      <c r="B49" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" s="1">
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
         <v>44461</v>
       </c>
-      <c r="B50" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="1">
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
         <v>44462</v>
       </c>
-      <c r="B51" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="1">
+      <c r="B52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
         <v>44463</v>
       </c>
-      <c r="B52" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="1">
+      <c r="B53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
         <v>44464</v>
       </c>
-      <c r="B53" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="1">
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
         <v>44465</v>
       </c>
-      <c r="B54" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="1">
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
         <v>44466</v>
       </c>
-      <c r="B55" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="1">
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
         <v>44467</v>
       </c>
-      <c r="B56" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="1">
+      <c r="B57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
         <v>44468</v>
       </c>
-      <c r="B57" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="1">
+      <c r="B58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
         <v>44469</v>
       </c>
-      <c r="B58" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" s="1">
+      <c r="B59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
         <v>44470</v>
       </c>
-      <c r="B59" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="1">
+      <c r="B60" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
         <v>44471</v>
       </c>
-      <c r="B60" t="s">
-        <v>5</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
         <v>16</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D61" t="s">
         <v>17</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E61" t="s">
         <v>15</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F61" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" s="1">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
         <v>44472</v>
       </c>
-      <c r="B61" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" s="1">
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
         <v>44473</v>
       </c>
-      <c r="B62" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="1">
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
         <v>44474</v>
       </c>
-      <c r="B63" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A64" s="1">
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
         <v>44475</v>
       </c>
-      <c r="B64" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" s="1">
+      <c r="B65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
         <v>44476</v>
       </c>
-      <c r="B65" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" s="1">
+      <c r="B66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
         <v>44477</v>
       </c>
-      <c r="B66" t="s">
-        <v>4</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="B67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" t="s">
         <v>57</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D67" t="s">
         <v>58</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E67" t="s">
         <v>15</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F67" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A67" s="1">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
         <v>44478</v>
       </c>
-      <c r="B67" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A68" s="1">
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
         <v>44479</v>
       </c>
-      <c r="B68" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" s="1">
+      <c r="B69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
         <v>44480</v>
       </c>
-      <c r="B69" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70" s="1">
+      <c r="B70" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
         <v>44481</v>
       </c>
-      <c r="B70" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A71" s="1">
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
         <v>44482</v>
       </c>
-      <c r="B71" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A72" s="1">
+      <c r="B72" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
         <v>44483</v>
       </c>
-      <c r="B72" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A73" s="1">
+      <c r="B73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
         <v>44484</v>
       </c>
-      <c r="B73" t="s">
-        <v>4</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="B74" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" t="s">
         <v>50</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D74" t="s">
         <v>51</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E74" t="s">
         <v>52</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F74" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A74" s="1">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
         <v>44485</v>
       </c>
-      <c r="B74" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A75" s="1">
+      <c r="B75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
         <v>44486</v>
       </c>
-      <c r="B75" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A76" s="1">
+      <c r="B76" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
         <v>44487</v>
       </c>
-      <c r="B76" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A77" s="1">
+      <c r="B77" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
         <v>44488</v>
       </c>
-      <c r="B77" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A78" s="1">
+      <c r="B78" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
         <v>44489</v>
       </c>
-      <c r="B78" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A79" s="1">
+      <c r="B79" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
         <v>44490</v>
       </c>
-      <c r="B79" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A80" s="1">
+      <c r="B80" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
         <v>44491</v>
       </c>
-      <c r="B80" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A81" s="1">
+      <c r="B81" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
         <v>44492</v>
       </c>
-      <c r="B81" t="s">
-        <v>5</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" t="s">
         <v>62</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D82" t="s">
         <v>53</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E82" t="s">
         <v>15</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F82" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A82" s="1">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
         <v>44493</v>
       </c>
-      <c r="B82" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A83" s="1">
+      <c r="B83" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
         <v>44494</v>
       </c>
-      <c r="B83" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A84" s="1">
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
         <v>44495</v>
       </c>
-      <c r="B84" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A85" s="1">
+      <c r="B85" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
         <v>44496</v>
       </c>
-      <c r="B85" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A86" s="1">
+      <c r="B86" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
         <v>44497</v>
       </c>
-      <c r="B86" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A87" s="1">
+      <c r="B87" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
         <v>44498</v>
       </c>
-      <c r="B87" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A88" s="1">
+      <c r="B88" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
         <v>44499</v>
       </c>
-      <c r="B88" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A89" s="1">
+      <c r="B89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
         <v>44500</v>
       </c>
-      <c r="B89" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A90" s="1">
+      <c r="B90" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
         <v>44501</v>
       </c>
-      <c r="B90" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A91" s="1">
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
         <v>44502</v>
       </c>
-      <c r="B91" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A92" s="1">
+      <c r="B92" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
         <v>44503</v>
       </c>
-      <c r="B92" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A93" s="1">
+      <c r="B93" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
         <v>44504</v>
       </c>
-      <c r="B93" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A94" s="1">
+      <c r="B94" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
         <v>44505</v>
       </c>
-      <c r="B94" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A95" s="1">
+      <c r="B95" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
         <v>44506</v>
       </c>
-      <c r="B95" t="s">
-        <v>5</v>
-      </c>
-      <c r="C95" t="s">
+      <c r="B96" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" t="s">
         <v>13</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D96" t="s">
         <v>55</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E96" t="s">
         <v>15</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F96" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A96" s="1">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
         <v>44507</v>
       </c>
-      <c r="B96" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A97" s="1">
+      <c r="B97" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
         <v>44508</v>
       </c>
-      <c r="B97" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A98" s="1">
+      <c r="B98" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
         <v>44509</v>
       </c>
-      <c r="B98" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A99" s="1">
+      <c r="B99" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
         <v>44510</v>
       </c>
-      <c r="B99" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A100" s="1">
+      <c r="B100" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
         <v>44511</v>
       </c>
-      <c r="B100" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A101" s="1">
+      <c r="B101" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
         <v>44512</v>
       </c>
-      <c r="B101" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A102" s="1">
+      <c r="B102" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
         <v>44513</v>
       </c>
-      <c r="B102" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A103" s="1">
+      <c r="B103" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
         <v>44514</v>
       </c>
-      <c r="B103" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A104" s="1">
+      <c r="B104" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
         <v>44515</v>
       </c>
-      <c r="B104" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A105" s="1">
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
         <v>44516</v>
       </c>
-      <c r="B105" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A106" s="1">
+      <c r="B106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
         <v>44517</v>
       </c>
-      <c r="B106" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A107" s="1">
+      <c r="B107" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
         <v>44518</v>
       </c>
-      <c r="B107" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A108" s="1">
+      <c r="B108" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
         <v>44519</v>
       </c>
-      <c r="B108" t="s">
-        <v>4</v>
-      </c>
-      <c r="C108" t="s">
+      <c r="B109" t="s">
+        <v>4</v>
+      </c>
+      <c r="C109" t="s">
         <v>12</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F109" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A109" s="1">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
         <v>44520</v>
       </c>
-      <c r="B109" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A110" s="1">
+      <c r="B110" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
         <v>44521</v>
       </c>
-      <c r="B110" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A111" s="1">
+      <c r="B111" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
         <v>44522</v>
       </c>
-      <c r="B111" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A112" s="1">
+      <c r="B112" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
         <v>44523</v>
       </c>
-      <c r="B112" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A113" s="1">
+      <c r="B113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
         <v>44524</v>
       </c>
-      <c r="B113" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A114" s="1">
+      <c r="B114" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
         <v>44525</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B115" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1816,20 +1833,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883D8E59-CB80-4D96-BB0B-8467B07800EC}">
   <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" customWidth="1"/>
-    <col min="3" max="3" width="29.26953125" customWidth="1"/>
-    <col min="4" max="4" width="23.7265625" customWidth="1"/>
-    <col min="5" max="5" width="16.1796875" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1849,7 +1866,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44426</v>
       </c>
@@ -1860,7 +1877,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44427</v>
       </c>
@@ -1868,7 +1885,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44428</v>
       </c>
@@ -1876,7 +1893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44429</v>
       </c>
@@ -1887,7 +1904,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44430</v>
       </c>
@@ -1904,7 +1921,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44431</v>
       </c>
@@ -1921,7 +1938,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44431</v>
       </c>
@@ -1929,7 +1946,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44432</v>
       </c>
@@ -1937,7 +1954,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44433</v>
       </c>
@@ -1945,7 +1962,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44434</v>
       </c>
@@ -1953,7 +1970,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44435</v>
       </c>
@@ -1961,7 +1978,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44436</v>
       </c>
@@ -1969,7 +1986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44437</v>
       </c>
@@ -1977,7 +1994,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44438</v>
       </c>
@@ -1985,7 +2002,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44439</v>
       </c>
@@ -1993,7 +2010,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44440</v>
       </c>
@@ -2001,7 +2018,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44441</v>
       </c>
@@ -2009,7 +2026,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44442</v>
       </c>
@@ -2017,7 +2034,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44443</v>
       </c>
@@ -2025,7 +2042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44444</v>
       </c>
@@ -2033,7 +2050,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44445</v>
       </c>
@@ -2041,7 +2058,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44446</v>
       </c>
@@ -2049,7 +2066,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44447</v>
       </c>
@@ -2057,7 +2074,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44448</v>
       </c>
@@ -2065,7 +2082,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>44449</v>
       </c>
@@ -2073,7 +2090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44450</v>
       </c>
@@ -2081,7 +2098,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>44451</v>
       </c>
@@ -2089,7 +2106,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>44452</v>
       </c>
@@ -2097,7 +2114,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>44453</v>
       </c>
@@ -2105,7 +2122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>44454</v>
       </c>
@@ -2113,7 +2130,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>44455</v>
       </c>
@@ -2121,7 +2138,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>44456</v>
       </c>
@@ -2129,7 +2146,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>44457</v>
       </c>
@@ -2137,7 +2154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>44458</v>
       </c>
@@ -2145,7 +2162,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>44459</v>
       </c>
@@ -2153,7 +2170,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>44460</v>
       </c>
@@ -2161,7 +2178,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>44461</v>
       </c>
@@ -2169,7 +2186,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>44462</v>
       </c>
@@ -2177,7 +2194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>44463</v>
       </c>
@@ -2185,7 +2202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>44464</v>
       </c>
@@ -2193,7 +2210,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>44465</v>
       </c>
@@ -2201,7 +2218,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>44466</v>
       </c>
@@ -2209,7 +2226,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44467</v>
       </c>
@@ -2217,7 +2234,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44468</v>
       </c>
@@ -2225,7 +2242,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44469</v>
       </c>
@@ -2233,7 +2250,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44470</v>
       </c>
@@ -2241,7 +2258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>44471</v>
       </c>
@@ -2249,7 +2266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>44472</v>
       </c>
@@ -2257,7 +2274,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>44473</v>
       </c>
@@ -2265,7 +2282,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>44474</v>
       </c>
@@ -2273,7 +2290,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>44475</v>
       </c>
@@ -2281,7 +2298,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>44476</v>
       </c>
@@ -2289,7 +2306,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>44477</v>
       </c>
@@ -2297,7 +2314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>44478</v>
       </c>
@@ -2305,7 +2322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>44479</v>
       </c>
@@ -2313,7 +2330,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>44480</v>
       </c>
@@ -2321,7 +2338,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>44481</v>
       </c>
@@ -2329,7 +2346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>44482</v>
       </c>
@@ -2337,7 +2354,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>44483</v>
       </c>
@@ -2345,7 +2362,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>44484</v>
       </c>
@@ -2353,7 +2370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>44485</v>
       </c>
@@ -2361,7 +2378,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>44486</v>
       </c>
@@ -2369,7 +2386,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>44487</v>
       </c>
@@ -2377,7 +2394,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>44488</v>
       </c>
@@ -2385,7 +2402,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>44489</v>
       </c>
@@ -2393,7 +2410,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>44490</v>
       </c>
@@ -2401,7 +2418,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>44491</v>
       </c>
@@ -2409,7 +2426,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>44492</v>
       </c>
@@ -2417,7 +2434,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>44493</v>
       </c>
@@ -2425,7 +2442,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>44494</v>
       </c>
@@ -2433,7 +2450,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>44495</v>
       </c>
@@ -2441,7 +2458,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>44496</v>
       </c>
@@ -2449,7 +2466,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>44497</v>
       </c>
@@ -2457,7 +2474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>44498</v>
       </c>
@@ -2465,7 +2482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>44499</v>
       </c>
@@ -2473,7 +2490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>44500</v>
       </c>
@@ -2481,7 +2498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>44501</v>
       </c>
@@ -2489,7 +2506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>44502</v>
       </c>
@@ -2497,7 +2514,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>44503</v>
       </c>
@@ -2505,7 +2522,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>44504</v>
       </c>
@@ -2513,7 +2530,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>44505</v>
       </c>
@@ -2521,7 +2538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>44506</v>
       </c>
@@ -2529,7 +2546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>44507</v>
       </c>
@@ -2537,7 +2554,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>44508</v>
       </c>
@@ -2545,7 +2562,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>44509</v>
       </c>
@@ -2553,7 +2570,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>44510</v>
       </c>
@@ -2561,7 +2578,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>44511</v>
       </c>
@@ -2569,7 +2586,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>44512</v>
       </c>
@@ -2577,7 +2594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>44513</v>
       </c>
@@ -2585,7 +2602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>44514</v>
       </c>
@@ -2593,7 +2610,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>44515</v>
       </c>
@@ -2601,7 +2618,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>44516</v>
       </c>
@@ -2609,7 +2626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>44517</v>
       </c>
@@ -2617,7 +2634,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>44518</v>
       </c>
@@ -2625,7 +2642,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>44519</v>
       </c>
@@ -2633,7 +2650,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>44520</v>
       </c>
@@ -2641,7 +2658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>44521</v>
       </c>
@@ -2649,7 +2666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>44522</v>
       </c>
@@ -2657,7 +2674,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>44523</v>
       </c>
@@ -2665,7 +2682,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>44524</v>
       </c>
@@ -2673,7 +2690,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>44525</v>
       </c>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgarnet0\Documents\GitHub\Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47048260-4A3E-4505-B9A9-739905936E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B3C519-AF53-4577-8AB1-96D12F57B52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1F97B90D-26B3-4DE4-ACCC-8E22994B6ECC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="75">
   <si>
     <t>Date</t>
   </si>
@@ -254,6 +254,12 @@
   </si>
   <si>
     <t>Photo Day</t>
+  </si>
+  <si>
+    <t>6:30am</t>
+  </si>
+  <si>
+    <t>9am</t>
   </si>
 </sst>
 </file>
@@ -612,7 +618,7 @@
   <dimension ref="A1:F115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,7 +664,7 @@
         <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -748,7 +754,7 @@
         <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgarnet0\Documents\GitHub\Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B3C519-AF53-4577-8AB1-96D12F57B52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA0430E-85DD-4E35-986D-BBF53A089A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1F97B90D-26B3-4DE4-ACCC-8E22994B6ECC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="76">
   <si>
     <t>Date</t>
   </si>
@@ -205,9 +205,6 @@
     <t>Bowling Green, KY</t>
   </si>
   <si>
-    <t>Meet TBA</t>
-  </si>
-  <si>
     <t>Fast Cats Classic*** (Partial Team)</t>
   </si>
   <si>
@@ -260,6 +257,12 @@
   </si>
   <si>
     <t>9am</t>
+  </si>
+  <si>
+    <t>Conference Preview Meet</t>
+  </si>
+  <si>
+    <t>4:30pm CDT</t>
   </si>
 </sst>
 </file>
@@ -617,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC89124E-97CA-4317-8E8E-A3FBD6EF8403}">
   <dimension ref="A1:F115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,7 +650,7 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -664,7 +667,7 @@
         <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -754,7 +757,7 @@
         <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -807,7 +810,7 @@
         <v>44424</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
@@ -1081,7 +1084,7 @@
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D32" t="s">
         <v>14</v>
@@ -1090,7 +1093,7 @@
         <v>15</v>
       </c>
       <c r="F32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1204,6 +1207,18 @@
       <c r="B46" t="s">
         <v>4</v>
       </c>
+      <c r="C46" t="s">
+        <v>74</v>
+      </c>
+      <c r="D46" t="s">
+        <v>55</v>
+      </c>
+      <c r="E46" t="s">
+        <v>75</v>
+      </c>
+      <c r="F46" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
@@ -1212,12 +1227,6 @@
       <c r="B47" t="s">
         <v>5</v>
       </c>
-      <c r="C47" t="s">
-        <v>56</v>
-      </c>
-      <c r="F47" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
@@ -1340,7 +1349,7 @@
         <v>15</v>
       </c>
       <c r="F61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -1391,16 +1400,16 @@
         <v>4</v>
       </c>
       <c r="C67" t="s">
+        <v>56</v>
+      </c>
+      <c r="D67" t="s">
         <v>57</v>
-      </c>
-      <c r="D67" t="s">
-        <v>58</v>
       </c>
       <c r="E67" t="s">
         <v>15</v>
       </c>
       <c r="F67" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -1468,7 +1477,7 @@
         <v>52</v>
       </c>
       <c r="F74" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -1535,7 +1544,7 @@
         <v>5</v>
       </c>
       <c r="C82" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D82" t="s">
         <v>53</v>
@@ -1544,7 +1553,7 @@
         <v>15</v>
       </c>
       <c r="F82" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -1668,7 +1677,7 @@
         <v>15</v>
       </c>
       <c r="F96" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -1778,7 +1787,7 @@
         <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -1869,7 +1878,7 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1880,7 +1889,7 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1907,7 +1916,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1918,13 +1927,13 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1935,13 +1944,13 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1949,7 +1958,7 @@
         <v>44431</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgarnet0\Documents\GitHub\Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA0430E-85DD-4E35-986D-BBF53A089A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3651432A-C3E8-48FA-B9A9-6759396FAA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1F97B90D-26B3-4DE4-ACCC-8E22994B6ECC}"/>
+    <workbookView xWindow="-19320" yWindow="15" windowWidth="19440" windowHeight="15000" xr2:uid="{1F97B90D-26B3-4DE4-ACCC-8E22994B6ECC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -205,9 +205,6 @@
     <t>Bowling Green, KY</t>
   </si>
   <si>
-    <t>Fast Cats Classic*** (Partial Team)</t>
-  </si>
-  <si>
     <t>Owensboro, KY</t>
   </si>
   <si>
@@ -263,6 +260,9 @@
   </si>
   <si>
     <t>4:30pm CDT</t>
+  </si>
+  <si>
+    <t>Brescia Invitational*** (Partial Team, Formerly known as Fast Cats)</t>
   </si>
 </sst>
 </file>
@@ -620,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC89124E-97CA-4317-8E8E-A3FBD6EF8403}">
   <dimension ref="A1:F115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,7 +650,7 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -667,7 +667,7 @@
         <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -757,7 +757,7 @@
         <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -810,7 +810,7 @@
         <v>44424</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
@@ -1084,7 +1084,7 @@
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D32" t="s">
         <v>14</v>
@@ -1093,7 +1093,7 @@
         <v>15</v>
       </c>
       <c r="F32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1208,16 +1208,16 @@
         <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D46" t="s">
         <v>55</v>
       </c>
       <c r="E46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1349,7 +1349,7 @@
         <v>15</v>
       </c>
       <c r="F61" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -1400,16 +1400,16 @@
         <v>4</v>
       </c>
       <c r="C67" t="s">
+        <v>75</v>
+      </c>
+      <c r="D67" t="s">
         <v>56</v>
-      </c>
-      <c r="D67" t="s">
-        <v>57</v>
       </c>
       <c r="E67" t="s">
         <v>15</v>
       </c>
       <c r="F67" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -1477,7 +1477,7 @@
         <v>52</v>
       </c>
       <c r="F74" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -1544,7 +1544,7 @@
         <v>5</v>
       </c>
       <c r="C82" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D82" t="s">
         <v>53</v>
@@ -1553,7 +1553,7 @@
         <v>15</v>
       </c>
       <c r="F82" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -1677,7 +1677,7 @@
         <v>15</v>
       </c>
       <c r="F96" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -1787,7 +1787,7 @@
         <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -1878,7 +1878,7 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1889,7 +1889,7 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1916,7 +1916,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1927,13 +1927,13 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1944,13 +1944,13 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1958,7 +1958,7 @@
         <v>44431</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgarnet0\Documents\GitHub\Calendar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcxcl\Dropbox\2021XC\Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3651432A-C3E8-48FA-B9A9-6759396FAA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5FD116-19FC-4E4A-AD48-07C38825AEFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="15" windowWidth="19440" windowHeight="15000" xr2:uid="{1F97B90D-26B3-4DE4-ACCC-8E22994B6ECC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1F97B90D-26B3-4DE4-ACCC-8E22994B6ECC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="78">
   <si>
     <t>Date</t>
   </si>
@@ -76,18 +76,12 @@
     <t>Nationals</t>
   </si>
   <si>
-    <t>Conference Championships</t>
-  </si>
-  <si>
     <t>Berea, KY</t>
   </si>
   <si>
     <t>TBA</t>
   </si>
   <si>
-    <t>Live in Louisville Classic</t>
-  </si>
-  <si>
     <t>Louisville, KY</t>
   </si>
   <si>
@@ -166,30 +160,9 @@
     <t>Physicals (New Athletes / New Injuries ONLY)</t>
   </si>
   <si>
-    <t>Physicals Check-In / Paperwork</t>
-  </si>
-  <si>
-    <t>Conference Center</t>
-  </si>
-  <si>
-    <t>10am-2pm</t>
-  </si>
-  <si>
     <t>Check-In and Move-In</t>
   </si>
   <si>
-    <t>After Physicals</t>
-  </si>
-  <si>
-    <t>Asher 112?</t>
-  </si>
-  <si>
-    <t>Student Center?</t>
-  </si>
-  <si>
-    <t>JennaStrong Invitational</t>
-  </si>
-  <si>
     <t>Wilmington, OH</t>
   </si>
   <si>
@@ -214,12 +187,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>&lt;a href="MeetInfo2021.html" title="meetInfo"&gt;Berea Centre Jamboree&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href="AsburyInfo.html" title="meetInfo"&gt;Asbury Invitational&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Physicals: Team Physician Check Up (New Athletes ONLY)</t>
   </si>
   <si>
@@ -256,13 +223,52 @@
     <t>9am</t>
   </si>
   <si>
-    <t>Conference Preview Meet</t>
-  </si>
-  <si>
     <t>4:30pm CDT</t>
   </si>
   <si>
-    <t>Brescia Invitational*** (Partial Team, Formerly known as Fast Cats)</t>
+    <t>Physicals Check-In / Paperwork (RETURNERS ONLY)</t>
+  </si>
+  <si>
+    <t>Physicals Check in / Paperwork (NEW ATHLETES)</t>
+  </si>
+  <si>
+    <t>12pm-2pm</t>
+  </si>
+  <si>
+    <t>10am-11:30am</t>
+  </si>
+  <si>
+    <t>REC Center</t>
+  </si>
+  <si>
+    <t>Student Center</t>
+  </si>
+  <si>
+    <t>Asher 112</t>
+  </si>
+  <si>
+    <t>8pm</t>
+  </si>
+  <si>
+    <t>&lt;a href="MSCInfo.html" title="Go To Page"&gt;Mid-South Conference Championships&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="AsburyInfo.html" title="Go To Page"&gt;Asbury Invitational&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="JennaStrongInfo.html" title="Go To Page"&gt;JennaStrong Fall Classic&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="BresciaInfo.html" title="Ho To Page"&gt;Brescia Invitational (Those who do not compete at Louisville)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="LouisvilleInfo.html" title="Go To Page"&gt;Live in Louisville Classic&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="DrakesInfo.html" title="Go To Page"&gt;Drakes Creek Scramble&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="MeetInfo2021.html" title="Go To Page"&gt;Berea Centre Jamboree&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -618,22 +624,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC89124E-97CA-4317-8E8E-A3FBD6EF8403}">
-  <dimension ref="A1:F115"/>
+  <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" customWidth="1"/>
+    <col min="3" max="3" width="29.26953125" customWidth="1"/>
+    <col min="4" max="4" width="23.7265625" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -650,10 +656,10 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>44421</v>
       </c>
@@ -661,1180 +667,1194 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>44421</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>44421</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>44421</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>44422</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
+        <v>44421</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>44422</v>
       </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>44422</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
         <v>29</v>
       </c>
-      <c r="E7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>44423</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>44423</v>
       </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
       <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>44423</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
         <v>32</v>
       </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>44424</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>44424</v>
       </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>44424</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>44424</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>44425</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
+        <v>44424</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>44425</v>
       </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
       <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>44425</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
         <v>35</v>
       </c>
-      <c r="D15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
         <v>44426</v>
       </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>44427</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>44428</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>44429</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>44430</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
         <v>20</v>
       </c>
-      <c r="D16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>44427</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>44428</v>
-      </c>
-      <c r="B18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>44429</v>
-      </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" t="s">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>44432</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>44433</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>44434</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>44435</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>44436</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>44437</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>44439</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>44440</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>44441</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>44442</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>44443</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>44444</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>44446</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>44447</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>44448</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>44449</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>44450</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>44451</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>44453</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>44454</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>44455</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>44456</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" t="s">
+        <v>76</v>
+      </c>
+      <c r="D47" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>62</v>
+      </c>
+      <c r="F47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>44457</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>44458</v>
+      </c>
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>44460</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>44461</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>44462</v>
+      </c>
+      <c r="B53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>44463</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>44464</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <v>44465</v>
+      </c>
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>44467</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>44468</v>
+      </c>
+      <c r="B59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <v>44469</v>
+      </c>
+      <c r="B60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>44470</v>
+      </c>
+      <c r="B61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <v>44471</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>75</v>
+      </c>
+      <c r="D62" t="s">
         <v>15</v>
       </c>
-      <c r="E19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>44430</v>
-      </c>
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>44431</v>
-      </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>44432</v>
-      </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>44433</v>
-      </c>
-      <c r="B23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>44434</v>
-      </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>44435</v>
-      </c>
-      <c r="B25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>44436</v>
-      </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>44437</v>
-      </c>
-      <c r="B27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>44438</v>
-      </c>
-      <c r="B28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>44439</v>
-      </c>
-      <c r="B29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>44440</v>
-      </c>
-      <c r="B30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>44441</v>
-      </c>
-      <c r="B31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>44442</v>
-      </c>
-      <c r="B32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" t="s">
-        <v>59</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="E62" t="s">
         <v>14</v>
       </c>
-      <c r="E32" t="s">
-        <v>15</v>
-      </c>
-      <c r="F32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>44443</v>
-      </c>
-      <c r="B33" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>44444</v>
-      </c>
-      <c r="B34" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>44445</v>
-      </c>
-      <c r="B35" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>44446</v>
-      </c>
-      <c r="B36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>44447</v>
-      </c>
-      <c r="B37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>44448</v>
-      </c>
-      <c r="B38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>44449</v>
-      </c>
-      <c r="B39" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>44450</v>
-      </c>
-      <c r="B40" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>44451</v>
-      </c>
-      <c r="B41" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>44452</v>
-      </c>
-      <c r="B42" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>44453</v>
-      </c>
-      <c r="B43" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>44454</v>
-      </c>
-      <c r="B44" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>44455</v>
-      </c>
-      <c r="B45" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>44456</v>
-      </c>
-      <c r="B46" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="F62" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <v>44472</v>
+      </c>
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <v>44474</v>
+      </c>
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
+        <v>44475</v>
+      </c>
+      <c r="B66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <v>44476</v>
+      </c>
+      <c r="B67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
+        <v>44477</v>
+      </c>
+      <c r="B68" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" t="s">
+        <v>74</v>
+      </c>
+      <c r="D68" t="s">
+        <v>47</v>
+      </c>
+      <c r="E68" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <v>44478</v>
+      </c>
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
+        <v>44479</v>
+      </c>
+      <c r="B70" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
+        <v>44481</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
+        <v>44482</v>
+      </c>
+      <c r="B73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
+        <v>44483</v>
+      </c>
+      <c r="B74" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
+        <v>44484</v>
+      </c>
+      <c r="B75" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" t="s">
         <v>73</v>
       </c>
-      <c r="D46" t="s">
-        <v>55</v>
-      </c>
-      <c r="E46" t="s">
-        <v>74</v>
-      </c>
-      <c r="F46" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>44457</v>
-      </c>
-      <c r="B47" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>44458</v>
-      </c>
-      <c r="B48" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>44459</v>
-      </c>
-      <c r="B49" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>44460</v>
-      </c>
-      <c r="B50" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>44461</v>
-      </c>
-      <c r="B51" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>44462</v>
-      </c>
-      <c r="B52" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>44463</v>
-      </c>
-      <c r="B53" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>44464</v>
-      </c>
-      <c r="B54" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>44465</v>
-      </c>
-      <c r="B55" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>44466</v>
-      </c>
-      <c r="B56" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>44467</v>
-      </c>
-      <c r="B57" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>44468</v>
-      </c>
-      <c r="B58" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>44469</v>
-      </c>
-      <c r="B59" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>44470</v>
-      </c>
-      <c r="B60" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>44471</v>
-      </c>
-      <c r="B61" t="s">
-        <v>5</v>
-      </c>
-      <c r="C61" t="s">
-        <v>16</v>
-      </c>
-      <c r="D61" t="s">
-        <v>17</v>
-      </c>
-      <c r="E61" t="s">
-        <v>15</v>
-      </c>
-      <c r="F61" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>44472</v>
-      </c>
-      <c r="B62" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>44473</v>
-      </c>
-      <c r="B63" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>44474</v>
-      </c>
-      <c r="B64" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>44475</v>
-      </c>
-      <c r="B65" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>44476</v>
-      </c>
-      <c r="B66" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>44477</v>
-      </c>
-      <c r="B67" t="s">
-        <v>4</v>
-      </c>
-      <c r="C67" t="s">
-        <v>75</v>
-      </c>
-      <c r="D67" t="s">
-        <v>56</v>
-      </c>
-      <c r="E67" t="s">
-        <v>15</v>
-      </c>
-      <c r="F67" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>44478</v>
-      </c>
-      <c r="B68" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>44479</v>
-      </c>
-      <c r="B69" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>44480</v>
-      </c>
-      <c r="B70" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>44481</v>
-      </c>
-      <c r="B71" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>44482</v>
-      </c>
-      <c r="B72" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>44483</v>
-      </c>
-      <c r="B73" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>44484</v>
-      </c>
-      <c r="B74" t="s">
-        <v>4</v>
-      </c>
-      <c r="C74" t="s">
-        <v>50</v>
-      </c>
-      <c r="D74" t="s">
-        <v>51</v>
-      </c>
-      <c r="E74" t="s">
-        <v>52</v>
-      </c>
-      <c r="F74" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
+      <c r="D75" t="s">
+        <v>42</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
         <v>44485</v>
       </c>
-      <c r="B75" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
         <v>44486</v>
       </c>
-      <c r="B76" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
+      <c r="B77" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
         <v>44487</v>
       </c>
-      <c r="B77" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
         <v>44488</v>
       </c>
-      <c r="B78" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
         <v>44489</v>
       </c>
-      <c r="B79" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
+      <c r="B80" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
         <v>44490</v>
       </c>
-      <c r="B80" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
+      <c r="B81" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
         <v>44491</v>
       </c>
-      <c r="B81" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
+      <c r="B82" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" s="1">
         <v>44492</v>
       </c>
-      <c r="B82" t="s">
-        <v>5</v>
-      </c>
-      <c r="C82" t="s">
-        <v>60</v>
-      </c>
-      <c r="D82" t="s">
-        <v>53</v>
-      </c>
-      <c r="E82" t="s">
-        <v>15</v>
-      </c>
-      <c r="F82" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" t="s">
+        <v>72</v>
+      </c>
+      <c r="D83" t="s">
+        <v>44</v>
+      </c>
+      <c r="E83" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" s="1">
         <v>44493</v>
       </c>
-      <c r="B83" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
+      <c r="B84" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" s="1">
         <v>44494</v>
       </c>
-      <c r="B84" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" s="1">
         <v>44495</v>
       </c>
-      <c r="B85" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
+      <c r="B86" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" s="1">
         <v>44496</v>
       </c>
-      <c r="B86" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
+      <c r="B87" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" s="1">
         <v>44497</v>
       </c>
-      <c r="B87" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
+      <c r="B88" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" s="1">
         <v>44498</v>
       </c>
-      <c r="B88" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
+      <c r="B89" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" s="1">
         <v>44499</v>
       </c>
-      <c r="B89" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
+      <c r="B90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" s="1">
         <v>44500</v>
       </c>
-      <c r="B90" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
+      <c r="B91" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92" s="1">
         <v>44501</v>
       </c>
-      <c r="B91" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
+      <c r="B92" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" s="1">
         <v>44502</v>
       </c>
-      <c r="B92" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
+      <c r="B93" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94" s="1">
         <v>44503</v>
       </c>
-      <c r="B93" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
+      <c r="B94" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95" s="1">
         <v>44504</v>
       </c>
-      <c r="B94" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
+      <c r="B95" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96" s="1">
         <v>44505</v>
       </c>
-      <c r="B95" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
+      <c r="B96" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A97" s="1">
         <v>44506</v>
       </c>
-      <c r="B96" t="s">
-        <v>5</v>
-      </c>
-      <c r="C96" t="s">
-        <v>13</v>
-      </c>
-      <c r="D96" t="s">
-        <v>55</v>
-      </c>
-      <c r="E96" t="s">
-        <v>15</v>
-      </c>
-      <c r="F96" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
+      <c r="B97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" t="s">
+        <v>71</v>
+      </c>
+      <c r="D97" t="s">
+        <v>46</v>
+      </c>
+      <c r="E97" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A98" s="1">
         <v>44507</v>
       </c>
-      <c r="B97" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
+      <c r="B98" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A99" s="1">
         <v>44508</v>
       </c>
-      <c r="B98" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
+      <c r="B99" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A100" s="1">
         <v>44509</v>
       </c>
-      <c r="B99" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
+      <c r="B100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A101" s="1">
         <v>44510</v>
       </c>
-      <c r="B100" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
+      <c r="B101" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A102" s="1">
         <v>44511</v>
       </c>
-      <c r="B101" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
+      <c r="B102" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A103" s="1">
         <v>44512</v>
       </c>
-      <c r="B102" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
+      <c r="B103" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A104" s="1">
         <v>44513</v>
       </c>
-      <c r="B103" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="1">
+      <c r="B104" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A105" s="1">
         <v>44514</v>
       </c>
-      <c r="B104" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="1">
+      <c r="B105" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A106" s="1">
         <v>44515</v>
       </c>
-      <c r="B105" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
+      <c r="B106" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A107" s="1">
         <v>44516</v>
       </c>
-      <c r="B106" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
+      <c r="B107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A108" s="1">
         <v>44517</v>
       </c>
-      <c r="B107" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="1">
+      <c r="B108" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A109" s="1">
         <v>44518</v>
       </c>
-      <c r="B108" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="1">
+      <c r="B109" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A110" s="1">
         <v>44519</v>
       </c>
-      <c r="B109" t="s">
-        <v>4</v>
-      </c>
-      <c r="C109" t="s">
+      <c r="B110" t="s">
+        <v>4</v>
+      </c>
+      <c r="C110" t="s">
         <v>12</v>
       </c>
-      <c r="F109" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
+      <c r="F110" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A111" s="1">
         <v>44520</v>
       </c>
-      <c r="B110" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
+      <c r="B111" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A112" s="1">
         <v>44521</v>
       </c>
-      <c r="B111" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="1">
+      <c r="B112" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" s="1">
         <v>44522</v>
       </c>
-      <c r="B112" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="1">
+      <c r="B113" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" s="1">
         <v>44523</v>
       </c>
-      <c r="B113" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="1">
+      <c r="B114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" s="1">
         <v>44524</v>
       </c>
-      <c r="B114" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="1">
+      <c r="B115" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" s="1">
         <v>44525</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B116" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1852,16 +1872,16 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" customWidth="1"/>
+    <col min="3" max="3" width="29.26953125" customWidth="1"/>
+    <col min="4" max="4" width="23.7265625" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1878,10 +1898,10 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>44426</v>
       </c>
@@ -1889,10 +1909,10 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>44427</v>
       </c>
@@ -1900,7 +1920,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>44428</v>
       </c>
@@ -1908,7 +1928,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>44429</v>
       </c>
@@ -1916,10 +1936,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>44430</v>
       </c>
@@ -1927,16 +1947,16 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>44431</v>
       </c>
@@ -1944,24 +1964,24 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>44431</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>44432</v>
       </c>
@@ -1969,7 +1989,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>44433</v>
       </c>
@@ -1977,7 +1997,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>44434</v>
       </c>
@@ -1985,7 +2005,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>44435</v>
       </c>
@@ -1993,7 +2013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>44436</v>
       </c>
@@ -2001,7 +2021,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>44437</v>
       </c>
@@ -2009,7 +2029,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>44438</v>
       </c>
@@ -2017,7 +2037,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>44439</v>
       </c>
@@ -2025,7 +2045,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>44440</v>
       </c>
@@ -2033,7 +2053,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>44441</v>
       </c>
@@ -2041,7 +2061,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>44442</v>
       </c>
@@ -2049,7 +2069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>44443</v>
       </c>
@@ -2057,7 +2077,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>44444</v>
       </c>
@@ -2065,7 +2085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>44445</v>
       </c>
@@ -2073,7 +2093,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>44446</v>
       </c>
@@ -2081,7 +2101,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>44447</v>
       </c>
@@ -2089,7 +2109,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>44448</v>
       </c>
@@ -2097,7 +2117,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>44449</v>
       </c>
@@ -2105,7 +2125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>44450</v>
       </c>
@@ -2113,7 +2133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>44451</v>
       </c>
@@ -2121,7 +2141,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>44452</v>
       </c>
@@ -2129,7 +2149,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>44453</v>
       </c>
@@ -2137,7 +2157,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>44454</v>
       </c>
@@ -2145,7 +2165,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>44455</v>
       </c>
@@ -2153,7 +2173,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>44456</v>
       </c>
@@ -2161,7 +2181,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>44457</v>
       </c>
@@ -2169,7 +2189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>44458</v>
       </c>
@@ -2177,7 +2197,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>44459</v>
       </c>
@@ -2185,7 +2205,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>44460</v>
       </c>
@@ -2193,7 +2213,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>44461</v>
       </c>
@@ -2201,7 +2221,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>44462</v>
       </c>
@@ -2209,7 +2229,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>44463</v>
       </c>
@@ -2217,7 +2237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>44464</v>
       </c>
@@ -2225,7 +2245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>44465</v>
       </c>
@@ -2233,7 +2253,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>44466</v>
       </c>
@@ -2241,7 +2261,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>44467</v>
       </c>
@@ -2249,7 +2269,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>44468</v>
       </c>
@@ -2257,7 +2277,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>44469</v>
       </c>
@@ -2265,7 +2285,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>44470</v>
       </c>
@@ -2273,7 +2293,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>44471</v>
       </c>
@@ -2281,7 +2301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>44472</v>
       </c>
@@ -2289,7 +2309,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>44473</v>
       </c>
@@ -2297,7 +2317,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>44474</v>
       </c>
@@ -2305,7 +2325,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>44475</v>
       </c>
@@ -2313,7 +2333,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>44476</v>
       </c>
@@ -2321,7 +2341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>44477</v>
       </c>
@@ -2329,7 +2349,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>44478</v>
       </c>
@@ -2337,7 +2357,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>44479</v>
       </c>
@@ -2345,7 +2365,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>44480</v>
       </c>
@@ -2353,7 +2373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>44481</v>
       </c>
@@ -2361,7 +2381,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>44482</v>
       </c>
@@ -2369,7 +2389,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>44483</v>
       </c>
@@ -2377,7 +2397,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>44484</v>
       </c>
@@ -2385,7 +2405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>44485</v>
       </c>
@@ -2393,7 +2413,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>44486</v>
       </c>
@@ -2401,7 +2421,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>44487</v>
       </c>
@@ -2409,7 +2429,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>44488</v>
       </c>
@@ -2417,7 +2437,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>44489</v>
       </c>
@@ -2425,7 +2445,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>44490</v>
       </c>
@@ -2433,7 +2453,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>44491</v>
       </c>
@@ -2441,7 +2461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>44492</v>
       </c>
@@ -2449,7 +2469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>44493</v>
       </c>
@@ -2457,7 +2477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>44494</v>
       </c>
@@ -2465,7 +2485,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>44495</v>
       </c>
@@ -2473,7 +2493,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>44496</v>
       </c>
@@ -2481,7 +2501,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>44497</v>
       </c>
@@ -2489,7 +2509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>44498</v>
       </c>
@@ -2497,7 +2517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>44499</v>
       </c>
@@ -2505,7 +2525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>44500</v>
       </c>
@@ -2513,7 +2533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>44501</v>
       </c>
@@ -2521,7 +2541,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>44502</v>
       </c>
@@ -2529,7 +2549,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>44503</v>
       </c>
@@ -2537,7 +2557,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>44504</v>
       </c>
@@ -2545,7 +2565,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>44505</v>
       </c>
@@ -2553,7 +2573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>44506</v>
       </c>
@@ -2561,7 +2581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>44507</v>
       </c>
@@ -2569,7 +2589,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>44508</v>
       </c>
@@ -2577,7 +2597,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>44509</v>
       </c>
@@ -2585,7 +2605,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>44510</v>
       </c>
@@ -2593,7 +2613,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>44511</v>
       </c>
@@ -2601,7 +2621,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>44512</v>
       </c>
@@ -2609,7 +2629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>44513</v>
       </c>
@@ -2617,7 +2637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>44514</v>
       </c>
@@ -2625,7 +2645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>44515</v>
       </c>
@@ -2633,7 +2653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>44516</v>
       </c>
@@ -2641,7 +2661,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>44517</v>
       </c>
@@ -2649,7 +2669,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>44518</v>
       </c>
@@ -2657,7 +2677,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>44519</v>
       </c>
@@ -2665,7 +2685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>44520</v>
       </c>
@@ -2673,7 +2693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>44521</v>
       </c>
@@ -2681,7 +2701,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>44522</v>
       </c>
@@ -2689,7 +2709,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>44523</v>
       </c>
@@ -2697,7 +2717,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>44524</v>
       </c>
@@ -2705,7 +2725,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>44525</v>
       </c>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcxcl\Dropbox\2021XC\Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5FD116-19FC-4E4A-AD48-07C38825AEFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003B7730-259F-4691-9B38-ED786D05E6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1F97B90D-26B3-4DE4-ACCC-8E22994B6ECC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="80">
   <si>
     <t>Date</t>
   </si>
@@ -268,7 +268,13 @@
     <t>&lt;a href="DrakesInfo.html" title="Go To Page"&gt;Drakes Creek Scramble&lt;/a&gt;</t>
   </si>
   <si>
-    <t>&lt;a href="MeetInfo2021.html" title="Go To Page"&gt;Berea Centre Jamboree&lt;/a&gt;</t>
+    <t>11:00am</t>
+  </si>
+  <si>
+    <t>&lt;a href="BereaInfo.html" title="Go To Page"&gt;Berea Centre Jamboree&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>6:30pm</t>
   </si>
 </sst>
 </file>
@@ -626,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC89124E-97CA-4317-8E8E-A3FBD6EF8403}">
   <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1104,13 +1110,13 @@
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D33" t="s">
         <v>13</v>
       </c>
       <c r="E33" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="F33" t="s">
         <v>48</v>
@@ -1426,7 +1432,7 @@
         <v>47</v>
       </c>
       <c r="E68" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="F68" t="s">
         <v>48</v>
@@ -1570,7 +1576,7 @@
         <v>44</v>
       </c>
       <c r="E83" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="F83" t="s">
         <v>48</v>
@@ -1805,6 +1811,9 @@
       </c>
       <c r="C110" t="s">
         <v>12</v>
+      </c>
+      <c r="E110" t="s">
+        <v>14</v>
       </c>
       <c r="F110" t="s">
         <v>48</v>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcxcl\Dropbox\2021XC\Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003B7730-259F-4691-9B38-ED786D05E6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63FC6CF-1E2A-49C0-8A5B-B2294953CDE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1F97B90D-26B3-4DE4-ACCC-8E22994B6ECC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="82">
   <si>
     <t>Date</t>
   </si>
@@ -275,6 +275,12 @@
   </si>
   <si>
     <t>6:30pm</t>
+  </si>
+  <si>
+    <t>Optional Marent Meeting</t>
+  </si>
+  <si>
+    <t>12pm</t>
   </si>
 </sst>
 </file>
@@ -630,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC89124E-97CA-4317-8E8E-A3FBD6EF8403}">
-  <dimension ref="A1:F116"/>
+  <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -715,13 +721,13 @@
         <v>44421</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -729,106 +735,106 @@
         <v>44421</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>44422</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
+        <v>44421</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>44422</v>
       </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>44423</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
+        <v>44422</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>44423</v>
       </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>44424</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
+        <v>44423</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>44424</v>
       </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -836,13 +842,13 @@
         <v>44424</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -850,75 +856,72 @@
         <v>44424</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>44425</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
+        <v>44424</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>44425</v>
       </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>44426</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
+        <v>44425</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>44427</v>
+        <v>44426</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E18" t="s">
         <v>19</v>
@@ -926,16 +929,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>44428</v>
+        <v>44427</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E19" t="s">
         <v>19</v>
@@ -943,16 +946,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>44429</v>
+        <v>44428</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E20" t="s">
         <v>19</v>
@@ -960,46 +963,52 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>44430</v>
+        <v>44429</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>44431</v>
+        <v>44430</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>44432</v>
+        <v>44431</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>45</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>44433</v>
+        <v>44432</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
         <v>18</v>
@@ -1007,35 +1016,35 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>44434</v>
+        <v>44433</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
         <v>18</v>
       </c>
-      <c r="D25" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>44435</v>
+        <v>44434</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C26" t="s">
         <v>18</v>
       </c>
+      <c r="D26" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>44436</v>
+        <v>44435</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C27" t="s">
         <v>18</v>
@@ -1043,827 +1052,838 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>44437</v>
+        <v>44436</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>44438</v>
+        <v>44437</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>44439</v>
+        <v>44438</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
         <v>18</v>
       </c>
+      <c r="D30" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>44440</v>
+        <v>44439</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
         <v>18</v>
       </c>
-      <c r="D31" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>44441</v>
+        <v>44440</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
         <v>18</v>
       </c>
+      <c r="D32" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>44442</v>
+        <v>44441</v>
       </c>
       <c r="B33" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>78</v>
-      </c>
-      <c r="D33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" t="s">
-        <v>79</v>
-      </c>
-      <c r="F33" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>44443</v>
+        <v>44442</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>44444</v>
+        <v>44443</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>44445</v>
+        <v>44444</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>44446</v>
+        <v>44445</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>44447</v>
+        <v>44446</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>44448</v>
+        <v>44447</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>44449</v>
+        <v>44448</v>
       </c>
       <c r="B40" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>44450</v>
+        <v>44449</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>44451</v>
+        <v>44450</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>44452</v>
+        <v>44451</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>44453</v>
+        <v>44452</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>44454</v>
+        <v>44453</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>44455</v>
+        <v>44454</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>44456</v>
+        <v>44455</v>
       </c>
       <c r="B47" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" t="s">
-        <v>76</v>
-      </c>
-      <c r="D47" t="s">
-        <v>46</v>
-      </c>
-      <c r="E47" t="s">
-        <v>62</v>
-      </c>
-      <c r="F47" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>44457</v>
+        <v>44456</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>76</v>
+      </c>
+      <c r="D48" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48" t="s">
+        <v>62</v>
+      </c>
+      <c r="F48" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>44458</v>
+        <v>44457</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>44459</v>
+        <v>44458</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>44460</v>
+        <v>44459</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>44461</v>
+        <v>44460</v>
       </c>
       <c r="B52" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>44462</v>
+        <v>44461</v>
       </c>
       <c r="B53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>44463</v>
+        <v>44462</v>
       </c>
       <c r="B54" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>44464</v>
+        <v>44463</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>44465</v>
+        <v>44464</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>44466</v>
+        <v>44465</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>44467</v>
+        <v>44466</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>44468</v>
+        <v>44467</v>
       </c>
       <c r="B59" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>44469</v>
+        <v>44468</v>
       </c>
       <c r="B60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>44470</v>
+        <v>44469</v>
       </c>
       <c r="B61" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>44471</v>
+        <v>44470</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
-      </c>
-      <c r="C62" t="s">
-        <v>75</v>
-      </c>
-      <c r="D62" t="s">
-        <v>15</v>
-      </c>
-      <c r="E62" t="s">
-        <v>14</v>
-      </c>
-      <c r="F62" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>44472</v>
+        <v>44471</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>75</v>
+      </c>
+      <c r="D63" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>44473</v>
+        <v>44472</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>44474</v>
+        <v>44473</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>44475</v>
+        <v>44474</v>
       </c>
       <c r="B66" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>44476</v>
+        <v>44475</v>
       </c>
       <c r="B67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>44477</v>
+        <v>44476</v>
       </c>
       <c r="B68" t="s">
-        <v>4</v>
-      </c>
-      <c r="C68" t="s">
-        <v>74</v>
-      </c>
-      <c r="D68" t="s">
-        <v>47</v>
-      </c>
-      <c r="E68" t="s">
-        <v>62</v>
-      </c>
-      <c r="F68" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>44478</v>
+        <v>44477</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C69" t="s">
+        <v>74</v>
+      </c>
+      <c r="D69" t="s">
+        <v>47</v>
+      </c>
+      <c r="E69" t="s">
+        <v>62</v>
+      </c>
+      <c r="F69" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>44479</v>
+        <v>44478</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>44480</v>
+        <v>44479</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>44481</v>
+        <v>44480</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>44482</v>
+        <v>44481</v>
       </c>
       <c r="B73" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>44483</v>
+        <v>44482</v>
       </c>
       <c r="B74" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>44484</v>
+        <v>44483</v>
       </c>
       <c r="B75" t="s">
-        <v>4</v>
-      </c>
-      <c r="C75" t="s">
-        <v>73</v>
-      </c>
-      <c r="D75" t="s">
-        <v>42</v>
-      </c>
-      <c r="E75" t="s">
-        <v>43</v>
-      </c>
-      <c r="F75" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>44485</v>
+        <v>44484</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C76" t="s">
+        <v>73</v>
+      </c>
+      <c r="D76" t="s">
+        <v>42</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>44486</v>
+        <v>44485</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>44487</v>
+        <v>44486</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>44488</v>
+        <v>44487</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>44489</v>
+        <v>44488</v>
       </c>
       <c r="B80" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>44490</v>
+        <v>44489</v>
       </c>
       <c r="B81" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>44491</v>
+        <v>44490</v>
       </c>
       <c r="B82" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>44492</v>
+        <v>44491</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
-      </c>
-      <c r="C83" t="s">
-        <v>72</v>
-      </c>
-      <c r="D83" t="s">
-        <v>44</v>
-      </c>
-      <c r="E83" t="s">
-        <v>77</v>
-      </c>
-      <c r="F83" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>44493</v>
+        <v>44492</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="C84" t="s">
+        <v>72</v>
+      </c>
+      <c r="D84" t="s">
+        <v>44</v>
+      </c>
+      <c r="E84" t="s">
+        <v>77</v>
+      </c>
+      <c r="F84" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <v>44494</v>
+        <v>44493</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <v>44495</v>
+        <v>44494</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
-        <v>44496</v>
+        <v>44495</v>
       </c>
       <c r="B87" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <v>44497</v>
+        <v>44496</v>
       </c>
       <c r="B88" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
-        <v>44498</v>
+        <v>44497</v>
       </c>
       <c r="B89" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
-        <v>44499</v>
+        <v>44498</v>
       </c>
       <c r="B90" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
-        <v>44500</v>
+        <v>44499</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
-        <v>44501</v>
+        <v>44500</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
-        <v>44502</v>
+        <v>44501</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
-        <v>44503</v>
+        <v>44502</v>
       </c>
       <c r="B94" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
-        <v>44504</v>
+        <v>44503</v>
       </c>
       <c r="B95" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
-        <v>44505</v>
+        <v>44504</v>
       </c>
       <c r="B96" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
-        <v>44506</v>
+        <v>44505</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
-      </c>
-      <c r="C97" t="s">
-        <v>71</v>
-      </c>
-      <c r="D97" t="s">
-        <v>46</v>
-      </c>
-      <c r="E97" t="s">
-        <v>14</v>
-      </c>
-      <c r="F97" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
-        <v>44507</v>
+        <v>44506</v>
       </c>
       <c r="B98" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="C98" t="s">
+        <v>71</v>
+      </c>
+      <c r="D98" t="s">
+        <v>46</v>
+      </c>
+      <c r="E98" t="s">
+        <v>14</v>
+      </c>
+      <c r="F98" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
-        <v>44508</v>
+        <v>44507</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
-        <v>44509</v>
+        <v>44508</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
-        <v>44510</v>
+        <v>44509</v>
       </c>
       <c r="B101" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
-        <v>44511</v>
+        <v>44510</v>
       </c>
       <c r="B102" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
-        <v>44512</v>
+        <v>44511</v>
       </c>
       <c r="B103" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
-        <v>44513</v>
+        <v>44512</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
-        <v>44514</v>
+        <v>44513</v>
       </c>
       <c r="B105" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
-        <v>44515</v>
+        <v>44514</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
-        <v>44516</v>
+        <v>44515</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
-        <v>44517</v>
+        <v>44516</v>
       </c>
       <c r="B108" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
-        <v>44518</v>
+        <v>44517</v>
       </c>
       <c r="B109" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
-        <v>44519</v>
+        <v>44518</v>
       </c>
       <c r="B110" t="s">
-        <v>4</v>
-      </c>
-      <c r="C110" t="s">
-        <v>12</v>
-      </c>
-      <c r="E110" t="s">
-        <v>14</v>
-      </c>
-      <c r="F110" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
-        <v>44520</v>
+        <v>44519</v>
       </c>
       <c r="B111" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C111" t="s">
+        <v>12</v>
+      </c>
+      <c r="E111" t="s">
+        <v>14</v>
+      </c>
+      <c r="F111" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
-        <v>44521</v>
+        <v>44520</v>
       </c>
       <c r="B112" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
-        <v>44522</v>
+        <v>44521</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
-        <v>44523</v>
+        <v>44522</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
-        <v>44524</v>
+        <v>44523</v>
       </c>
       <c r="B115" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
+        <v>44524</v>
+      </c>
+      <c r="B116" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" s="1">
         <v>44525</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B117" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcxcl\Dropbox\2021XC\Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63FC6CF-1E2A-49C0-8A5B-B2294953CDE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07DFA2F-F15C-4910-9F03-7C3E0C390C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1F97B90D-26B3-4DE4-ACCC-8E22994B6ECC}"/>
   </bookViews>
@@ -277,10 +277,10 @@
     <t>6:30pm</t>
   </si>
   <si>
-    <t>Optional Marent Meeting</t>
-  </si>
-  <si>
     <t>12pm</t>
+  </si>
+  <si>
+    <t>Optional Parent Meeting</t>
   </si>
 </sst>
 </file>
@@ -639,7 +639,7 @@
   <dimension ref="A1:F117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -721,13 +721,13 @@
         <v>44421</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcxcl\Dropbox\2021XC\Calendar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgarnet0\Documents\GitHub\Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07DFA2F-F15C-4910-9F03-7C3E0C390C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58307770-B946-4608-897D-929D7AD7E54E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1F97B90D-26B3-4DE4-ACCC-8E22994B6ECC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1F97B90D-26B3-4DE4-ACCC-8E22994B6ECC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="85">
   <si>
     <t>Date</t>
   </si>
@@ -130,18 +130,12 @@
     <t>Church</t>
   </si>
   <si>
-    <t>Gtown Baptist (Alan Reddit)</t>
-  </si>
-  <si>
     <t>11am</t>
   </si>
   <si>
     <t>Running 101</t>
   </si>
   <si>
-    <t>1pm</t>
-  </si>
-  <si>
     <t>Asher</t>
   </si>
   <si>
@@ -281,6 +275,21 @@
   </si>
   <si>
     <t>Optional Parent Meeting</t>
+  </si>
+  <si>
+    <t>Gtown Baptist (Alan Reddit) or church of your choice (Optional)</t>
+  </si>
+  <si>
+    <t>1pm-2:30pm</t>
+  </si>
+  <si>
+    <t>ON CAMPUS COVID TESTING</t>
+  </si>
+  <si>
+    <t>Alumni Gym</t>
+  </si>
+  <si>
+    <t>You Schedule a Time (12pm-4pm)</t>
   </si>
 </sst>
 </file>
@@ -290,10 +299,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -636,22 +651,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC89124E-97CA-4317-8E8E-A3FBD6EF8403}">
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:F127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" customWidth="1"/>
-    <col min="3" max="3" width="29.26953125" customWidth="1"/>
-    <col min="4" max="4" width="23.7265625" customWidth="1"/>
-    <col min="5" max="5" width="16.1796875" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -668,10 +683,10 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44421</v>
       </c>
@@ -679,72 +694,72 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44421</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44421</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44421</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44421</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44421</v>
       </c>
@@ -752,13 +767,13 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44422</v>
       </c>
@@ -775,7 +790,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44422</v>
       </c>
@@ -789,7 +804,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44423</v>
       </c>
@@ -803,10 +818,10 @@
         <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44423</v>
       </c>
@@ -814,13 +829,13 @@
         <v>30</v>
       </c>
       <c r="D11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" t="s">
         <v>31</v>
       </c>
-      <c r="E11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44424</v>
       </c>
@@ -837,26 +852,26 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44424</v>
       </c>
       <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
         <v>33</v>
       </c>
-      <c r="D13" t="s">
-        <v>35</v>
-      </c>
       <c r="E13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44424</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
@@ -865,21 +880,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44424</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44425</v>
       </c>
@@ -896,21 +911,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44425</v>
       </c>
       <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
         <v>33</v>
       </c>
-      <c r="D17" t="s">
-        <v>35</v>
-      </c>
       <c r="E17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44426</v>
       </c>
@@ -927,7 +942,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44427</v>
       </c>
@@ -944,7 +959,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44428</v>
       </c>
@@ -961,7 +976,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44429</v>
       </c>
@@ -978,7 +993,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44430</v>
       </c>
@@ -989,905 +1004,1040 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
+        <v>44430</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>44431</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>7</v>
       </c>
-      <c r="C23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>44432</v>
       </c>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
-        <v>44433</v>
-      </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>44434</v>
+        <v>44433</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
         <v>18</v>
       </c>
-      <c r="D26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>44435</v>
+        <v>44434</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C27" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>44436</v>
+        <v>44435</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
+        <v>44436</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>44437</v>
       </c>
-      <c r="B29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>44438</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>7</v>
-      </c>
-      <c r="C30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
-        <v>44439</v>
-      </c>
-      <c r="B31" t="s">
-        <v>8</v>
       </c>
       <c r="C31" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>44440</v>
+        <v>44439</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
         <v>18</v>
       </c>
-      <c r="D32" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>44441</v>
+        <v>44440</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
+        <v>44441</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>44442</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>4</v>
       </c>
-      <c r="C34" t="s">
-        <v>78</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="C35" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" t="s">
         <v>13</v>
       </c>
-      <c r="E34" t="s">
-        <v>79</v>
-      </c>
-      <c r="F34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
+      <c r="E35" t="s">
+        <v>77</v>
+      </c>
+      <c r="F35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>44443</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>44444</v>
       </c>
-      <c r="B36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>44445</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>44446</v>
       </c>
-      <c r="B38" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>44446</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>44447</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B41" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>44448</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B42" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>44449</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B43" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>44450</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B44" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>44451</v>
       </c>
-      <c r="B43" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
         <v>44452</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B46" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <v>44453</v>
       </c>
-      <c r="B45" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>44454</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B48" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
         <v>44455</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B49" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>44456</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B50" t="s">
         <v>4</v>
       </c>
-      <c r="C48" t="s">
-        <v>76</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="C50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E50" t="s">
+        <v>60</v>
+      </c>
+      <c r="F50" t="s">
         <v>46</v>
       </c>
-      <c r="E48" t="s">
-        <v>62</v>
-      </c>
-      <c r="F48" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
         <v>44457</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B51" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" s="1">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
         <v>44458</v>
       </c>
-      <c r="B50" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="1">
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
         <v>44459</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B53" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="1">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
         <v>44460</v>
       </c>
-      <c r="B52" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="1">
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
         <v>44461</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B55" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="1">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
         <v>44462</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B56" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="1">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
         <v>44463</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B57" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="1">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
         <v>44464</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B58" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="1">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
         <v>44465</v>
       </c>
-      <c r="B57" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="1">
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
         <v>44466</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B60" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" s="1">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
         <v>44467</v>
       </c>
-      <c r="B59" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="1">
+      <c r="B61" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>44467</v>
+      </c>
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" t="s">
+        <v>82</v>
+      </c>
+      <c r="D62" t="s">
+        <v>83</v>
+      </c>
+      <c r="E62" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
         <v>44468</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B63" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" s="1">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
         <v>44469</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B64" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" s="1">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
         <v>44470</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B65" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="1">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
         <v>44471</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B66" t="s">
         <v>5</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C66" t="s">
+        <v>73</v>
+      </c>
+      <c r="D66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E66" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>44472</v>
+      </c>
+      <c r="B67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B68" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>44474</v>
+      </c>
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>44475</v>
+      </c>
+      <c r="B70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>44476</v>
+      </c>
+      <c r="B71" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>44477</v>
+      </c>
+      <c r="B72" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" t="s">
+        <v>72</v>
+      </c>
+      <c r="D72" t="s">
+        <v>45</v>
+      </c>
+      <c r="E72" t="s">
+        <v>60</v>
+      </c>
+      <c r="F72" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>44478</v>
+      </c>
+      <c r="B73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>44479</v>
+      </c>
+      <c r="B74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B75" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>44481</v>
+      </c>
+      <c r="B76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>44482</v>
+      </c>
+      <c r="B77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>44483</v>
+      </c>
+      <c r="B78" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>44484</v>
+      </c>
+      <c r="B79" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" t="s">
+        <v>71</v>
+      </c>
+      <c r="D79" t="s">
+        <v>40</v>
+      </c>
+      <c r="E79" t="s">
+        <v>41</v>
+      </c>
+      <c r="F79" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>44485</v>
+      </c>
+      <c r="B80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>44486</v>
+      </c>
+      <c r="B81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>44487</v>
+      </c>
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>44488</v>
+      </c>
+      <c r="B83" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>44488</v>
+      </c>
+      <c r="B84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" t="s">
+        <v>82</v>
+      </c>
+      <c r="D84" t="s">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>44489</v>
+      </c>
+      <c r="B85" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>44490</v>
+      </c>
+      <c r="B86" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>44491</v>
+      </c>
+      <c r="B87" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>44492</v>
+      </c>
+      <c r="B88" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" t="s">
+        <v>70</v>
+      </c>
+      <c r="D88" t="s">
+        <v>42</v>
+      </c>
+      <c r="E88" t="s">
         <v>75</v>
       </c>
-      <c r="D63" t="s">
-        <v>15</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="F88" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>44493</v>
+      </c>
+      <c r="B89" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>44495</v>
+      </c>
+      <c r="B91" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>44496</v>
+      </c>
+      <c r="B92" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>44497</v>
+      </c>
+      <c r="B93" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>44498</v>
+      </c>
+      <c r="B94" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>44499</v>
+      </c>
+      <c r="B95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>44500</v>
+      </c>
+      <c r="B96" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B97" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>44502</v>
+      </c>
+      <c r="B98" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>44503</v>
+      </c>
+      <c r="B99" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>44504</v>
+      </c>
+      <c r="B100" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>44505</v>
+      </c>
+      <c r="B101" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" t="s">
+        <v>69</v>
+      </c>
+      <c r="D102" t="s">
+        <v>44</v>
+      </c>
+      <c r="E102" t="s">
         <v>14</v>
       </c>
-      <c r="F63" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A64" s="1">
-        <v>44472</v>
-      </c>
-      <c r="B64" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" s="1">
-        <v>44473</v>
-      </c>
-      <c r="B65" t="s">
+      <c r="F102" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B103" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>44508</v>
+      </c>
+      <c r="B104" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" s="1">
-        <v>44474</v>
-      </c>
-      <c r="B66" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A67" s="1">
-        <v>44475</v>
-      </c>
-      <c r="B67" t="s">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>44509</v>
+      </c>
+      <c r="B105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>44509</v>
+      </c>
+      <c r="B106" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" t="s">
+        <v>82</v>
+      </c>
+      <c r="D106" t="s">
+        <v>83</v>
+      </c>
+      <c r="E106" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>44510</v>
+      </c>
+      <c r="B107" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A68" s="1">
-        <v>44476</v>
-      </c>
-      <c r="B68" t="s">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>44511</v>
+      </c>
+      <c r="B108" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" s="1">
-        <v>44477</v>
-      </c>
-      <c r="B69" t="s">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>44512</v>
+      </c>
+      <c r="B109" t="s">
         <v>4</v>
       </c>
-      <c r="C69" t="s">
-        <v>74</v>
-      </c>
-      <c r="D69" t="s">
-        <v>47</v>
-      </c>
-      <c r="E69" t="s">
-        <v>62</v>
-      </c>
-      <c r="F69" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70" s="1">
-        <v>44478</v>
-      </c>
-      <c r="B70" t="s">
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>44513</v>
+      </c>
+      <c r="B110" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A71" s="1">
-        <v>44479</v>
-      </c>
-      <c r="B71" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A72" s="1">
-        <v>44480</v>
-      </c>
-      <c r="B72" t="s">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>44514</v>
+      </c>
+      <c r="B111" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B112" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A73" s="1">
-        <v>44481</v>
-      </c>
-      <c r="B73" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A74" s="1">
-        <v>44482</v>
-      </c>
-      <c r="B74" t="s">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>44516</v>
+      </c>
+      <c r="B113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>44517</v>
+      </c>
+      <c r="B114" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A75" s="1">
-        <v>44483</v>
-      </c>
-      <c r="B75" t="s">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>44518</v>
+      </c>
+      <c r="B115" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A76" s="1">
-        <v>44484</v>
-      </c>
-      <c r="B76" t="s">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>44519</v>
+      </c>
+      <c r="B116" t="s">
         <v>4</v>
       </c>
-      <c r="C76" t="s">
-        <v>73</v>
-      </c>
-      <c r="D76" t="s">
-        <v>42</v>
-      </c>
-      <c r="E76" t="s">
-        <v>43</v>
-      </c>
-      <c r="F76" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A77" s="1">
-        <v>44485</v>
-      </c>
-      <c r="B77" t="s">
+      <c r="C116" t="s">
+        <v>12</v>
+      </c>
+      <c r="E116" t="s">
+        <v>14</v>
+      </c>
+      <c r="F116" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>44520</v>
+      </c>
+      <c r="B117" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A78" s="1">
-        <v>44486</v>
-      </c>
-      <c r="B78" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A79" s="1">
-        <v>44487</v>
-      </c>
-      <c r="B79" t="s">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>44521</v>
+      </c>
+      <c r="B118" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>44522</v>
+      </c>
+      <c r="B119" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A80" s="1">
-        <v>44488</v>
-      </c>
-      <c r="B80" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A81" s="1">
-        <v>44489</v>
-      </c>
-      <c r="B81" t="s">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>44523</v>
+      </c>
+      <c r="B120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>44524</v>
+      </c>
+      <c r="B121" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A82" s="1">
-        <v>44490</v>
-      </c>
-      <c r="B82" t="s">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>44525</v>
+      </c>
+      <c r="B122" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A83" s="1">
-        <v>44491</v>
-      </c>
-      <c r="B83" t="s">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>44526</v>
+      </c>
+      <c r="B123" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A84" s="1">
-        <v>44492</v>
-      </c>
-      <c r="B84" t="s">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B124" t="s">
         <v>5</v>
       </c>
-      <c r="C84" t="s">
-        <v>72</v>
-      </c>
-      <c r="D84" t="s">
-        <v>44</v>
-      </c>
-      <c r="E84" t="s">
-        <v>77</v>
-      </c>
-      <c r="F84" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A85" s="1">
-        <v>44493</v>
-      </c>
-      <c r="B85" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A86" s="1">
-        <v>44494</v>
-      </c>
-      <c r="B86" t="s">
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>44528</v>
+      </c>
+      <c r="B125" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>44529</v>
+      </c>
+      <c r="B126" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A87" s="1">
-        <v>44495</v>
-      </c>
-      <c r="B87" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A88" s="1">
-        <v>44496</v>
-      </c>
-      <c r="B88" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A89" s="1">
-        <v>44497</v>
-      </c>
-      <c r="B89" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A90" s="1">
-        <v>44498</v>
-      </c>
-      <c r="B90" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A91" s="1">
-        <v>44499</v>
-      </c>
-      <c r="B91" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A92" s="1">
-        <v>44500</v>
-      </c>
-      <c r="B92" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A93" s="1">
-        <v>44501</v>
-      </c>
-      <c r="B93" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A94" s="1">
-        <v>44502</v>
-      </c>
-      <c r="B94" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A95" s="1">
-        <v>44503</v>
-      </c>
-      <c r="B95" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A96" s="1">
-        <v>44504</v>
-      </c>
-      <c r="B96" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A97" s="1">
-        <v>44505</v>
-      </c>
-      <c r="B97" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A98" s="1">
-        <v>44506</v>
-      </c>
-      <c r="B98" t="s">
-        <v>5</v>
-      </c>
-      <c r="C98" t="s">
-        <v>71</v>
-      </c>
-      <c r="D98" t="s">
-        <v>46</v>
-      </c>
-      <c r="E98" t="s">
-        <v>14</v>
-      </c>
-      <c r="F98" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A99" s="1">
-        <v>44507</v>
-      </c>
-      <c r="B99" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A100" s="1">
-        <v>44508</v>
-      </c>
-      <c r="B100" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A101" s="1">
-        <v>44509</v>
-      </c>
-      <c r="B101" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A102" s="1">
-        <v>44510</v>
-      </c>
-      <c r="B102" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A103" s="1">
-        <v>44511</v>
-      </c>
-      <c r="B103" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A104" s="1">
-        <v>44512</v>
-      </c>
-      <c r="B104" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A105" s="1">
-        <v>44513</v>
-      </c>
-      <c r="B105" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A106" s="1">
-        <v>44514</v>
-      </c>
-      <c r="B106" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A107" s="1">
-        <v>44515</v>
-      </c>
-      <c r="B107" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A108" s="1">
-        <v>44516</v>
-      </c>
-      <c r="B108" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A109" s="1">
-        <v>44517</v>
-      </c>
-      <c r="B109" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A110" s="1">
-        <v>44518</v>
-      </c>
-      <c r="B110" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A111" s="1">
-        <v>44519</v>
-      </c>
-      <c r="B111" t="s">
-        <v>4</v>
-      </c>
-      <c r="C111" t="s">
-        <v>12</v>
-      </c>
-      <c r="E111" t="s">
-        <v>14</v>
-      </c>
-      <c r="F111" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A112" s="1">
-        <v>44520</v>
-      </c>
-      <c r="B112" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A113" s="1">
-        <v>44521</v>
-      </c>
-      <c r="B113" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A114" s="1">
-        <v>44522</v>
-      </c>
-      <c r="B114" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A115" s="1">
-        <v>44523</v>
-      </c>
-      <c r="B115" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A116" s="1">
-        <v>44524</v>
-      </c>
-      <c r="B116" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A117" s="1">
-        <v>44525</v>
-      </c>
-      <c r="B117" t="s">
-        <v>10</v>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>44530</v>
+      </c>
+      <c r="B127" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" t="s">
+        <v>82</v>
+      </c>
+      <c r="D127" t="s">
+        <v>83</v>
+      </c>
+      <c r="E127" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1901,16 +2051,16 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" customWidth="1"/>
-    <col min="3" max="3" width="29.26953125" customWidth="1"/>
-    <col min="4" max="4" width="23.7265625" customWidth="1"/>
-    <col min="5" max="5" width="16.1796875" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1927,10 +2077,10 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44426</v>
       </c>
@@ -1938,10 +2088,10 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44427</v>
       </c>
@@ -1949,7 +2099,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44428</v>
       </c>
@@ -1957,7 +2107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44429</v>
       </c>
@@ -1965,10 +2115,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44430</v>
       </c>
@@ -1976,16 +2126,16 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44431</v>
       </c>
@@ -1993,24 +2143,24 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s">
         <v>50</v>
       </c>
-      <c r="D7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44431</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44432</v>
       </c>
@@ -2018,7 +2168,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44433</v>
       </c>
@@ -2026,7 +2176,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44434</v>
       </c>
@@ -2034,7 +2184,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44435</v>
       </c>
@@ -2042,7 +2192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44436</v>
       </c>
@@ -2050,7 +2200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44437</v>
       </c>
@@ -2058,7 +2208,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44438</v>
       </c>
@@ -2066,7 +2216,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44439</v>
       </c>
@@ -2074,7 +2224,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44440</v>
       </c>
@@ -2082,7 +2232,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44441</v>
       </c>
@@ -2090,7 +2240,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44442</v>
       </c>
@@ -2098,7 +2248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44443</v>
       </c>
@@ -2106,7 +2256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44444</v>
       </c>
@@ -2114,7 +2264,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44445</v>
       </c>
@@ -2122,7 +2272,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44446</v>
       </c>
@@ -2130,7 +2280,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44447</v>
       </c>
@@ -2138,7 +2288,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44448</v>
       </c>
@@ -2146,7 +2296,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>44449</v>
       </c>
@@ -2154,7 +2304,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44450</v>
       </c>
@@ -2162,7 +2312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>44451</v>
       </c>
@@ -2170,7 +2320,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>44452</v>
       </c>
@@ -2178,7 +2328,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>44453</v>
       </c>
@@ -2186,7 +2336,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>44454</v>
       </c>
@@ -2194,7 +2344,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>44455</v>
       </c>
@@ -2202,7 +2352,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>44456</v>
       </c>
@@ -2210,7 +2360,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>44457</v>
       </c>
@@ -2218,7 +2368,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>44458</v>
       </c>
@@ -2226,7 +2376,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>44459</v>
       </c>
@@ -2234,7 +2384,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>44460</v>
       </c>
@@ -2242,7 +2392,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>44461</v>
       </c>
@@ -2250,7 +2400,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>44462</v>
       </c>
@@ -2258,7 +2408,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>44463</v>
       </c>
@@ -2266,7 +2416,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>44464</v>
       </c>
@@ -2274,7 +2424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>44465</v>
       </c>
@@ -2282,7 +2432,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>44466</v>
       </c>
@@ -2290,7 +2440,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44467</v>
       </c>
@@ -2298,7 +2448,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44468</v>
       </c>
@@ -2306,7 +2456,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44469</v>
       </c>
@@ -2314,7 +2464,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44470</v>
       </c>
@@ -2322,7 +2472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>44471</v>
       </c>
@@ -2330,7 +2480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>44472</v>
       </c>
@@ -2338,7 +2488,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>44473</v>
       </c>
@@ -2346,7 +2496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>44474</v>
       </c>
@@ -2354,7 +2504,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>44475</v>
       </c>
@@ -2362,7 +2512,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>44476</v>
       </c>
@@ -2370,7 +2520,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>44477</v>
       </c>
@@ -2378,7 +2528,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>44478</v>
       </c>
@@ -2386,7 +2536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>44479</v>
       </c>
@@ -2394,7 +2544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>44480</v>
       </c>
@@ -2402,7 +2552,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>44481</v>
       </c>
@@ -2410,7 +2560,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>44482</v>
       </c>
@@ -2418,7 +2568,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>44483</v>
       </c>
@@ -2426,7 +2576,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>44484</v>
       </c>
@@ -2434,7 +2584,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>44485</v>
       </c>
@@ -2442,7 +2592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>44486</v>
       </c>
@@ -2450,7 +2600,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>44487</v>
       </c>
@@ -2458,7 +2608,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>44488</v>
       </c>
@@ -2466,7 +2616,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>44489</v>
       </c>
@@ -2474,7 +2624,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>44490</v>
       </c>
@@ -2482,7 +2632,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>44491</v>
       </c>
@@ -2490,7 +2640,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>44492</v>
       </c>
@@ -2498,7 +2648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>44493</v>
       </c>
@@ -2506,7 +2656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>44494</v>
       </c>
@@ -2514,7 +2664,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>44495</v>
       </c>
@@ -2522,7 +2672,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>44496</v>
       </c>
@@ -2530,7 +2680,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>44497</v>
       </c>
@@ -2538,7 +2688,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>44498</v>
       </c>
@@ -2546,7 +2696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>44499</v>
       </c>
@@ -2554,7 +2704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>44500</v>
       </c>
@@ -2562,7 +2712,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>44501</v>
       </c>
@@ -2570,7 +2720,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>44502</v>
       </c>
@@ -2578,7 +2728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>44503</v>
       </c>
@@ -2586,7 +2736,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>44504</v>
       </c>
@@ -2594,7 +2744,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>44505</v>
       </c>
@@ -2602,7 +2752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>44506</v>
       </c>
@@ -2610,7 +2760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>44507</v>
       </c>
@@ -2618,7 +2768,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>44508</v>
       </c>
@@ -2626,7 +2776,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>44509</v>
       </c>
@@ -2634,7 +2784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>44510</v>
       </c>
@@ -2642,7 +2792,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>44511</v>
       </c>
@@ -2650,7 +2800,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>44512</v>
       </c>
@@ -2658,7 +2808,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>44513</v>
       </c>
@@ -2666,7 +2816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>44514</v>
       </c>
@@ -2674,7 +2824,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>44515</v>
       </c>
@@ -2682,7 +2832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>44516</v>
       </c>
@@ -2690,7 +2840,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>44517</v>
       </c>
@@ -2698,7 +2848,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>44518</v>
       </c>
@@ -2706,7 +2856,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>44519</v>
       </c>
@@ -2714,7 +2864,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>44520</v>
       </c>
@@ -2722,7 +2872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>44521</v>
       </c>
@@ -2730,7 +2880,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>44522</v>
       </c>
@@ -2738,7 +2888,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>44523</v>
       </c>
@@ -2746,7 +2896,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>44524</v>
       </c>
@@ -2754,7 +2904,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>44525</v>
       </c>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgarnet0\Documents\GitHub\Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58307770-B946-4608-897D-929D7AD7E54E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383C1152-BF86-4826-A9FC-3F7122A457F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1F97B90D-26B3-4DE4-ACCC-8E22994B6ECC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="86">
   <si>
     <t>Date</t>
   </si>
@@ -290,6 +290,9 @@
   </si>
   <si>
     <t>You Schedule a Time (12pm-4pm)</t>
+  </si>
+  <si>
+    <t>Giddings Steps</t>
   </si>
 </sst>
 </file>
@@ -654,7 +657,7 @@
   <dimension ref="A1:F127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,7 +742,7 @@
         <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="E5" t="s">
         <v>78</v>
@@ -874,10 +877,10 @@
         <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgarnet0\Documents\GitHub\Calendar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcxcl\Dropbox\2021XC\Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383C1152-BF86-4826-A9FC-3F7122A457F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A3BFD2-1933-48E3-A6A6-5EDF51216BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1F97B90D-26B3-4DE4-ACCC-8E22994B6ECC}"/>
+    <workbookView xWindow="4800" yWindow="2840" windowWidth="14400" windowHeight="7360" xr2:uid="{1F97B90D-26B3-4DE4-ACCC-8E22994B6ECC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -274,9 +274,6 @@
     <t>12pm</t>
   </si>
   <si>
-    <t>Optional Parent Meeting</t>
-  </si>
-  <si>
     <t>Gtown Baptist (Alan Reddit) or church of your choice (Optional)</t>
   </si>
   <si>
@@ -293,6 +290,9 @@
   </si>
   <si>
     <t>Giddings Steps</t>
+  </si>
+  <si>
+    <t>Optional Parent Q&amp;A Meeting</t>
   </si>
 </sst>
 </file>
@@ -657,19 +657,19 @@
   <dimension ref="A1:F127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" customWidth="1"/>
+    <col min="3" max="3" width="29.26953125" customWidth="1"/>
+    <col min="4" max="4" width="23.7265625" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -689,7 +689,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>44421</v>
       </c>
@@ -706,7 +706,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>44421</v>
       </c>
@@ -720,7 +720,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>44421</v>
       </c>
@@ -734,12 +734,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>44421</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D5" t="s">
         <v>67</v>
@@ -748,7 +748,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>44421</v>
       </c>
@@ -762,7 +762,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>44421</v>
       </c>
@@ -776,7 +776,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>44422</v>
       </c>
@@ -793,7 +793,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>44422</v>
       </c>
@@ -807,7 +807,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>44423</v>
       </c>
@@ -824,7 +824,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>44423</v>
       </c>
@@ -832,13 +832,13 @@
         <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>44424</v>
       </c>
@@ -855,7 +855,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>44424</v>
       </c>
@@ -866,10 +866,10 @@
         <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>44424</v>
       </c>
@@ -877,13 +877,13 @@
         <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>44424</v>
       </c>
@@ -897,7 +897,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>44425</v>
       </c>
@@ -914,7 +914,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>44425</v>
       </c>
@@ -925,10 +925,10 @@
         <v>33</v>
       </c>
       <c r="E17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>44426</v>
       </c>
@@ -945,7 +945,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>44427</v>
       </c>
@@ -962,7 +962,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>44428</v>
       </c>
@@ -979,7 +979,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>44429</v>
       </c>
@@ -996,7 +996,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>44430</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>44430</v>
       </c>
@@ -1015,16 +1015,16 @@
         <v>6</v>
       </c>
       <c r="C23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" t="s">
         <v>82</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>83</v>
       </c>
-      <c r="E23" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>44431</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>44432</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>44433</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>44434</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>44435</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>44436</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>44437</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>44438</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>44439</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>44440</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>44441</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>44442</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>44443</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>44444</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>44445</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>44446</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>44446</v>
       </c>
@@ -1217,16 +1217,16 @@
         <v>8</v>
       </c>
       <c r="C40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" t="s">
         <v>82</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>83</v>
       </c>
-      <c r="E40" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>44447</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>44448</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>44449</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>44450</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>44451</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>44452</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>44453</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>44454</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>44455</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>44456</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>44457</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>44458</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>44459</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>44460</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>44461</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>44462</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>44463</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>44464</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>44465</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>44466</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>44467</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>44467</v>
       </c>
@@ -1414,16 +1414,16 @@
         <v>8</v>
       </c>
       <c r="C62" t="s">
+        <v>81</v>
+      </c>
+      <c r="D62" t="s">
         <v>82</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>83</v>
       </c>
-      <c r="E62" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>44468</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>44469</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>44470</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>44471</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>44472</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>44473</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>44474</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>44475</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>44476</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>44477</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>44478</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>44479</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>44480</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>44481</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>44482</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>44483</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>44484</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>44485</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>44486</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>44487</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>44488</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>44488</v>
       </c>
@@ -1635,16 +1635,16 @@
         <v>8</v>
       </c>
       <c r="C84" t="s">
+        <v>81</v>
+      </c>
+      <c r="D84" t="s">
         <v>82</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>83</v>
       </c>
-      <c r="E84" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>44489</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>44490</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>44491</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>44492</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>44493</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>44494</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>44495</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>44496</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>44497</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>44498</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>44499</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>44500</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>44501</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>44502</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>44503</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>44504</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>44505</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>44506</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>44507</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>44508</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>44509</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>44509</v>
       </c>
@@ -1844,16 +1844,16 @@
         <v>8</v>
       </c>
       <c r="C106" t="s">
+        <v>81</v>
+      </c>
+      <c r="D106" t="s">
         <v>82</v>
       </c>
-      <c r="D106" t="s">
+      <c r="E106" t="s">
         <v>83</v>
       </c>
-      <c r="E106" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>44510</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>44511</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>44512</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>44513</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>44514</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>44515</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>44516</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>44517</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>44518</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>44519</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>44520</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>44521</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>44522</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>44523</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>44524</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>44525</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>44526</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>44527</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>44528</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>44529</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>44530</v>
       </c>
@@ -2030,13 +2030,13 @@
         <v>8</v>
       </c>
       <c r="C127" t="s">
+        <v>81</v>
+      </c>
+      <c r="D127" t="s">
         <v>82</v>
       </c>
-      <c r="D127" t="s">
+      <c r="E127" t="s">
         <v>83</v>
-      </c>
-      <c r="E127" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2054,16 +2054,16 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" customWidth="1"/>
+    <col min="3" max="3" width="29.26953125" customWidth="1"/>
+    <col min="4" max="4" width="23.7265625" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>44426</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>44427</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>44428</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>44429</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>44430</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>44431</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>44431</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>44432</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>44433</v>
       </c>
@@ -2179,7 +2179,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>44434</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>44435</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>44436</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>44437</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>44438</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>44439</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>44440</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>44441</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>44442</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>44443</v>
       </c>
@@ -2259,7 +2259,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>44444</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>44445</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>44446</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>44447</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>44448</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>44449</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>44450</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>44451</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>44452</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>44453</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>44454</v>
       </c>
@@ -2347,7 +2347,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>44455</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>44456</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>44457</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>44458</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>44459</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>44460</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>44461</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>44462</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>44463</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>44464</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>44465</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>44466</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>44467</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>44468</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>44469</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>44470</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>44471</v>
       </c>
@@ -2483,7 +2483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>44472</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>44473</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>44474</v>
       </c>
@@ -2507,7 +2507,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>44475</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>44476</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>44477</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>44478</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>44479</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>44480</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>44481</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>44482</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>44483</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>44484</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>44485</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>44486</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>44487</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>44488</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>44489</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>44490</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>44491</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>44492</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>44493</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>44494</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>44495</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>44496</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>44497</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>44498</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>44499</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>44500</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>44501</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>44502</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>44503</v>
       </c>
@@ -2739,7 +2739,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>44504</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>44505</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>44506</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>44507</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>44508</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>44509</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>44510</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>44511</v>
       </c>
@@ -2803,7 +2803,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>44512</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>44513</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>44514</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>44515</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>44516</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>44517</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>44518</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>44519</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>44520</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>44521</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>44522</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>44523</v>
       </c>
@@ -2899,7 +2899,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>44524</v>
       </c>
@@ -2907,7 +2907,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>44525</v>
       </c>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcxcl\Dropbox\2021XC\Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A3BFD2-1933-48E3-A6A6-5EDF51216BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756294BB-E1F7-4221-BC9D-A39DD8E8C12C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="2840" windowWidth="14400" windowHeight="7360" xr2:uid="{1F97B90D-26B3-4DE4-ACCC-8E22994B6ECC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1F97B90D-26B3-4DE4-ACCC-8E22994B6ECC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,9 +85,6 @@
     <t>Louisville, KY</t>
   </si>
   <si>
-    <t>Time Trial, 2mile/5k</t>
-  </si>
-  <si>
     <t>Great Crossing</t>
   </si>
   <si>
@@ -293,6 +290,9 @@
   </si>
   <si>
     <t>Optional Parent Q&amp;A Meeting</t>
+  </si>
+  <si>
+    <t>&lt;a href="pracResults/timetrial2021.html" title="Go To Page"&gt;Time Trial&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -656,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC89124E-97CA-4317-8E8E-A3FBD6EF8403}">
   <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -686,7 +686,7 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -697,13 +697,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -711,13 +711,13 @@
         <v>44421</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -725,13 +725,13 @@
         <v>44421</v>
       </c>
       <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" t="s">
         <v>62</v>
-      </c>
-      <c r="D4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -739,13 +739,13 @@
         <v>44421</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -753,13 +753,13 @@
         <v>44421</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -767,13 +767,13 @@
         <v>44421</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" t="s">
         <v>67</v>
-      </c>
-      <c r="E7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -784,13 +784,13 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -798,13 +798,13 @@
         <v>44422</v>
       </c>
       <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
         <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -815,13 +815,13 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -829,13 +829,13 @@
         <v>44423</v>
       </c>
       <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" t="s">
         <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E11" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -846,13 +846,13 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -860,13 +860,13 @@
         <v>44424</v>
       </c>
       <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
         <v>32</v>
       </c>
-      <c r="D13" t="s">
-        <v>33</v>
-      </c>
       <c r="E13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -874,13 +874,13 @@
         <v>44424</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -888,13 +888,13 @@
         <v>44424</v>
       </c>
       <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
         <v>34</v>
       </c>
-      <c r="D15" t="s">
-        <v>35</v>
-      </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -905,13 +905,13 @@
         <v>8</v>
       </c>
       <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" t="s">
         <v>18</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -919,13 +919,13 @@
         <v>44425</v>
       </c>
       <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
         <v>32</v>
       </c>
-      <c r="D17" t="s">
-        <v>33</v>
-      </c>
       <c r="E17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -936,13 +936,13 @@
         <v>9</v>
       </c>
       <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" t="s">
         <v>18</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -953,13 +953,13 @@
         <v>10</v>
       </c>
       <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
         <v>18</v>
-      </c>
-      <c r="D19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -970,13 +970,13 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" t="s">
         <v>18</v>
-      </c>
-      <c r="D20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -987,13 +987,13 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
         <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -1004,7 +1004,7 @@
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -1015,13 +1015,13 @@
         <v>6</v>
       </c>
       <c r="C23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" t="s">
         <v>81</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>82</v>
-      </c>
-      <c r="E23" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -1032,10 +1032,10 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
@@ -1046,7 +1046,7 @@
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
@@ -1057,7 +1057,7 @@
         <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
@@ -1068,10 +1068,10 @@
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
@@ -1082,7 +1082,7 @@
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
@@ -1093,7 +1093,7 @@
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -1104,7 +1104,7 @@
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
@@ -1115,10 +1115,10 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
@@ -1129,7 +1129,7 @@
         <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
@@ -1140,10 +1140,10 @@
         <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
@@ -1154,7 +1154,7 @@
         <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
@@ -1165,16 +1165,16 @@
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D35" t="s">
         <v>13</v>
       </c>
       <c r="E35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
@@ -1217,13 +1217,13 @@
         <v>8</v>
       </c>
       <c r="C40" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" t="s">
         <v>81</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>82</v>
-      </c>
-      <c r="E40" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
@@ -1306,16 +1306,16 @@
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
@@ -1414,13 +1414,13 @@
         <v>8</v>
       </c>
       <c r="C62" t="s">
+        <v>80</v>
+      </c>
+      <c r="D62" t="s">
         <v>81</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>82</v>
-      </c>
-      <c r="E62" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
@@ -1455,7 +1455,7 @@
         <v>5</v>
       </c>
       <c r="C66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D66" t="s">
         <v>15</v>
@@ -1464,7 +1464,7 @@
         <v>14</v>
       </c>
       <c r="F66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
@@ -1515,16 +1515,16 @@
         <v>4</v>
       </c>
       <c r="C72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D72" t="s">
+        <v>44</v>
+      </c>
+      <c r="E72" t="s">
+        <v>59</v>
+      </c>
+      <c r="F72" t="s">
         <v>45</v>
-      </c>
-      <c r="E72" t="s">
-        <v>60</v>
-      </c>
-      <c r="F72" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
@@ -1583,16 +1583,16 @@
         <v>4</v>
       </c>
       <c r="C79" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D79" t="s">
+        <v>39</v>
+      </c>
+      <c r="E79" t="s">
         <v>40</v>
       </c>
-      <c r="E79" t="s">
-        <v>41</v>
-      </c>
       <c r="F79" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
@@ -1635,13 +1635,13 @@
         <v>8</v>
       </c>
       <c r="C84" t="s">
+        <v>80</v>
+      </c>
+      <c r="D84" t="s">
         <v>81</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>82</v>
-      </c>
-      <c r="E84" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
@@ -1676,16 +1676,16 @@
         <v>5</v>
       </c>
       <c r="C88" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D88" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E88" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F88" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
@@ -1800,16 +1800,16 @@
         <v>5</v>
       </c>
       <c r="C102" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D102" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E102" t="s">
         <v>14</v>
       </c>
       <c r="F102" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
@@ -1844,13 +1844,13 @@
         <v>8</v>
       </c>
       <c r="C106" t="s">
+        <v>80</v>
+      </c>
+      <c r="D106" t="s">
         <v>81</v>
       </c>
-      <c r="D106" t="s">
+      <c r="E106" t="s">
         <v>82</v>
-      </c>
-      <c r="E106" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
@@ -1939,7 +1939,7 @@
         <v>14</v>
       </c>
       <c r="F116" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
@@ -2030,13 +2030,13 @@
         <v>8</v>
       </c>
       <c r="C127" t="s">
+        <v>80</v>
+      </c>
+      <c r="D127" t="s">
         <v>81</v>
       </c>
-      <c r="D127" t="s">
+      <c r="E127" t="s">
         <v>82</v>
-      </c>
-      <c r="E127" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2080,7 +2080,7 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -2091,7 +2091,7 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -2118,7 +2118,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -2129,13 +2129,13 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -2146,13 +2146,13 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -2160,7 +2160,7 @@
         <v>44431</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcxcl\Dropbox\2021XC\Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756294BB-E1F7-4221-BC9D-A39DD8E8C12C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D794298-627A-4E28-87BC-96B8EE5829AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1F97B90D-26B3-4DE4-ACCC-8E22994B6ECC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="86">
   <si>
     <t>Date</t>
   </si>
@@ -656,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC89124E-97CA-4317-8E8E-A3FBD6EF8403}">
   <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -791,6 +791,9 @@
       </c>
       <c r="E8" t="s">
         <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcxcl\Dropbox\2021XC\Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D794298-627A-4E28-87BC-96B8EE5829AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64EB87C9-CD85-44A0-8017-2B6D238A969A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1F97B90D-26B3-4DE4-ACCC-8E22994B6ECC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="82">
   <si>
     <t>Date</t>
   </si>
@@ -109,9 +109,6 @@
     <t>Off</t>
   </si>
   <si>
-    <t>4pm</t>
-  </si>
-  <si>
     <t>Team Meetings</t>
   </si>
   <si>
@@ -136,12 +133,6 @@
     <t>Asher</t>
   </si>
   <si>
-    <t>Franfort Water Park?</t>
-  </si>
-  <si>
-    <t>Frankfort, KY</t>
-  </si>
-  <si>
     <t>5:30pm</t>
   </si>
   <si>
@@ -206,9 +197,6 @@
   </si>
   <si>
     <t>Photo Day</t>
-  </si>
-  <si>
-    <t>6:30am</t>
   </si>
   <si>
     <t>9am</t>
@@ -654,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC89124E-97CA-4317-8E8E-A3FBD6EF8403}">
-  <dimension ref="A1:F127"/>
+  <dimension ref="A1:F126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -686,7 +674,7 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -697,13 +685,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -711,13 +699,13 @@
         <v>44421</v>
       </c>
       <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
         <v>60</v>
       </c>
-      <c r="D3" t="s">
-        <v>64</v>
-      </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -725,13 +713,13 @@
         <v>44421</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -739,13 +727,13 @@
         <v>44421</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -753,13 +741,13 @@
         <v>44421</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -767,13 +755,13 @@
         <v>44421</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -784,7 +772,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -801,13 +789,13 @@
         <v>44422</v>
       </c>
       <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
         <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -818,13 +806,13 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -832,13 +820,13 @@
         <v>44423</v>
       </c>
       <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" t="s">
         <v>29</v>
-      </c>
-      <c r="D11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -849,10 +837,10 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E12" t="s">
         <v>18</v>
@@ -863,13 +851,13 @@
         <v>44424</v>
       </c>
       <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
         <v>31</v>
       </c>
-      <c r="D13" t="s">
-        <v>32</v>
-      </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -877,72 +865,75 @@
         <v>44424</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>44424</v>
+        <v>44425</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>44425</v>
       </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>44425</v>
+        <v>44426</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>44426</v>
+        <v>44427</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
         <v>18</v>
@@ -950,16 +941,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>44427</v>
+        <v>44428</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E19" t="s">
         <v>18</v>
@@ -967,16 +958,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>44428</v>
+        <v>44429</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E20" t="s">
         <v>18</v>
@@ -984,19 +975,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>44429</v>
+        <v>44430</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -1007,46 +992,46 @@
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>76</v>
+      </c>
+      <c r="D22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>44430</v>
+        <v>44431</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="D23" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>44431</v>
+        <v>44432</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>44432</v>
+        <v>44433</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
         <v>17</v>
@@ -1054,35 +1039,35 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>44433</v>
+        <v>44434</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C26" t="s">
         <v>17</v>
       </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>44434</v>
+        <v>44435</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C27" t="s">
         <v>17</v>
       </c>
-      <c r="D27" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>44435</v>
+        <v>44436</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
         <v>17</v>
@@ -1090,118 +1075,115 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>44436</v>
+        <v>44437</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>44437</v>
+        <v>44438</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>44438</v>
+        <v>44439</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
         <v>17</v>
       </c>
-      <c r="D31" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>44439</v>
+        <v>44440</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
         <v>17</v>
       </c>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>44440</v>
+        <v>44441</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C33" t="s">
         <v>17</v>
       </c>
-      <c r="D33" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>44441</v>
+        <v>44442</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>17</v>
+        <v>71</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>44442</v>
+        <v>44443</v>
       </c>
       <c r="B35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" t="s">
-        <v>75</v>
-      </c>
-      <c r="D35" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" t="s">
-        <v>76</v>
-      </c>
-      <c r="F35" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>44443</v>
+        <v>44444</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>44444</v>
+        <v>44445</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>44445</v>
+        <v>44446</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
@@ -1211,194 +1193,194 @@
       <c r="B39" t="s">
         <v>8</v>
       </c>
+      <c r="C39" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" t="s">
+        <v>77</v>
+      </c>
+      <c r="E39" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>44446</v>
+        <v>44447</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" t="s">
-        <v>80</v>
-      </c>
-      <c r="D40" t="s">
-        <v>81</v>
-      </c>
-      <c r="E40" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>44447</v>
+        <v>44448</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>44448</v>
+        <v>44449</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>44449</v>
+        <v>44450</v>
       </c>
       <c r="B43" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>44450</v>
+        <v>44451</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>44451</v>
+        <v>44452</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>44452</v>
+        <v>44453</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>44453</v>
+        <v>44454</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>44454</v>
+        <v>44455</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>44455</v>
+        <v>44456</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="C49" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" t="s">
+        <v>40</v>
+      </c>
+      <c r="E49" t="s">
+        <v>55</v>
+      </c>
+      <c r="F49" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>44456</v>
+        <v>44457</v>
       </c>
       <c r="B50" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50" t="s">
-        <v>73</v>
-      </c>
-      <c r="D50" t="s">
-        <v>43</v>
-      </c>
-      <c r="E50" t="s">
-        <v>59</v>
-      </c>
-      <c r="F50" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>44457</v>
+        <v>44458</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>44458</v>
+        <v>44459</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>44459</v>
+        <v>44460</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>44460</v>
+        <v>44461</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>44461</v>
+        <v>44462</v>
       </c>
       <c r="B55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>44462</v>
+        <v>44463</v>
       </c>
       <c r="B56" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>44463</v>
+        <v>44464</v>
       </c>
       <c r="B57" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>44464</v>
+        <v>44465</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>44465</v>
+        <v>44466</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>44466</v>
+        <v>44467</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
@@ -1408,218 +1390,218 @@
       <c r="B61" t="s">
         <v>8</v>
       </c>
+      <c r="C61" t="s">
+        <v>76</v>
+      </c>
+      <c r="D61" t="s">
+        <v>77</v>
+      </c>
+      <c r="E61" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>44467</v>
+        <v>44468</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
-      </c>
-      <c r="C62" t="s">
-        <v>80</v>
-      </c>
-      <c r="D62" t="s">
-        <v>81</v>
-      </c>
-      <c r="E62" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>44468</v>
+        <v>44469</v>
       </c>
       <c r="B63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>44469</v>
+        <v>44470</v>
       </c>
       <c r="B64" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>44470</v>
+        <v>44471</v>
       </c>
       <c r="B65" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>44471</v>
+        <v>44472</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
-      </c>
-      <c r="C66" t="s">
-        <v>72</v>
-      </c>
-      <c r="D66" t="s">
-        <v>15</v>
-      </c>
-      <c r="E66" t="s">
-        <v>14</v>
-      </c>
-      <c r="F66" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>44472</v>
+        <v>44473</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>44473</v>
+        <v>44474</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>44475</v>
+        <v>44476</v>
       </c>
       <c r="B70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>44476</v>
+        <v>44477</v>
       </c>
       <c r="B71" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="C71" t="s">
+        <v>67</v>
+      </c>
+      <c r="D71" t="s">
+        <v>41</v>
+      </c>
+      <c r="E71" t="s">
+        <v>55</v>
+      </c>
+      <c r="F71" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>44477</v>
+        <v>44478</v>
       </c>
       <c r="B72" t="s">
-        <v>4</v>
-      </c>
-      <c r="C72" t="s">
-        <v>71</v>
-      </c>
-      <c r="D72" t="s">
-        <v>44</v>
-      </c>
-      <c r="E72" t="s">
-        <v>59</v>
-      </c>
-      <c r="F72" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>44478</v>
+        <v>44479</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>44479</v>
+        <v>44480</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>44480</v>
+        <v>44481</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>44481</v>
+        <v>44482</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>44482</v>
+        <v>44483</v>
       </c>
       <c r="B77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>44483</v>
+        <v>44484</v>
       </c>
       <c r="B78" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="C78" t="s">
+        <v>66</v>
+      </c>
+      <c r="D78" t="s">
+        <v>36</v>
+      </c>
+      <c r="E78" t="s">
+        <v>37</v>
+      </c>
+      <c r="F78" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>44484</v>
+        <v>44485</v>
       </c>
       <c r="B79" t="s">
-        <v>4</v>
-      </c>
-      <c r="C79" t="s">
-        <v>70</v>
-      </c>
-      <c r="D79" t="s">
-        <v>39</v>
-      </c>
-      <c r="E79" t="s">
-        <v>40</v>
-      </c>
-      <c r="F79" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>44485</v>
+        <v>44486</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>44486</v>
+        <v>44487</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>44487</v>
+        <v>44488</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
@@ -1629,206 +1611,206 @@
       <c r="B83" t="s">
         <v>8</v>
       </c>
+      <c r="C83" t="s">
+        <v>76</v>
+      </c>
+      <c r="D83" t="s">
+        <v>77</v>
+      </c>
+      <c r="E83" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>44488</v>
+        <v>44489</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
-      </c>
-      <c r="C84" t="s">
-        <v>80</v>
-      </c>
-      <c r="D84" t="s">
-        <v>81</v>
-      </c>
-      <c r="E84" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <v>44489</v>
+        <v>44490</v>
       </c>
       <c r="B85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <v>44490</v>
+        <v>44491</v>
       </c>
       <c r="B86" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
-        <v>44491</v>
+        <v>44492</v>
       </c>
       <c r="B87" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="C87" t="s">
+        <v>65</v>
+      </c>
+      <c r="D87" t="s">
+        <v>38</v>
+      </c>
+      <c r="E87" t="s">
+        <v>70</v>
+      </c>
+      <c r="F87" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <v>44492</v>
+        <v>44493</v>
       </c>
       <c r="B88" t="s">
-        <v>5</v>
-      </c>
-      <c r="C88" t="s">
-        <v>69</v>
-      </c>
-      <c r="D88" t="s">
-        <v>41</v>
-      </c>
-      <c r="E88" t="s">
-        <v>74</v>
-      </c>
-      <c r="F88" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
-        <v>44493</v>
+        <v>44494</v>
       </c>
       <c r="B89" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
-        <v>44494</v>
+        <v>44495</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
-        <v>44495</v>
+        <v>44496</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
-        <v>44496</v>
+        <v>44497</v>
       </c>
       <c r="B92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
-        <v>44497</v>
+        <v>44498</v>
       </c>
       <c r="B93" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
-        <v>44498</v>
+        <v>44499</v>
       </c>
       <c r="B94" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
-        <v>44499</v>
+        <v>44500</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
-        <v>44500</v>
+        <v>44501</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
-        <v>44501</v>
+        <v>44502</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
-        <v>44503</v>
+        <v>44504</v>
       </c>
       <c r="B99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
-        <v>44504</v>
+        <v>44505</v>
       </c>
       <c r="B100" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
-        <v>44505</v>
+        <v>44506</v>
       </c>
       <c r="B101" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="C101" t="s">
+        <v>64</v>
+      </c>
+      <c r="D101" t="s">
+        <v>40</v>
+      </c>
+      <c r="E101" t="s">
+        <v>14</v>
+      </c>
+      <c r="F101" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
-        <v>44506</v>
+        <v>44507</v>
       </c>
       <c r="B102" t="s">
-        <v>5</v>
-      </c>
-      <c r="C102" t="s">
-        <v>68</v>
-      </c>
-      <c r="D102" t="s">
-        <v>43</v>
-      </c>
-      <c r="E102" t="s">
-        <v>14</v>
-      </c>
-      <c r="F102" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
-        <v>44507</v>
+        <v>44508</v>
       </c>
       <c r="B103" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
-        <v>44508</v>
+        <v>44509</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
@@ -1838,208 +1820,200 @@
       <c r="B105" t="s">
         <v>8</v>
       </c>
+      <c r="C105" t="s">
+        <v>76</v>
+      </c>
+      <c r="D105" t="s">
+        <v>77</v>
+      </c>
+      <c r="E105" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
-      </c>
-      <c r="C106" t="s">
-        <v>80</v>
-      </c>
-      <c r="D106" t="s">
-        <v>81</v>
-      </c>
-      <c r="E106" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
-        <v>44510</v>
+        <v>44511</v>
       </c>
       <c r="B107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
-        <v>44511</v>
+        <v>44512</v>
       </c>
       <c r="B108" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
-        <v>44512</v>
+        <v>44513</v>
       </c>
       <c r="B109" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
-        <v>44513</v>
+        <v>44514</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
-        <v>44514</v>
+        <v>44515</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
-        <v>44515</v>
+        <v>44516</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
-        <v>44516</v>
+        <v>44517</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
-        <v>44517</v>
+        <v>44518</v>
       </c>
       <c r="B114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
-        <v>44518</v>
+        <v>44519</v>
       </c>
       <c r="B115" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="C115" t="s">
+        <v>12</v>
+      </c>
+      <c r="E115" t="s">
+        <v>14</v>
+      </c>
+      <c r="F115" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
-        <v>44519</v>
+        <v>44520</v>
       </c>
       <c r="B116" t="s">
-        <v>4</v>
-      </c>
-      <c r="C116" t="s">
-        <v>12</v>
-      </c>
-      <c r="E116" t="s">
-        <v>14</v>
-      </c>
-      <c r="F116" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
-        <v>44520</v>
+        <v>44521</v>
       </c>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
-        <v>44521</v>
+        <v>44522</v>
       </c>
       <c r="B118" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
-        <v>44522</v>
+        <v>44523</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
-        <v>44523</v>
+        <v>44524</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
-        <v>44524</v>
+        <v>44525</v>
       </c>
       <c r="B121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
-        <v>44525</v>
+        <v>44526</v>
       </c>
       <c r="B122" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
-        <v>44526</v>
+        <v>44527</v>
       </c>
       <c r="B123" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
-        <v>44527</v>
+        <v>44528</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
-        <v>44528</v>
+        <v>44529</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
-        <v>44529</v>
+        <v>44530</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A127" s="1">
-        <v>44530</v>
-      </c>
-      <c r="B127" t="s">
-        <v>8</v>
-      </c>
-      <c r="C127" t="s">
-        <v>80</v>
-      </c>
-      <c r="D127" t="s">
-        <v>81</v>
-      </c>
-      <c r="E127" t="s">
-        <v>82</v>
+        <v>8</v>
+      </c>
+      <c r="C126" t="s">
+        <v>76</v>
+      </c>
+      <c r="D126" t="s">
+        <v>77</v>
+      </c>
+      <c r="E126" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2083,7 +2057,7 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -2094,7 +2068,7 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -2121,7 +2095,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -2132,13 +2106,13 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -2149,13 +2123,13 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
         <v>47</v>
       </c>
-      <c r="D7" t="s">
-        <v>50</v>
-      </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -2163,7 +2137,7 @@
         <v>44431</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcxcl\Dropbox\2021XC\Calendar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgarnet0\Dropbox\2021XC\Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64EB87C9-CD85-44A0-8017-2B6D238A969A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC28E6D-ACDC-4386-8AE5-13FD57577AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1F97B90D-26B3-4DE4-ACCC-8E22994B6ECC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1F97B90D-26B3-4DE4-ACCC-8E22994B6ECC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="83">
   <si>
     <t>Date</t>
   </si>
@@ -281,6 +281,9 @@
   </si>
   <si>
     <t>&lt;a href="pracResults/timetrial2021.html" title="Go To Page"&gt;Time Trial&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Scott County Park</t>
   </si>
 </sst>
 </file>
@@ -642,22 +645,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC89124E-97CA-4317-8E8E-A3FBD6EF8403}">
-  <dimension ref="A1:F126"/>
+  <dimension ref="A1:F125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" customWidth="1"/>
-    <col min="3" max="3" width="29.26953125" customWidth="1"/>
-    <col min="4" max="4" width="23.7265625" customWidth="1"/>
-    <col min="5" max="5" width="16.1796875" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -677,7 +680,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44421</v>
       </c>
@@ -694,7 +697,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44421</v>
       </c>
@@ -708,7 +711,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44421</v>
       </c>
@@ -722,7 +725,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44421</v>
       </c>
@@ -736,7 +739,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44421</v>
       </c>
@@ -750,7 +753,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44421</v>
       </c>
@@ -764,7 +767,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44422</v>
       </c>
@@ -784,7 +787,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44422</v>
       </c>
@@ -798,7 +801,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44423</v>
       </c>
@@ -815,7 +818,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44423</v>
       </c>
@@ -829,7 +832,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44424</v>
       </c>
@@ -846,7 +849,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44424</v>
       </c>
@@ -860,7 +863,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44424</v>
       </c>
@@ -874,7 +877,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44425</v>
       </c>
@@ -891,89 +894,86 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>44425</v>
+        <v>44426</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>44426</v>
+        <v>44427</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="E17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>44427</v>
+        <v>44428</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>44428</v>
+        <v>44429</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>44429</v>
+        <v>44430</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44430</v>
       </c>
@@ -981,1038 +981,1027 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+      <c r="D21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>44430</v>
+        <v>44431</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>44431</v>
+        <v>44432</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>44432</v>
+        <v>44433</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>44433</v>
+        <v>44434</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>44434</v>
+        <v>44435</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C26" t="s">
         <v>17</v>
       </c>
-      <c r="D26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>44435</v>
+        <v>44436</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>44436</v>
+        <v>44437</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
-        <v>44437</v>
-      </c>
-      <c r="B29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>44438</v>
+        <v>44439</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
         <v>17</v>
       </c>
-      <c r="D30" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>44439</v>
+        <v>44440</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>44440</v>
+        <v>44441</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C32" t="s">
         <v>17</v>
       </c>
-      <c r="D32" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>44441</v>
+        <v>44442</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>44442</v>
+        <v>44443</v>
       </c>
       <c r="B34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" t="s">
-        <v>71</v>
-      </c>
-      <c r="D34" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" t="s">
-        <v>72</v>
-      </c>
-      <c r="F34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>44443</v>
+        <v>44444</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>44444</v>
+        <v>44445</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>44445</v>
+        <v>44446</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>44446</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>44446</v>
+        <v>44447</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" t="s">
-        <v>76</v>
-      </c>
-      <c r="D39" t="s">
-        <v>77</v>
-      </c>
-      <c r="E39" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>44447</v>
+        <v>44448</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>44448</v>
+        <v>44449</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>44449</v>
+        <v>44450</v>
       </c>
       <c r="B42" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>44450</v>
+        <v>44451</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>44451</v>
+        <v>44452</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>44452</v>
+        <v>44453</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>44453</v>
+        <v>44454</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>44454</v>
+        <v>44455</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>44455</v>
+        <v>44456</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" t="s">
+        <v>40</v>
+      </c>
+      <c r="E48" t="s">
+        <v>55</v>
+      </c>
+      <c r="F48" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>44456</v>
+        <v>44457</v>
       </c>
       <c r="B49" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" t="s">
-        <v>69</v>
-      </c>
-      <c r="D49" t="s">
-        <v>40</v>
-      </c>
-      <c r="E49" t="s">
-        <v>55</v>
-      </c>
-      <c r="F49" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>44457</v>
+        <v>44458</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>44458</v>
+        <v>44459</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>44459</v>
+        <v>44460</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>44460</v>
+        <v>44461</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>44461</v>
+        <v>44462</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>44462</v>
+        <v>44463</v>
       </c>
       <c r="B55" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>44463</v>
+        <v>44464</v>
       </c>
       <c r="B56" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>44464</v>
+        <v>44465</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>44465</v>
+        <v>44466</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>44466</v>
+        <v>44467</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>44467</v>
       </c>
       <c r="B60" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C60" t="s">
+        <v>76</v>
+      </c>
+      <c r="D60" t="s">
+        <v>77</v>
+      </c>
+      <c r="E60" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>44467</v>
+        <v>44468</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61" t="s">
-        <v>76</v>
-      </c>
-      <c r="D61" t="s">
-        <v>77</v>
-      </c>
-      <c r="E61" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>44468</v>
+        <v>44469</v>
       </c>
       <c r="B62" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>44469</v>
+        <v>44470</v>
       </c>
       <c r="B63" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>44470</v>
+        <v>44471</v>
       </c>
       <c r="B64" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>44471</v>
+        <v>44472</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
-      </c>
-      <c r="C65" t="s">
-        <v>68</v>
-      </c>
-      <c r="D65" t="s">
-        <v>15</v>
-      </c>
-      <c r="E65" t="s">
-        <v>14</v>
-      </c>
-      <c r="F65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>44474</v>
+      </c>
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>44475</v>
+      </c>
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>44476</v>
+      </c>
+      <c r="B69" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>44477</v>
+      </c>
+      <c r="B70" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" t="s">
+        <v>67</v>
+      </c>
+      <c r="D70" t="s">
+        <v>41</v>
+      </c>
+      <c r="E70" t="s">
+        <v>55</v>
+      </c>
+      <c r="F70" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" s="1">
-        <v>44472</v>
-      </c>
-      <c r="B66" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A67" s="1">
-        <v>44473</v>
-      </c>
-      <c r="B67" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A68" s="1">
-        <v>44474</v>
-      </c>
-      <c r="B68" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" s="1">
-        <v>44475</v>
-      </c>
-      <c r="B69" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70" s="1">
-        <v>44476</v>
-      </c>
-      <c r="B70" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>44477</v>
+        <v>44478</v>
       </c>
       <c r="B71" t="s">
-        <v>4</v>
-      </c>
-      <c r="C71" t="s">
-        <v>67</v>
-      </c>
-      <c r="D71" t="s">
-        <v>41</v>
-      </c>
-      <c r="E71" t="s">
-        <v>55</v>
-      </c>
-      <c r="F71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>44479</v>
+      </c>
+      <c r="B72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B73" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>44481</v>
+      </c>
+      <c r="B74" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>44482</v>
+      </c>
+      <c r="B75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>44483</v>
+      </c>
+      <c r="B76" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>44484</v>
+      </c>
+      <c r="B77" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" t="s">
+        <v>66</v>
+      </c>
+      <c r="D77" t="s">
+        <v>36</v>
+      </c>
+      <c r="E77" t="s">
+        <v>37</v>
+      </c>
+      <c r="F77" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A72" s="1">
-        <v>44478</v>
-      </c>
-      <c r="B72" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A73" s="1">
-        <v>44479</v>
-      </c>
-      <c r="B73" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A74" s="1">
-        <v>44480</v>
-      </c>
-      <c r="B74" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A75" s="1">
-        <v>44481</v>
-      </c>
-      <c r="B75" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A76" s="1">
-        <v>44482</v>
-      </c>
-      <c r="B76" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A77" s="1">
-        <v>44483</v>
-      </c>
-      <c r="B77" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>44484</v>
+        <v>44485</v>
       </c>
       <c r="B78" t="s">
-        <v>4</v>
-      </c>
-      <c r="C78" t="s">
-        <v>66</v>
-      </c>
-      <c r="D78" t="s">
-        <v>36</v>
-      </c>
-      <c r="E78" t="s">
-        <v>37</v>
-      </c>
-      <c r="F78" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>44485</v>
+        <v>44486</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>44486</v>
+        <v>44487</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>44487</v>
+        <v>44488</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>44488</v>
       </c>
       <c r="B82" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C82" t="s">
+        <v>76</v>
+      </c>
+      <c r="D82" t="s">
+        <v>77</v>
+      </c>
+      <c r="E82" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>44488</v>
+        <v>44489</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
-      </c>
-      <c r="C83" t="s">
-        <v>76</v>
-      </c>
-      <c r="D83" t="s">
-        <v>77</v>
-      </c>
-      <c r="E83" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>44489</v>
+        <v>44490</v>
       </c>
       <c r="B84" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>44490</v>
+        <v>44491</v>
       </c>
       <c r="B85" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>44491</v>
+        <v>44492</v>
       </c>
       <c r="B86" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="C86" t="s">
+        <v>65</v>
+      </c>
+      <c r="D86" t="s">
+        <v>38</v>
+      </c>
+      <c r="E86" t="s">
+        <v>70</v>
+      </c>
+      <c r="F86" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>44492</v>
+        <v>44493</v>
       </c>
       <c r="B87" t="s">
-        <v>5</v>
-      </c>
-      <c r="C87" t="s">
-        <v>65</v>
-      </c>
-      <c r="D87" t="s">
-        <v>38</v>
-      </c>
-      <c r="E87" t="s">
-        <v>70</v>
-      </c>
-      <c r="F87" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B88" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>44495</v>
+      </c>
+      <c r="B89" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>44496</v>
+      </c>
+      <c r="B90" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>44497</v>
+      </c>
+      <c r="B91" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>44498</v>
+      </c>
+      <c r="B92" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>44499</v>
+      </c>
+      <c r="B93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>44500</v>
+      </c>
+      <c r="B94" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B95" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>44502</v>
+      </c>
+      <c r="B96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>44503</v>
+      </c>
+      <c r="B97" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>44504</v>
+      </c>
+      <c r="B98" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>44505</v>
+      </c>
+      <c r="B99" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" t="s">
+        <v>64</v>
+      </c>
+      <c r="D100" t="s">
+        <v>40</v>
+      </c>
+      <c r="E100" t="s">
+        <v>14</v>
+      </c>
+      <c r="F100" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A88" s="1">
-        <v>44493</v>
-      </c>
-      <c r="B88" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A89" s="1">
-        <v>44494</v>
-      </c>
-      <c r="B89" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A90" s="1">
-        <v>44495</v>
-      </c>
-      <c r="B90" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A91" s="1">
-        <v>44496</v>
-      </c>
-      <c r="B91" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A92" s="1">
-        <v>44497</v>
-      </c>
-      <c r="B92" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A93" s="1">
-        <v>44498</v>
-      </c>
-      <c r="B93" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A94" s="1">
-        <v>44499</v>
-      </c>
-      <c r="B94" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A95" s="1">
-        <v>44500</v>
-      </c>
-      <c r="B95" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A96" s="1">
-        <v>44501</v>
-      </c>
-      <c r="B96" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A97" s="1">
-        <v>44502</v>
-      </c>
-      <c r="B97" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A98" s="1">
-        <v>44503</v>
-      </c>
-      <c r="B98" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A99" s="1">
-        <v>44504</v>
-      </c>
-      <c r="B99" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A100" s="1">
-        <v>44505</v>
-      </c>
-      <c r="B100" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>44506</v>
+        <v>44507</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
-      </c>
-      <c r="C101" t="s">
-        <v>64</v>
-      </c>
-      <c r="D101" t="s">
-        <v>40</v>
-      </c>
-      <c r="E101" t="s">
-        <v>14</v>
-      </c>
-      <c r="F101" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>44507</v>
+        <v>44508</v>
       </c>
       <c r="B102" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>44508</v>
+        <v>44509</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>44509</v>
       </c>
       <c r="B104" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C104" t="s">
+        <v>76</v>
+      </c>
+      <c r="D104" t="s">
+        <v>77</v>
+      </c>
+      <c r="E104" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
-      </c>
-      <c r="C105" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>44511</v>
+      </c>
+      <c r="B106" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>44512</v>
+      </c>
+      <c r="B107" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>44513</v>
+      </c>
+      <c r="B108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>44514</v>
+      </c>
+      <c r="B109" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B110" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>44516</v>
+      </c>
+      <c r="B111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>44517</v>
+      </c>
+      <c r="B112" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>44518</v>
+      </c>
+      <c r="B113" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>44519</v>
+      </c>
+      <c r="B114" t="s">
+        <v>4</v>
+      </c>
+      <c r="C114" t="s">
+        <v>12</v>
+      </c>
+      <c r="E114" t="s">
+        <v>14</v>
+      </c>
+      <c r="F114" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>44520</v>
+      </c>
+      <c r="B115" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>44521</v>
+      </c>
+      <c r="B116" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>44522</v>
+      </c>
+      <c r="B117" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>44523</v>
+      </c>
+      <c r="B118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>44524</v>
+      </c>
+      <c r="B119" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>44525</v>
+      </c>
+      <c r="B120" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>44526</v>
+      </c>
+      <c r="B121" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B122" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>44528</v>
+      </c>
+      <c r="B123" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>44529</v>
+      </c>
+      <c r="B124" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>44530</v>
+      </c>
+      <c r="B125" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" t="s">
         <v>76</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D125" t="s">
         <v>77</v>
       </c>
-      <c r="E105" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A106" s="1">
-        <v>44510</v>
-      </c>
-      <c r="B106" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A107" s="1">
-        <v>44511</v>
-      </c>
-      <c r="B107" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A108" s="1">
-        <v>44512</v>
-      </c>
-      <c r="B108" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A109" s="1">
-        <v>44513</v>
-      </c>
-      <c r="B109" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A110" s="1">
-        <v>44514</v>
-      </c>
-      <c r="B110" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A111" s="1">
-        <v>44515</v>
-      </c>
-      <c r="B111" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A112" s="1">
-        <v>44516</v>
-      </c>
-      <c r="B112" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A113" s="1">
-        <v>44517</v>
-      </c>
-      <c r="B113" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A114" s="1">
-        <v>44518</v>
-      </c>
-      <c r="B114" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A115" s="1">
-        <v>44519</v>
-      </c>
-      <c r="B115" t="s">
-        <v>4</v>
-      </c>
-      <c r="C115" t="s">
-        <v>12</v>
-      </c>
-      <c r="E115" t="s">
-        <v>14</v>
-      </c>
-      <c r="F115" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A116" s="1">
-        <v>44520</v>
-      </c>
-      <c r="B116" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A117" s="1">
-        <v>44521</v>
-      </c>
-      <c r="B117" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A118" s="1">
-        <v>44522</v>
-      </c>
-      <c r="B118" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A119" s="1">
-        <v>44523</v>
-      </c>
-      <c r="B119" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A120" s="1">
-        <v>44524</v>
-      </c>
-      <c r="B120" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A121" s="1">
-        <v>44525</v>
-      </c>
-      <c r="B121" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A122" s="1">
-        <v>44526</v>
-      </c>
-      <c r="B122" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A123" s="1">
-        <v>44527</v>
-      </c>
-      <c r="B123" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A124" s="1">
-        <v>44528</v>
-      </c>
-      <c r="B124" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A125" s="1">
-        <v>44529</v>
-      </c>
-      <c r="B125" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A126" s="1">
-        <v>44530</v>
-      </c>
-      <c r="B126" t="s">
-        <v>8</v>
-      </c>
-      <c r="C126" t="s">
-        <v>76</v>
-      </c>
-      <c r="D126" t="s">
-        <v>77</v>
-      </c>
-      <c r="E126" t="s">
+      <c r="E125" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2031,16 +2020,16 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" customWidth="1"/>
-    <col min="3" max="3" width="29.26953125" customWidth="1"/>
-    <col min="4" max="4" width="23.7265625" customWidth="1"/>
-    <col min="5" max="5" width="16.1796875" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2060,7 +2049,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44426</v>
       </c>
@@ -2071,7 +2060,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44427</v>
       </c>
@@ -2079,7 +2068,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44428</v>
       </c>
@@ -2087,7 +2076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44429</v>
       </c>
@@ -2098,7 +2087,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44430</v>
       </c>
@@ -2115,7 +2104,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44431</v>
       </c>
@@ -2132,7 +2121,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44431</v>
       </c>
@@ -2140,7 +2129,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44432</v>
       </c>
@@ -2148,7 +2137,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44433</v>
       </c>
@@ -2156,7 +2145,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44434</v>
       </c>
@@ -2164,7 +2153,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44435</v>
       </c>
@@ -2172,7 +2161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44436</v>
       </c>
@@ -2180,7 +2169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44437</v>
       </c>
@@ -2188,7 +2177,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44438</v>
       </c>
@@ -2196,7 +2185,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44439</v>
       </c>
@@ -2204,7 +2193,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44440</v>
       </c>
@@ -2212,7 +2201,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44441</v>
       </c>
@@ -2220,7 +2209,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44442</v>
       </c>
@@ -2228,7 +2217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44443</v>
       </c>
@@ -2236,7 +2225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44444</v>
       </c>
@@ -2244,7 +2233,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44445</v>
       </c>
@@ -2252,7 +2241,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44446</v>
       </c>
@@ -2260,7 +2249,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44447</v>
       </c>
@@ -2268,7 +2257,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44448</v>
       </c>
@@ -2276,7 +2265,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>44449</v>
       </c>
@@ -2284,7 +2273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44450</v>
       </c>
@@ -2292,7 +2281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>44451</v>
       </c>
@@ -2300,7 +2289,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>44452</v>
       </c>
@@ -2308,7 +2297,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>44453</v>
       </c>
@@ -2316,7 +2305,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>44454</v>
       </c>
@@ -2324,7 +2313,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>44455</v>
       </c>
@@ -2332,7 +2321,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>44456</v>
       </c>
@@ -2340,7 +2329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>44457</v>
       </c>
@@ -2348,7 +2337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>44458</v>
       </c>
@@ -2356,7 +2345,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>44459</v>
       </c>
@@ -2364,7 +2353,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>44460</v>
       </c>
@@ -2372,7 +2361,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>44461</v>
       </c>
@@ -2380,7 +2369,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>44462</v>
       </c>
@@ -2388,7 +2377,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>44463</v>
       </c>
@@ -2396,7 +2385,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>44464</v>
       </c>
@@ -2404,7 +2393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>44465</v>
       </c>
@@ -2412,7 +2401,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>44466</v>
       </c>
@@ -2420,7 +2409,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44467</v>
       </c>
@@ -2428,7 +2417,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44468</v>
       </c>
@@ -2436,7 +2425,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44469</v>
       </c>
@@ -2444,7 +2433,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44470</v>
       </c>
@@ -2452,7 +2441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>44471</v>
       </c>
@@ -2460,7 +2449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>44472</v>
       </c>
@@ -2468,7 +2457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>44473</v>
       </c>
@@ -2476,7 +2465,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>44474</v>
       </c>
@@ -2484,7 +2473,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>44475</v>
       </c>
@@ -2492,7 +2481,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>44476</v>
       </c>
@@ -2500,7 +2489,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>44477</v>
       </c>
@@ -2508,7 +2497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>44478</v>
       </c>
@@ -2516,7 +2505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>44479</v>
       </c>
@@ -2524,7 +2513,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>44480</v>
       </c>
@@ -2532,7 +2521,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>44481</v>
       </c>
@@ -2540,7 +2529,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>44482</v>
       </c>
@@ -2548,7 +2537,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>44483</v>
       </c>
@@ -2556,7 +2545,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>44484</v>
       </c>
@@ -2564,7 +2553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>44485</v>
       </c>
@@ -2572,7 +2561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>44486</v>
       </c>
@@ -2580,7 +2569,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>44487</v>
       </c>
@@ -2588,7 +2577,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>44488</v>
       </c>
@@ -2596,7 +2585,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>44489</v>
       </c>
@@ -2604,7 +2593,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>44490</v>
       </c>
@@ -2612,7 +2601,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>44491</v>
       </c>
@@ -2620,7 +2609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>44492</v>
       </c>
@@ -2628,7 +2617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>44493</v>
       </c>
@@ -2636,7 +2625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>44494</v>
       </c>
@@ -2644,7 +2633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>44495</v>
       </c>
@@ -2652,7 +2641,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>44496</v>
       </c>
@@ -2660,7 +2649,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>44497</v>
       </c>
@@ -2668,7 +2657,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>44498</v>
       </c>
@@ -2676,7 +2665,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>44499</v>
       </c>
@@ -2684,7 +2673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>44500</v>
       </c>
@@ -2692,7 +2681,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>44501</v>
       </c>
@@ -2700,7 +2689,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>44502</v>
       </c>
@@ -2708,7 +2697,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>44503</v>
       </c>
@@ -2716,7 +2705,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>44504</v>
       </c>
@@ -2724,7 +2713,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>44505</v>
       </c>
@@ -2732,7 +2721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>44506</v>
       </c>
@@ -2740,7 +2729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>44507</v>
       </c>
@@ -2748,7 +2737,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>44508</v>
       </c>
@@ -2756,7 +2745,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>44509</v>
       </c>
@@ -2764,7 +2753,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>44510</v>
       </c>
@@ -2772,7 +2761,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>44511</v>
       </c>
@@ -2780,7 +2769,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>44512</v>
       </c>
@@ -2788,7 +2777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>44513</v>
       </c>
@@ -2796,7 +2785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>44514</v>
       </c>
@@ -2804,7 +2793,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>44515</v>
       </c>
@@ -2812,7 +2801,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>44516</v>
       </c>
@@ -2820,7 +2809,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>44517</v>
       </c>
@@ -2828,7 +2817,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>44518</v>
       </c>
@@ -2836,7 +2825,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>44519</v>
       </c>
@@ -2844,7 +2833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>44520</v>
       </c>
@@ -2852,7 +2841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>44521</v>
       </c>
@@ -2860,7 +2849,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>44522</v>
       </c>
@@ -2868,7 +2857,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>44523</v>
       </c>
@@ -2876,7 +2865,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>44524</v>
       </c>
@@ -2884,7 +2873,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>44525</v>
       </c>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgarnet0\Dropbox\2021XC\Calendar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgarnet0\Documents\GitHub\Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC28E6D-ACDC-4386-8AE5-13FD57577AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F8B743-B5C2-4A36-8583-9784BB6F85D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1F97B90D-26B3-4DE4-ACCC-8E22994B6ECC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="87">
   <si>
     <t>Date</t>
   </si>
@@ -284,6 +284,18 @@
   </si>
   <si>
     <t>Scott County Park</t>
+  </si>
+  <si>
+    <t>Park (Blue Barns)</t>
+  </si>
+  <si>
+    <t>TBA Workout</t>
+  </si>
+  <si>
+    <t>Long Run</t>
+  </si>
+  <si>
+    <t>5:15pm</t>
   </si>
 </sst>
 </file>
@@ -647,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC89124E-97CA-4317-8E8E-A3FBD6EF8403}">
   <dimension ref="A1:F125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1001,7 +1013,10 @@
         <v>39</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>83</v>
+      </c>
+      <c r="E22" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1014,6 +1029,12 @@
       <c r="C23" t="s">
         <v>17</v>
       </c>
+      <c r="D23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -1025,6 +1046,12 @@
       <c r="C24" t="s">
         <v>17</v>
       </c>
+      <c r="D24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -1037,7 +1064,10 @@
         <v>17</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>84</v>
+      </c>
+      <c r="E25" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1048,7 +1078,13 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1059,7 +1095,13 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>85</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgarnet0\Documents\GitHub\Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F8B743-B5C2-4A36-8583-9784BB6F85D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F835243B-F514-4D1E-82CB-62A78EBA08AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1F97B90D-26B3-4DE4-ACCC-8E22994B6ECC}"/>
   </bookViews>
@@ -289,13 +289,13 @@
     <t>Park (Blue Barns)</t>
   </si>
   <si>
-    <t>TBA Workout</t>
-  </si>
-  <si>
     <t>Long Run</t>
   </si>
   <si>
     <t>5:15pm</t>
+  </si>
+  <si>
+    <t>Park (Back Field)</t>
   </si>
 </sst>
 </file>
@@ -660,7 +660,7 @@
   <dimension ref="A1:F125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,7 +1016,7 @@
         <v>83</v>
       </c>
       <c r="E22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1033,7 +1033,7 @@
         <v>61</v>
       </c>
       <c r="E23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1050,7 +1050,7 @@
         <v>61</v>
       </c>
       <c r="E24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1064,10 +1064,10 @@
         <v>17</v>
       </c>
       <c r="D25" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1084,7 +1084,7 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1095,7 +1095,7 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" t="s">
         <v>14</v>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgarnet0\Documents\GitHub\Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F835243B-F514-4D1E-82CB-62A78EBA08AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E549FE8A-25B0-4E68-A0BB-BA0C76ED8A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1F97B90D-26B3-4DE4-ACCC-8E22994B6ECC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="88">
   <si>
     <t>Date</t>
   </si>
@@ -296,6 +296,9 @@
   </si>
   <si>
     <t>Park (Back Field)</t>
+  </si>
+  <si>
+    <t>&lt;a href="pracResults/prac.html#20210826" title="Go To Page"&gt;Practice&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -659,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC89124E-97CA-4317-8E8E-A3FBD6EF8403}">
   <dimension ref="A1:F125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1061,7 +1064,7 @@
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="D25" t="s">
         <v>86</v>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgarnet0\Documents\GitHub\Calendar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcxcl\Dropbox\2021XC\Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E549FE8A-25B0-4E68-A0BB-BA0C76ED8A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C2D109-74CB-4508-82FB-4BEEC1ADCE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1F97B90D-26B3-4DE4-ACCC-8E22994B6ECC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1F97B90D-26B3-4DE4-ACCC-8E22994B6ECC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="95">
   <si>
     <t>Date</t>
   </si>
@@ -299,6 +299,27 @@
   </si>
   <si>
     <t>&lt;a href="pracResults/prac.html#20210826" title="Go To Page"&gt;Practice&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>5:45am</t>
+  </si>
+  <si>
+    <t>Park</t>
+  </si>
+  <si>
+    <t>Pre-Meet</t>
+  </si>
+  <si>
+    <t>Weights</t>
+  </si>
+  <si>
+    <t>East Campus</t>
+  </si>
+  <si>
+    <t>7:00pm</t>
+  </si>
+  <si>
+    <t>&lt;a href="pracResults/prac.html#20210830" title="Go To Page"&gt;Practice&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -660,22 +681,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC89124E-97CA-4317-8E8E-A3FBD6EF8403}">
-  <dimension ref="A1:F125"/>
+  <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" customWidth="1"/>
+    <col min="3" max="3" width="29.26953125" customWidth="1"/>
+    <col min="4" max="4" width="23.7265625" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -695,7 +716,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>44421</v>
       </c>
@@ -712,7 +733,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>44421</v>
       </c>
@@ -726,7 +747,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>44421</v>
       </c>
@@ -740,7 +761,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>44421</v>
       </c>
@@ -754,7 +775,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>44421</v>
       </c>
@@ -768,7 +789,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>44421</v>
       </c>
@@ -782,7 +803,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>44422</v>
       </c>
@@ -802,7 +823,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>44422</v>
       </c>
@@ -816,7 +837,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>44423</v>
       </c>
@@ -833,7 +854,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>44423</v>
       </c>
@@ -847,7 +868,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>44424</v>
       </c>
@@ -864,7 +885,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>44424</v>
       </c>
@@ -878,7 +899,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>44424</v>
       </c>
@@ -892,7 +913,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>44425</v>
       </c>
@@ -909,7 +930,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>44426</v>
       </c>
@@ -926,7 +947,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>44427</v>
       </c>
@@ -943,7 +964,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>44428</v>
       </c>
@@ -960,7 +981,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>44429</v>
       </c>
@@ -977,7 +998,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>44430</v>
       </c>
@@ -988,7 +1009,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>44430</v>
       </c>
@@ -1005,7 +1026,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>44431</v>
       </c>
@@ -1022,7 +1043,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>44432</v>
       </c>
@@ -1039,7 +1060,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>44433</v>
       </c>
@@ -1056,7 +1077,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>44434</v>
       </c>
@@ -1073,7 +1094,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>44435</v>
       </c>
@@ -1090,7 +1111,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>44436</v>
       </c>
@@ -1107,7 +1128,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>44437</v>
       </c>
@@ -1118,7 +1139,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>44438</v>
       </c>
@@ -1126,927 +1147,979 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="D29" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
         <v>44439</v>
       </c>
-      <c r="B30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>44440</v>
-      </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
         <v>17</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="E31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>44441</v>
+        <v>44440</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
+        <v>44441</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>44441</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
         <v>44442</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B35" t="s">
         <v>4</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C35" t="s">
         <v>71</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D35" t="s">
         <v>13</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E35" t="s">
         <v>72</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F35" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
         <v>44443</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B36" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
         <v>44444</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B37" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
         <v>44445</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B38" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
         <v>44446</v>
       </c>
-      <c r="B37" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
         <v>44446</v>
       </c>
-      <c r="B38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s">
         <v>76</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D40" t="s">
         <v>77</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E40" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
         <v>44447</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B41" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
         <v>44448</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B42" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
         <v>44449</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B43" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
         <v>44450</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B44" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
         <v>44451</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B45" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
         <v>44452</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B46" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
         <v>44453</v>
       </c>
-      <c r="B45" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
         <v>44454</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B48" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
         <v>44455</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B49" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
         <v>44456</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B50" t="s">
         <v>4</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C50" t="s">
         <v>69</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D50" t="s">
         <v>40</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E50" t="s">
         <v>55</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F50" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
         <v>44457</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B51" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
         <v>44458</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B52" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
         <v>44459</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B53" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
         <v>44460</v>
       </c>
-      <c r="B52" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
         <v>44461</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B55" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
         <v>44462</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B56" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
         <v>44463</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B57" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
         <v>44464</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B58" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
         <v>44465</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B59" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
         <v>44466</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B60" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
         <v>44467</v>
       </c>
-      <c r="B59" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
+      <c r="B61" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
         <v>44467</v>
       </c>
-      <c r="B60" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" t="s">
         <v>76</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D62" t="s">
         <v>77</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E62" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
         <v>44468</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B63" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
         <v>44469</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B64" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
         <v>44470</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B65" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
         <v>44471</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B66" t="s">
         <v>5</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C66" t="s">
         <v>68</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D66" t="s">
         <v>15</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E66" t="s">
         <v>14</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F66" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
         <v>44472</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B67" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
         <v>44473</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B68" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
         <v>44474</v>
       </c>
-      <c r="B67" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
         <v>44475</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B70" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
         <v>44476</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B71" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
         <v>44477</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B72" t="s">
         <v>4</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C72" t="s">
         <v>67</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D72" t="s">
         <v>41</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E72" t="s">
         <v>55</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F72" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
         <v>44478</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B73" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
         <v>44479</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B74" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
         <v>44480</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B75" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
         <v>44481</v>
       </c>
-      <c r="B74" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
+      <c r="B76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
         <v>44482</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B77" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
         <v>44483</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B78" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
         <v>44484</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B79" t="s">
         <v>4</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C79" t="s">
         <v>66</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D79" t="s">
         <v>36</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E79" t="s">
         <v>37</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F79" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
         <v>44485</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B80" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
         <v>44486</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B81" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
         <v>44487</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B82" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" s="1">
         <v>44488</v>
       </c>
-      <c r="B81" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
+      <c r="B83" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" s="1">
         <v>44488</v>
       </c>
-      <c r="B82" t="s">
-        <v>8</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="B84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" t="s">
         <v>76</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D84" t="s">
         <v>77</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E84" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" s="1">
         <v>44489</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B85" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" s="1">
         <v>44490</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B86" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" s="1">
         <v>44491</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B87" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" s="1">
         <v>44492</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B88" t="s">
         <v>5</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C88" t="s">
         <v>65</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D88" t="s">
         <v>38</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E88" t="s">
         <v>70</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F88" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" s="1">
         <v>44493</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B89" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" s="1">
         <v>44494</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B90" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" s="1">
         <v>44495</v>
       </c>
-      <c r="B89" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
+      <c r="B91" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92" s="1">
         <v>44496</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B92" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" s="1">
         <v>44497</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B93" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94" s="1">
         <v>44498</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B94" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95" s="1">
         <v>44499</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B95" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96" s="1">
         <v>44500</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B96" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A97" s="1">
         <v>44501</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B97" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A98" s="1">
         <v>44502</v>
       </c>
-      <c r="B96" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
+      <c r="B98" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A99" s="1">
         <v>44503</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B99" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A100" s="1">
         <v>44504</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B100" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A101" s="1">
         <v>44505</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B101" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A102" s="1">
         <v>44506</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B102" t="s">
         <v>5</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C102" t="s">
         <v>64</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D102" t="s">
         <v>40</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E102" t="s">
         <v>14</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F102" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A103" s="1">
         <v>44507</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B103" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A104" s="1">
         <v>44508</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B104" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A105" s="1">
         <v>44509</v>
       </c>
-      <c r="B103" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="1">
+      <c r="B105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A106" s="1">
         <v>44509</v>
       </c>
-      <c r="B104" t="s">
-        <v>8</v>
-      </c>
-      <c r="C104" t="s">
+      <c r="B106" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" t="s">
         <v>76</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D106" t="s">
         <v>77</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E106" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="1">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A107" s="1">
         <v>44510</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B107" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A108" s="1">
         <v>44511</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B108" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A109" s="1">
         <v>44512</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B109" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="1">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A110" s="1">
         <v>44513</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B110" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="1">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A111" s="1">
         <v>44514</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B111" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A112" s="1">
         <v>44515</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B112" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A113" s="1">
         <v>44516</v>
       </c>
-      <c r="B111" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="1">
+      <c r="B113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A114" s="1">
         <v>44517</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B114" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="1">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A115" s="1">
         <v>44518</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B115" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="1">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A116" s="1">
         <v>44519</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B116" t="s">
         <v>4</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C116" t="s">
         <v>12</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E116" t="s">
         <v>14</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F116" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="1">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A117" s="1">
         <v>44520</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B117" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="1">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A118" s="1">
         <v>44521</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B118" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="1">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A119" s="1">
         <v>44522</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B119" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="1">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A120" s="1">
         <v>44523</v>
       </c>
-      <c r="B118" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="1">
+      <c r="B120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A121" s="1">
         <v>44524</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B121" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="1">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A122" s="1">
         <v>44525</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B122" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="1">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A123" s="1">
         <v>44526</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B123" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="1">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A124" s="1">
         <v>44527</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B124" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="1">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A125" s="1">
         <v>44528</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B125" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="1">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A126" s="1">
         <v>44529</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B126" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="1">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A127" s="1">
         <v>44530</v>
       </c>
-      <c r="B125" t="s">
-        <v>8</v>
-      </c>
-      <c r="C125" t="s">
+      <c r="B127" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" t="s">
         <v>76</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D127" t="s">
         <v>77</v>
       </c>
-      <c r="E125" t="s">
+      <c r="E127" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2065,16 +2138,16 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" customWidth="1"/>
+    <col min="3" max="3" width="29.26953125" customWidth="1"/>
+    <col min="4" max="4" width="23.7265625" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2094,7 +2167,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>44426</v>
       </c>
@@ -2105,7 +2178,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>44427</v>
       </c>
@@ -2113,7 +2186,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>44428</v>
       </c>
@@ -2121,7 +2194,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>44429</v>
       </c>
@@ -2132,7 +2205,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>44430</v>
       </c>
@@ -2149,7 +2222,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>44431</v>
       </c>
@@ -2166,7 +2239,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>44431</v>
       </c>
@@ -2174,7 +2247,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>44432</v>
       </c>
@@ -2182,7 +2255,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>44433</v>
       </c>
@@ -2190,7 +2263,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>44434</v>
       </c>
@@ -2198,7 +2271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>44435</v>
       </c>
@@ -2206,7 +2279,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>44436</v>
       </c>
@@ -2214,7 +2287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>44437</v>
       </c>
@@ -2222,7 +2295,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>44438</v>
       </c>
@@ -2230,7 +2303,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>44439</v>
       </c>
@@ -2238,7 +2311,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>44440</v>
       </c>
@@ -2246,7 +2319,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>44441</v>
       </c>
@@ -2254,7 +2327,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>44442</v>
       </c>
@@ -2262,7 +2335,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>44443</v>
       </c>
@@ -2270,7 +2343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>44444</v>
       </c>
@@ -2278,7 +2351,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>44445</v>
       </c>
@@ -2286,7 +2359,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>44446</v>
       </c>
@@ -2294,7 +2367,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>44447</v>
       </c>
@@ -2302,7 +2375,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>44448</v>
       </c>
@@ -2310,7 +2383,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>44449</v>
       </c>
@@ -2318,7 +2391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>44450</v>
       </c>
@@ -2326,7 +2399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>44451</v>
       </c>
@@ -2334,7 +2407,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>44452</v>
       </c>
@@ -2342,7 +2415,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>44453</v>
       </c>
@@ -2350,7 +2423,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>44454</v>
       </c>
@@ -2358,7 +2431,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>44455</v>
       </c>
@@ -2366,7 +2439,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>44456</v>
       </c>
@@ -2374,7 +2447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>44457</v>
       </c>
@@ -2382,7 +2455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>44458</v>
       </c>
@@ -2390,7 +2463,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>44459</v>
       </c>
@@ -2398,7 +2471,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>44460</v>
       </c>
@@ -2406,7 +2479,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>44461</v>
       </c>
@@ -2414,7 +2487,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>44462</v>
       </c>
@@ -2422,7 +2495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>44463</v>
       </c>
@@ -2430,7 +2503,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>44464</v>
       </c>
@@ -2438,7 +2511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>44465</v>
       </c>
@@ -2446,7 +2519,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>44466</v>
       </c>
@@ -2454,7 +2527,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>44467</v>
       </c>
@@ -2462,7 +2535,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>44468</v>
       </c>
@@ -2470,7 +2543,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>44469</v>
       </c>
@@ -2478,7 +2551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>44470</v>
       </c>
@@ -2486,7 +2559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>44471</v>
       </c>
@@ -2494,7 +2567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>44472</v>
       </c>
@@ -2502,7 +2575,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>44473</v>
       </c>
@@ -2510,7 +2583,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>44474</v>
       </c>
@@ -2518,7 +2591,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>44475</v>
       </c>
@@ -2526,7 +2599,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>44476</v>
       </c>
@@ -2534,7 +2607,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>44477</v>
       </c>
@@ -2542,7 +2615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>44478</v>
       </c>
@@ -2550,7 +2623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>44479</v>
       </c>
@@ -2558,7 +2631,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>44480</v>
       </c>
@@ -2566,7 +2639,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>44481</v>
       </c>
@@ -2574,7 +2647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>44482</v>
       </c>
@@ -2582,7 +2655,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>44483</v>
       </c>
@@ -2590,7 +2663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>44484</v>
       </c>
@@ -2598,7 +2671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>44485</v>
       </c>
@@ -2606,7 +2679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>44486</v>
       </c>
@@ -2614,7 +2687,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>44487</v>
       </c>
@@ -2622,7 +2695,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>44488</v>
       </c>
@@ -2630,7 +2703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>44489</v>
       </c>
@@ -2638,7 +2711,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>44490</v>
       </c>
@@ -2646,7 +2719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>44491</v>
       </c>
@@ -2654,7 +2727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>44492</v>
       </c>
@@ -2662,7 +2735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>44493</v>
       </c>
@@ -2670,7 +2743,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>44494</v>
       </c>
@@ -2678,7 +2751,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>44495</v>
       </c>
@@ -2686,7 +2759,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>44496</v>
       </c>
@@ -2694,7 +2767,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>44497</v>
       </c>
@@ -2702,7 +2775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>44498</v>
       </c>
@@ -2710,7 +2783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>44499</v>
       </c>
@@ -2718,7 +2791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>44500</v>
       </c>
@@ -2726,7 +2799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>44501</v>
       </c>
@@ -2734,7 +2807,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>44502</v>
       </c>
@@ -2742,7 +2815,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>44503</v>
       </c>
@@ -2750,7 +2823,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>44504</v>
       </c>
@@ -2758,7 +2831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>44505</v>
       </c>
@@ -2766,7 +2839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>44506</v>
       </c>
@@ -2774,7 +2847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>44507</v>
       </c>
@@ -2782,7 +2855,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>44508</v>
       </c>
@@ -2790,7 +2863,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>44509</v>
       </c>
@@ -2798,7 +2871,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>44510</v>
       </c>
@@ -2806,7 +2879,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>44511</v>
       </c>
@@ -2814,7 +2887,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>44512</v>
       </c>
@@ -2822,7 +2895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>44513</v>
       </c>
@@ -2830,7 +2903,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>44514</v>
       </c>
@@ -2838,7 +2911,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>44515</v>
       </c>
@@ -2846,7 +2919,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>44516</v>
       </c>
@@ -2854,7 +2927,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>44517</v>
       </c>
@@ -2862,7 +2935,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>44518</v>
       </c>
@@ -2870,7 +2943,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>44519</v>
       </c>
@@ -2878,7 +2951,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>44520</v>
       </c>
@@ -2886,7 +2959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>44521</v>
       </c>
@@ -2894,7 +2967,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>44522</v>
       </c>
@@ -2902,7 +2975,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>44523</v>
       </c>
@@ -2910,7 +2983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>44524</v>
       </c>
@@ -2918,7 +2991,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>44525</v>
       </c>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcxcl\Dropbox\2021XC\Calendar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgarnet0\Documents\GitHub\Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C2D109-74CB-4508-82FB-4BEEC1ADCE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F42025D-5CCC-45C8-BB6D-CC0490554B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1F97B90D-26B3-4DE4-ACCC-8E22994B6ECC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1F97B90D-26B3-4DE4-ACCC-8E22994B6ECC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="100">
   <si>
     <t>Date</t>
   </si>
@@ -320,6 +320,21 @@
   </si>
   <si>
     <t>&lt;a href="pracResults/prac.html#20210830" title="Go To Page"&gt;Practice&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>On your own</t>
+  </si>
+  <si>
+    <t>Park - Blue Barns</t>
+  </si>
+  <si>
+    <t>Back of Park</t>
+  </si>
+  <si>
+    <t>4:00pm</t>
+  </si>
+  <si>
+    <t>8:00am</t>
   </si>
 </sst>
 </file>
@@ -364,9 +379,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -683,20 +699,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC89124E-97CA-4317-8E8E-A3FBD6EF8403}">
   <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" customWidth="1"/>
-    <col min="3" max="3" width="29.26953125" customWidth="1"/>
-    <col min="4" max="4" width="23.7265625" customWidth="1"/>
-    <col min="5" max="5" width="16.1796875" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -716,7 +732,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44421</v>
       </c>
@@ -733,7 +749,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44421</v>
       </c>
@@ -747,7 +763,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44421</v>
       </c>
@@ -761,7 +777,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44421</v>
       </c>
@@ -775,7 +791,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44421</v>
       </c>
@@ -789,7 +805,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44421</v>
       </c>
@@ -803,7 +819,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44422</v>
       </c>
@@ -823,7 +839,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44422</v>
       </c>
@@ -837,7 +853,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44423</v>
       </c>
@@ -854,7 +870,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44423</v>
       </c>
@@ -868,7 +884,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44424</v>
       </c>
@@ -885,7 +901,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44424</v>
       </c>
@@ -899,7 +915,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44424</v>
       </c>
@@ -913,7 +929,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44425</v>
       </c>
@@ -930,7 +946,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44426</v>
       </c>
@@ -947,7 +963,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44427</v>
       </c>
@@ -964,7 +980,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44428</v>
       </c>
@@ -981,7 +997,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44429</v>
       </c>
@@ -998,7 +1014,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44430</v>
       </c>
@@ -1009,7 +1025,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44430</v>
       </c>
@@ -1026,7 +1042,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44431</v>
       </c>
@@ -1043,7 +1059,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44432</v>
       </c>
@@ -1060,7 +1076,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44433</v>
       </c>
@@ -1077,7 +1093,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44434</v>
       </c>
@@ -1094,7 +1110,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>44435</v>
       </c>
@@ -1111,7 +1127,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44436</v>
       </c>
@@ -1128,7 +1144,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>44437</v>
       </c>
@@ -1139,7 +1155,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>44438</v>
       </c>
@@ -1156,7 +1172,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>44438</v>
       </c>
@@ -1173,7 +1189,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>44439</v>
       </c>
@@ -1190,7 +1206,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>44440</v>
       </c>
@@ -1207,7 +1223,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>44441</v>
       </c>
@@ -1224,7 +1240,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>44441</v>
       </c>
@@ -1241,7 +1257,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>44442</v>
       </c>
@@ -1261,39 +1277,69 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>44443</v>
       </c>
       <c r="B36" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>44444</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>44445</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>44446</v>
       </c>
       <c r="B39" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" t="s">
+        <v>96</v>
+      </c>
+      <c r="E39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>44446</v>
       </c>
@@ -1310,79 +1356,154 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>44447</v>
       </c>
       <c r="B41" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>44448</v>
       </c>
       <c r="B42" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>44449</v>
       </c>
       <c r="B43" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" t="s">
+        <v>97</v>
+      </c>
+      <c r="E43" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44450</v>
       </c>
       <c r="B44" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C44" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44451</v>
       </c>
       <c r="B45" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C45" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44452</v>
       </c>
       <c r="B46" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C46" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44453</v>
       </c>
       <c r="B47" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C47" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>44454</v>
       </c>
       <c r="B48" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C48" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" t="s">
+        <v>89</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>44455</v>
       </c>
       <c r="B49" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C49" t="s">
+        <v>90</v>
+      </c>
+      <c r="D49" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>44456</v>
       </c>
@@ -1402,7 +1523,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>44457</v>
       </c>
@@ -1410,7 +1531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>44458</v>
       </c>
@@ -1418,15 +1539,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>44459</v>
       </c>
       <c r="B53" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>44460</v>
       </c>
@@ -1434,7 +1564,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>44461</v>
       </c>
@@ -1442,7 +1572,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>44462</v>
       </c>
@@ -1450,7 +1580,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>44463</v>
       </c>
@@ -1458,7 +1588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>44464</v>
       </c>
@@ -1466,7 +1596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>44465</v>
       </c>
@@ -1474,15 +1604,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>44466</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>44467</v>
       </c>
@@ -1490,7 +1629,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>44467</v>
       </c>
@@ -1507,7 +1646,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>44468</v>
       </c>
@@ -1515,7 +1654,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>44469</v>
       </c>
@@ -1523,7 +1662,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>44470</v>
       </c>
@@ -1531,7 +1670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>44471</v>
       </c>
@@ -1551,7 +1690,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>44472</v>
       </c>
@@ -1559,15 +1698,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>44473</v>
       </c>
       <c r="B68" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C68" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>44474</v>
       </c>
@@ -1575,7 +1723,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>44475</v>
       </c>
@@ -1583,7 +1731,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>44476</v>
       </c>
@@ -1591,7 +1739,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>44477</v>
       </c>
@@ -1611,7 +1759,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>44478</v>
       </c>
@@ -1619,7 +1767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>44479</v>
       </c>
@@ -1627,15 +1775,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>44480</v>
       </c>
       <c r="B75" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C75" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75" t="s">
+        <v>16</v>
+      </c>
+      <c r="E75" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>44481</v>
       </c>
@@ -1643,7 +1800,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>44482</v>
       </c>
@@ -1651,7 +1808,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>44483</v>
       </c>
@@ -1659,7 +1816,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>44484</v>
       </c>
@@ -1679,7 +1836,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>44485</v>
       </c>
@@ -1687,7 +1844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>44486</v>
       </c>
@@ -1695,15 +1852,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>44487</v>
       </c>
       <c r="B82" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C82" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82" t="s">
+        <v>16</v>
+      </c>
+      <c r="E82" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>44488</v>
       </c>
@@ -1711,7 +1877,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>44488</v>
       </c>
@@ -1728,7 +1894,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>44489</v>
       </c>
@@ -1736,7 +1902,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>44490</v>
       </c>
@@ -1744,7 +1910,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>44491</v>
       </c>
@@ -1752,7 +1918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>44492</v>
       </c>
@@ -1772,7 +1938,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>44493</v>
       </c>
@@ -1780,15 +1946,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>44494</v>
       </c>
       <c r="B90" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D90" t="s">
+        <v>16</v>
+      </c>
+      <c r="E90" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>44495</v>
       </c>
@@ -1796,7 +1971,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>44496</v>
       </c>
@@ -1804,7 +1979,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>44497</v>
       </c>
@@ -1812,7 +1987,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>44498</v>
       </c>
@@ -1820,7 +1995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>44499</v>
       </c>
@@ -1828,7 +2003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>44500</v>
       </c>
@@ -1836,7 +2011,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>44501</v>
       </c>
@@ -1844,7 +2019,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>44502</v>
       </c>
@@ -1852,7 +2027,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>44503</v>
       </c>
@@ -1860,7 +2035,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>44504</v>
       </c>
@@ -1868,7 +2043,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>44505</v>
       </c>
@@ -1876,7 +2051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>44506</v>
       </c>
@@ -1896,7 +2071,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>44507</v>
       </c>
@@ -1904,7 +2079,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>44508</v>
       </c>
@@ -1912,7 +2087,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>44509</v>
       </c>
@@ -1920,7 +2095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>44509</v>
       </c>
@@ -1937,7 +2112,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>44510</v>
       </c>
@@ -1945,7 +2120,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>44511</v>
       </c>
@@ -1953,7 +2128,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>44512</v>
       </c>
@@ -1961,7 +2136,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>44513</v>
       </c>
@@ -1969,7 +2144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>44514</v>
       </c>
@@ -1977,7 +2152,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>44515</v>
       </c>
@@ -1985,7 +2160,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>44516</v>
       </c>
@@ -1993,7 +2168,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>44517</v>
       </c>
@@ -2001,7 +2176,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>44518</v>
       </c>
@@ -2009,7 +2184,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>44519</v>
       </c>
@@ -2026,7 +2201,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>44520</v>
       </c>
@@ -2034,7 +2209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>44521</v>
       </c>
@@ -2042,7 +2217,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>44522</v>
       </c>
@@ -2050,7 +2225,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>44523</v>
       </c>
@@ -2058,7 +2233,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>44524</v>
       </c>
@@ -2066,7 +2241,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>44525</v>
       </c>
@@ -2074,7 +2249,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>44526</v>
       </c>
@@ -2082,7 +2257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>44527</v>
       </c>
@@ -2090,7 +2265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>44528</v>
       </c>
@@ -2098,7 +2273,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>44529</v>
       </c>
@@ -2106,7 +2281,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>44530</v>
       </c>
@@ -2138,16 +2313,16 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" customWidth="1"/>
-    <col min="3" max="3" width="29.26953125" customWidth="1"/>
-    <col min="4" max="4" width="23.7265625" customWidth="1"/>
-    <col min="5" max="5" width="16.1796875" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2167,7 +2342,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44426</v>
       </c>
@@ -2178,7 +2353,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44427</v>
       </c>
@@ -2186,7 +2361,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44428</v>
       </c>
@@ -2194,7 +2369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44429</v>
       </c>
@@ -2205,7 +2380,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44430</v>
       </c>
@@ -2222,7 +2397,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44431</v>
       </c>
@@ -2239,7 +2414,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44431</v>
       </c>
@@ -2247,7 +2422,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44432</v>
       </c>
@@ -2255,7 +2430,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44433</v>
       </c>
@@ -2263,7 +2438,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44434</v>
       </c>
@@ -2271,7 +2446,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44435</v>
       </c>
@@ -2279,7 +2454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44436</v>
       </c>
@@ -2287,7 +2462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44437</v>
       </c>
@@ -2295,7 +2470,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44438</v>
       </c>
@@ -2303,7 +2478,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44439</v>
       </c>
@@ -2311,7 +2486,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44440</v>
       </c>
@@ -2319,7 +2494,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44441</v>
       </c>
@@ -2327,7 +2502,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44442</v>
       </c>
@@ -2335,7 +2510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44443</v>
       </c>
@@ -2343,7 +2518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44444</v>
       </c>
@@ -2351,7 +2526,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44445</v>
       </c>
@@ -2359,7 +2534,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44446</v>
       </c>
@@ -2367,7 +2542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44447</v>
       </c>
@@ -2375,7 +2550,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44448</v>
       </c>
@@ -2383,7 +2558,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>44449</v>
       </c>
@@ -2391,7 +2566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44450</v>
       </c>
@@ -2399,7 +2574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>44451</v>
       </c>
@@ -2407,7 +2582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>44452</v>
       </c>
@@ -2415,7 +2590,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>44453</v>
       </c>
@@ -2423,7 +2598,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>44454</v>
       </c>
@@ -2431,7 +2606,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>44455</v>
       </c>
@@ -2439,7 +2614,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>44456</v>
       </c>
@@ -2447,7 +2622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>44457</v>
       </c>
@@ -2455,7 +2630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>44458</v>
       </c>
@@ -2463,7 +2638,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>44459</v>
       </c>
@@ -2471,7 +2646,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>44460</v>
       </c>
@@ -2479,7 +2654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>44461</v>
       </c>
@@ -2487,7 +2662,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>44462</v>
       </c>
@@ -2495,7 +2670,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>44463</v>
       </c>
@@ -2503,7 +2678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>44464</v>
       </c>
@@ -2511,7 +2686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>44465</v>
       </c>
@@ -2519,7 +2694,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>44466</v>
       </c>
@@ -2527,7 +2702,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44467</v>
       </c>
@@ -2535,7 +2710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44468</v>
       </c>
@@ -2543,7 +2718,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44469</v>
       </c>
@@ -2551,7 +2726,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44470</v>
       </c>
@@ -2559,7 +2734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>44471</v>
       </c>
@@ -2567,7 +2742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>44472</v>
       </c>
@@ -2575,7 +2750,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>44473</v>
       </c>
@@ -2583,7 +2758,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>44474</v>
       </c>
@@ -2591,7 +2766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>44475</v>
       </c>
@@ -2599,7 +2774,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>44476</v>
       </c>
@@ -2607,7 +2782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>44477</v>
       </c>
@@ -2615,7 +2790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>44478</v>
       </c>
@@ -2623,7 +2798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>44479</v>
       </c>
@@ -2631,7 +2806,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>44480</v>
       </c>
@@ -2639,7 +2814,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>44481</v>
       </c>
@@ -2647,7 +2822,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>44482</v>
       </c>
@@ -2655,7 +2830,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>44483</v>
       </c>
@@ -2663,7 +2838,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>44484</v>
       </c>
@@ -2671,7 +2846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>44485</v>
       </c>
@@ -2679,7 +2854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>44486</v>
       </c>
@@ -2687,7 +2862,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>44487</v>
       </c>
@@ -2695,7 +2870,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>44488</v>
       </c>
@@ -2703,7 +2878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>44489</v>
       </c>
@@ -2711,7 +2886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>44490</v>
       </c>
@@ -2719,7 +2894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>44491</v>
       </c>
@@ -2727,7 +2902,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>44492</v>
       </c>
@@ -2735,7 +2910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>44493</v>
       </c>
@@ -2743,7 +2918,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>44494</v>
       </c>
@@ -2751,7 +2926,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>44495</v>
       </c>
@@ -2759,7 +2934,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>44496</v>
       </c>
@@ -2767,7 +2942,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>44497</v>
       </c>
@@ -2775,7 +2950,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>44498</v>
       </c>
@@ -2783,7 +2958,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>44499</v>
       </c>
@@ -2791,7 +2966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>44500</v>
       </c>
@@ -2799,7 +2974,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>44501</v>
       </c>
@@ -2807,7 +2982,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>44502</v>
       </c>
@@ -2815,7 +2990,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>44503</v>
       </c>
@@ -2823,7 +2998,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>44504</v>
       </c>
@@ -2831,7 +3006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>44505</v>
       </c>
@@ -2839,7 +3014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>44506</v>
       </c>
@@ -2847,7 +3022,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>44507</v>
       </c>
@@ -2855,7 +3030,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>44508</v>
       </c>
@@ -2863,7 +3038,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>44509</v>
       </c>
@@ -2871,7 +3046,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>44510</v>
       </c>
@@ -2879,7 +3054,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>44511</v>
       </c>
@@ -2887,7 +3062,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>44512</v>
       </c>
@@ -2895,7 +3070,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>44513</v>
       </c>
@@ -2903,7 +3078,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>44514</v>
       </c>
@@ -2911,7 +3086,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>44515</v>
       </c>
@@ -2919,7 +3094,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>44516</v>
       </c>
@@ -2927,7 +3102,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>44517</v>
       </c>
@@ -2935,7 +3110,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>44518</v>
       </c>
@@ -2943,7 +3118,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>44519</v>
       </c>
@@ -2951,7 +3126,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>44520</v>
       </c>
@@ -2959,7 +3134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>44521</v>
       </c>
@@ -2967,7 +3142,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>44522</v>
       </c>
@@ -2975,7 +3150,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>44523</v>
       </c>
@@ -2983,7 +3158,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>44524</v>
       </c>
@@ -2991,7 +3166,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>44525</v>
       </c>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgarnet0\Documents\GitHub\Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F42025D-5CCC-45C8-BB6D-CC0490554B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEABDD0-6FE9-455F-AF0C-1C0AD9B2E466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1F97B90D-26B3-4DE4-ACCC-8E22994B6ECC}"/>
   </bookViews>
@@ -229,9 +229,6 @@
     <t>8pm</t>
   </si>
   <si>
-    <t>&lt;a href="MSCInfo.html" title="Go To Page"&gt;Mid-South Conference Championships&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>&lt;a href="AsburyInfo.html" title="Go To Page"&gt;Asbury Invitational&lt;/a&gt;</t>
   </si>
   <si>
@@ -335,6 +332,9 @@
   </si>
   <si>
     <t>8:00am</t>
+  </si>
+  <si>
+    <t>&lt;a href="MSCinfo.html" title="Go To Page"&gt;Mid-South Conference Championships&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -699,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC89124E-97CA-4317-8E8E-A3FBD6EF8403}">
   <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,13 +782,13 @@
         <v>44421</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
         <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -827,7 +827,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -878,7 +878,7 @@
         <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E11" t="s">
         <v>29</v>
@@ -912,7 +912,7 @@
         <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -923,7 +923,7 @@
         <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E14" t="s">
         <v>37</v>
@@ -974,7 +974,7 @@
         <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E17" t="s">
         <v>18</v>
@@ -1033,13 +1033,13 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" t="s">
         <v>76</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>77</v>
-      </c>
-      <c r="E21" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1053,10 +1053,10 @@
         <v>39</v>
       </c>
       <c r="D22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1073,7 +1073,7 @@
         <v>61</v>
       </c>
       <c r="E23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1090,7 +1090,7 @@
         <v>61</v>
       </c>
       <c r="E24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1101,13 +1101,13 @@
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1124,7 +1124,7 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1135,7 +1135,7 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" t="s">
         <v>14</v>
@@ -1163,13 +1163,13 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D29" t="s">
         <v>16</v>
       </c>
       <c r="E29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1180,13 +1180,13 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" t="s">
         <v>91</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>92</v>
-      </c>
-      <c r="E30" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1203,7 +1203,7 @@
         <v>61</v>
       </c>
       <c r="E31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1217,10 +1217,10 @@
         <v>17</v>
       </c>
       <c r="D32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1234,10 +1234,10 @@
         <v>17</v>
       </c>
       <c r="D33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1251,7 +1251,7 @@
         <v>26</v>
       </c>
       <c r="D34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E34" t="s">
         <v>46</v>
@@ -1265,13 +1265,13 @@
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D35" t="s">
         <v>13</v>
       </c>
       <c r="E35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F35" t="s">
         <v>42</v>
@@ -1288,7 +1288,7 @@
         <v>19</v>
       </c>
       <c r="D36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1302,7 +1302,7 @@
         <v>20</v>
       </c>
       <c r="D37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1319,7 +1319,7 @@
         <v>61</v>
       </c>
       <c r="E38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1333,10 +1333,10 @@
         <v>17</v>
       </c>
       <c r="D39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1347,13 +1347,13 @@
         <v>8</v>
       </c>
       <c r="C40" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" t="s">
         <v>76</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>77</v>
-      </c>
-      <c r="E40" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1370,7 +1370,7 @@
         <v>25</v>
       </c>
       <c r="E41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1387,7 +1387,7 @@
         <v>25</v>
       </c>
       <c r="E42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1401,10 +1401,10 @@
         <v>17</v>
       </c>
       <c r="D43" t="s">
+        <v>96</v>
+      </c>
+      <c r="E43" t="s">
         <v>97</v>
-      </c>
-      <c r="E43" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1415,13 +1415,13 @@
         <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D44" t="s">
         <v>14</v>
       </c>
       <c r="E44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1449,7 +1449,7 @@
         <v>16</v>
       </c>
       <c r="E46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1466,7 +1466,7 @@
         <v>25</v>
       </c>
       <c r="E47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1480,10 +1480,10 @@
         <v>17</v>
       </c>
       <c r="D48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1494,13 +1494,13 @@
         <v>10</v>
       </c>
       <c r="C49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D49" t="s">
         <v>25</v>
       </c>
       <c r="E49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1511,7 +1511,7 @@
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D50" t="s">
         <v>40</v>
@@ -1553,7 +1553,7 @@
         <v>16</v>
       </c>
       <c r="E53" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1618,7 +1618,7 @@
         <v>16</v>
       </c>
       <c r="E60" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -1637,13 +1637,13 @@
         <v>8</v>
       </c>
       <c r="C62" t="s">
+        <v>75</v>
+      </c>
+      <c r="D62" t="s">
         <v>76</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>77</v>
-      </c>
-      <c r="E62" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -1678,7 +1678,7 @@
         <v>5</v>
       </c>
       <c r="C66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D66" t="s">
         <v>15</v>
@@ -1712,7 +1712,7 @@
         <v>16</v>
       </c>
       <c r="E68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -1747,7 +1747,7 @@
         <v>4</v>
       </c>
       <c r="C72" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D72" t="s">
         <v>41</v>
@@ -1789,7 +1789,7 @@
         <v>16</v>
       </c>
       <c r="E75" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -1824,7 +1824,7 @@
         <v>4</v>
       </c>
       <c r="C79" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D79" t="s">
         <v>36</v>
@@ -1866,7 +1866,7 @@
         <v>16</v>
       </c>
       <c r="E82" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -1885,13 +1885,13 @@
         <v>8</v>
       </c>
       <c r="C84" t="s">
+        <v>75</v>
+      </c>
+      <c r="D84" t="s">
         <v>76</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>77</v>
-      </c>
-      <c r="E84" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -1926,13 +1926,13 @@
         <v>5</v>
       </c>
       <c r="C88" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D88" t="s">
         <v>38</v>
       </c>
       <c r="E88" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F88" t="s">
         <v>42</v>
@@ -1960,7 +1960,7 @@
         <v>16</v>
       </c>
       <c r="E90" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -2059,7 +2059,7 @@
         <v>5</v>
       </c>
       <c r="C102" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="D102" t="s">
         <v>40</v>
@@ -2103,13 +2103,13 @@
         <v>8</v>
       </c>
       <c r="C106" t="s">
+        <v>75</v>
+      </c>
+      <c r="D106" t="s">
         <v>76</v>
       </c>
-      <c r="D106" t="s">
+      <c r="E106" t="s">
         <v>77</v>
-      </c>
-      <c r="E106" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -2289,13 +2289,13 @@
         <v>8</v>
       </c>
       <c r="C127" t="s">
+        <v>75</v>
+      </c>
+      <c r="D127" t="s">
         <v>76</v>
       </c>
-      <c r="D127" t="s">
+      <c r="E127" t="s">
         <v>77</v>
-      </c>
-      <c r="E127" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgarnet0\Documents\GitHub\Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEABDD0-6FE9-455F-AF0C-1C0AD9B2E466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF524304-3203-470D-9154-7C350162A97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1F97B90D-26B3-4DE4-ACCC-8E22994B6ECC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="104">
   <si>
     <t>Date</t>
   </si>
@@ -335,6 +335,18 @@
   </si>
   <si>
     <t>&lt;a href="MSCinfo.html" title="Go To Page"&gt;Mid-South Conference Championships&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>9:00am</t>
+  </si>
+  <si>
+    <t>3:15pm</t>
+  </si>
+  <si>
+    <t>On Own</t>
+  </si>
+  <si>
+    <t>PRE MEET</t>
   </si>
 </sst>
 </file>
@@ -699,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC89124E-97CA-4317-8E8E-A3FBD6EF8403}">
   <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1024,6 +1036,9 @@
       <c r="C20" t="s">
         <v>19</v>
       </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -1154,6 +1169,9 @@
       <c r="C28" t="s">
         <v>23</v>
       </c>
+      <c r="E28" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -1290,6 +1308,9 @@
       <c r="D36" t="s">
         <v>94</v>
       </c>
+      <c r="E36" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
@@ -1304,6 +1325,9 @@
       <c r="D37" t="s">
         <v>94</v>
       </c>
+      <c r="E37" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
@@ -1530,6 +1554,9 @@
       <c r="B51" t="s">
         <v>5</v>
       </c>
+      <c r="E51" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
@@ -1538,6 +1565,9 @@
       <c r="B52" t="s">
         <v>6</v>
       </c>
+      <c r="E52" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
@@ -1563,6 +1593,9 @@
       <c r="B54" t="s">
         <v>8</v>
       </c>
+      <c r="E54" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
@@ -1571,6 +1604,9 @@
       <c r="B55" t="s">
         <v>9</v>
       </c>
+      <c r="E55" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
@@ -1579,6 +1615,9 @@
       <c r="B56" t="s">
         <v>10</v>
       </c>
+      <c r="E56" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
@@ -1587,6 +1626,9 @@
       <c r="B57" t="s">
         <v>4</v>
       </c>
+      <c r="E57" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
@@ -1595,6 +1637,9 @@
       <c r="B58" t="s">
         <v>5</v>
       </c>
+      <c r="E58" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
@@ -1603,6 +1648,9 @@
       <c r="B59" t="s">
         <v>6</v>
       </c>
+      <c r="E59" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
@@ -1628,6 +1676,9 @@
       <c r="B61" t="s">
         <v>8</v>
       </c>
+      <c r="E61" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
@@ -1653,6 +1704,9 @@
       <c r="B63" t="s">
         <v>9</v>
       </c>
+      <c r="E63" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
@@ -1661,6 +1715,9 @@
       <c r="B64" t="s">
         <v>10</v>
       </c>
+      <c r="E64" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
@@ -1669,6 +1726,9 @@
       <c r="B65" t="s">
         <v>4</v>
       </c>
+      <c r="E65" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
@@ -1697,6 +1757,9 @@
       <c r="B67" t="s">
         <v>6</v>
       </c>
+      <c r="E67" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
@@ -1722,6 +1785,9 @@
       <c r="B69" t="s">
         <v>8</v>
       </c>
+      <c r="E69" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
@@ -1730,6 +1796,9 @@
       <c r="B70" t="s">
         <v>9</v>
       </c>
+      <c r="E70" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
@@ -1738,6 +1807,9 @@
       <c r="B71" t="s">
         <v>10</v>
       </c>
+      <c r="E71" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
@@ -1766,6 +1838,9 @@
       <c r="B73" t="s">
         <v>5</v>
       </c>
+      <c r="E73" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
@@ -1774,6 +1849,9 @@
       <c r="B74" t="s">
         <v>6</v>
       </c>
+      <c r="E74" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
@@ -1799,6 +1877,9 @@
       <c r="B76" t="s">
         <v>8</v>
       </c>
+      <c r="E76" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
@@ -1807,6 +1888,9 @@
       <c r="B77" t="s">
         <v>9</v>
       </c>
+      <c r="E77" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
@@ -1815,6 +1899,9 @@
       <c r="B78" t="s">
         <v>10</v>
       </c>
+      <c r="E78" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
@@ -1843,6 +1930,9 @@
       <c r="B80" t="s">
         <v>5</v>
       </c>
+      <c r="E80" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
@@ -1851,6 +1941,9 @@
       <c r="B81" t="s">
         <v>6</v>
       </c>
+      <c r="E81" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
@@ -1876,6 +1969,9 @@
       <c r="B83" t="s">
         <v>8</v>
       </c>
+      <c r="E83" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
@@ -1901,6 +1997,9 @@
       <c r="B85" t="s">
         <v>9</v>
       </c>
+      <c r="E85" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
@@ -1909,6 +2008,9 @@
       <c r="B86" t="s">
         <v>10</v>
       </c>
+      <c r="E86" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
@@ -1917,6 +2019,9 @@
       <c r="B87" t="s">
         <v>4</v>
       </c>
+      <c r="E87" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
@@ -1945,6 +2050,9 @@
       <c r="B89" t="s">
         <v>6</v>
       </c>
+      <c r="E89" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
@@ -1970,6 +2078,9 @@
       <c r="B91" t="s">
         <v>8</v>
       </c>
+      <c r="E91" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
@@ -1978,6 +2089,9 @@
       <c r="B92" t="s">
         <v>9</v>
       </c>
+      <c r="E92" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
@@ -1986,6 +2100,9 @@
       <c r="B93" t="s">
         <v>10</v>
       </c>
+      <c r="E93" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
@@ -1994,6 +2111,9 @@
       <c r="B94" t="s">
         <v>4</v>
       </c>
+      <c r="E94" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
@@ -2002,6 +2122,9 @@
       <c r="B95" t="s">
         <v>5</v>
       </c>
+      <c r="E95" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
@@ -2010,6 +2133,9 @@
       <c r="B96" t="s">
         <v>6</v>
       </c>
+      <c r="E96" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
@@ -2018,6 +2144,9 @@
       <c r="B97" t="s">
         <v>7</v>
       </c>
+      <c r="E97" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
@@ -2026,6 +2155,9 @@
       <c r="B98" t="s">
         <v>8</v>
       </c>
+      <c r="E98" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
@@ -2034,6 +2166,9 @@
       <c r="B99" t="s">
         <v>9</v>
       </c>
+      <c r="E99" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
@@ -2042,6 +2177,9 @@
       <c r="B100" t="s">
         <v>10</v>
       </c>
+      <c r="E100" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
@@ -2050,6 +2188,15 @@
       <c r="B101" t="s">
         <v>4</v>
       </c>
+      <c r="C101" t="s">
+        <v>103</v>
+      </c>
+      <c r="D101" t="s">
+        <v>40</v>
+      </c>
+      <c r="E101" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
@@ -2077,6 +2224,9 @@
       </c>
       <c r="B103" t="s">
         <v>6</v>
+      </c>
+      <c r="E103" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgarnet0\Documents\GitHub\Calendar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcxcl\Dropbox\2021XC\Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF524304-3203-470D-9154-7C350162A97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828F5E45-3AD6-4271-B231-AEBB4774CFDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1F97B90D-26B3-4DE4-ACCC-8E22994B6ECC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{1F97B90D-26B3-4DE4-ACCC-8E22994B6ECC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="122">
   <si>
     <t>Date</t>
   </si>
@@ -169,33 +169,9 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Physicals: Team Physician Check Up (New Athletes ONLY)</t>
-  </si>
-  <si>
-    <t>2:00pm-6:00pm</t>
-  </si>
-  <si>
     <t>6:00pm</t>
   </si>
   <si>
-    <t>Main Campus Training Room (Alumni Gym)</t>
-  </si>
-  <si>
-    <t>East Campus Conference Center</t>
-  </si>
-  <si>
-    <t>First Day Of Classes</t>
-  </si>
-  <si>
-    <t>Frehmen Move-In</t>
-  </si>
-  <si>
-    <t>Returning Student Move-In</t>
-  </si>
-  <si>
-    <t>Physcials Check in / Paperwork (Everyone Who has not had a physical)</t>
-  </si>
-  <si>
     <t>Photo Day</t>
   </si>
   <si>
@@ -347,6 +323,84 @@
   </si>
   <si>
     <t>PRE MEET</t>
+  </si>
+  <si>
+    <t>Lexington, KY</t>
+  </si>
+  <si>
+    <t>Montreat, NC</t>
+  </si>
+  <si>
+    <t>Williamsburg, KY</t>
+  </si>
+  <si>
+    <t>MSC Championships</t>
+  </si>
+  <si>
+    <t>NAIA Nationals</t>
+  </si>
+  <si>
+    <t>Gulf Shores, AL</t>
+  </si>
+  <si>
+    <t>Lee University Last Chance</t>
+  </si>
+  <si>
+    <t>Cleveland, OH</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Spring Break Begins</t>
+  </si>
+  <si>
+    <t>Spring Break Ends</t>
+  </si>
+  <si>
+    <t>Spring Break</t>
+  </si>
+  <si>
+    <t>Finals</t>
+  </si>
+  <si>
+    <t>MSC Championships / Finals</t>
+  </si>
+  <si>
+    <t>Graduation</t>
+  </si>
+  <si>
+    <t>Brescia Invitational / Good Friday - No Classes</t>
+  </si>
+  <si>
+    <t>Easter</t>
+  </si>
+  <si>
+    <t>Last Day of Classes</t>
+  </si>
+  <si>
+    <t>Jav and 10k ONLY</t>
+  </si>
+  <si>
+    <t>All Other Events</t>
+  </si>
+  <si>
+    <t>1500m and up</t>
+  </si>
+  <si>
+    <t>800m and down</t>
+  </si>
+  <si>
+    <t>&lt;a href="MontreatInfo.html" title="Go To Page"&gt;Montreat Invitational&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="TransyInfo.html" title="Go To Page"&gt;Transylvania Invitational&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="LBInfo.html" title="Go To Page"&gt;Landon Bond Invitational&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="UCInfo.html" title="Go To Page"&gt;Cumberlands Invitational&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -391,10 +445,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -711,20 +767,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC89124E-97CA-4317-8E8E-A3FBD6EF8403}">
   <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" customWidth="1"/>
+    <col min="3" max="3" width="29.26953125" customWidth="1"/>
+    <col min="4" max="4" width="23.7265625" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -744,7 +800,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>44421</v>
       </c>
@@ -755,55 +811,55 @@
         <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>44421</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>44421</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>44421</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>44421</v>
       </c>
@@ -817,7 +873,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>44421</v>
       </c>
@@ -825,13 +881,13 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>44422</v>
       </c>
@@ -839,7 +895,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -851,7 +907,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>44422</v>
       </c>
@@ -865,7 +921,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>44423</v>
       </c>
@@ -876,13 +932,13 @@
         <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>44423</v>
       </c>
@@ -890,13 +946,13 @@
         <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>44424</v>
       </c>
@@ -913,7 +969,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>44424</v>
       </c>
@@ -924,24 +980,24 @@
         <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>44424</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>44425</v>
       </c>
@@ -958,7 +1014,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>44426</v>
       </c>
@@ -975,7 +1031,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>44427</v>
       </c>
@@ -986,13 +1042,13 @@
         <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>44428</v>
       </c>
@@ -1009,7 +1065,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>44429</v>
       </c>
@@ -1026,7 +1082,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>44430</v>
       </c>
@@ -1040,7 +1096,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>44430</v>
       </c>
@@ -1048,16 +1104,16 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>44431</v>
       </c>
@@ -1068,13 +1124,13 @@
         <v>39</v>
       </c>
       <c r="D22" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E22" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>44432</v>
       </c>
@@ -1085,13 +1141,13 @@
         <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E23" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>44433</v>
       </c>
@@ -1102,13 +1158,13 @@
         <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>44434</v>
       </c>
@@ -1116,16 +1172,16 @@
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D25" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E25" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>44435</v>
       </c>
@@ -1139,10 +1195,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>44436</v>
       </c>
@@ -1150,7 +1206,7 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D27" t="s">
         <v>14</v>
@@ -1159,7 +1215,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>44437</v>
       </c>
@@ -1173,7 +1229,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>44438</v>
       </c>
@@ -1181,16 +1237,16 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D29" t="s">
         <v>16</v>
       </c>
       <c r="E29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>44438</v>
       </c>
@@ -1198,16 +1254,16 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D30" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E30" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>44439</v>
       </c>
@@ -1218,13 +1274,13 @@
         <v>17</v>
       </c>
       <c r="D31" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E31" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>44440</v>
       </c>
@@ -1235,13 +1291,13 @@
         <v>17</v>
       </c>
       <c r="D32" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E32" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>44441</v>
       </c>
@@ -1252,13 +1308,13 @@
         <v>17</v>
       </c>
       <c r="D33" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E33" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>44441</v>
       </c>
@@ -1269,13 +1325,13 @@
         <v>26</v>
       </c>
       <c r="D34" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>44442</v>
       </c>
@@ -1283,19 +1339,19 @@
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D35" t="s">
         <v>13</v>
       </c>
       <c r="E35" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F35" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>44443</v>
       </c>
@@ -1306,13 +1362,13 @@
         <v>19</v>
       </c>
       <c r="D36" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E36" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>44444</v>
       </c>
@@ -1323,13 +1379,13 @@
         <v>20</v>
       </c>
       <c r="D37" t="s">
+        <v>86</v>
+      </c>
+      <c r="E37" t="s">
         <v>94</v>
       </c>
-      <c r="E37" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>44445</v>
       </c>
@@ -1340,13 +1396,13 @@
         <v>17</v>
       </c>
       <c r="D38" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E38" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>44446</v>
       </c>
@@ -1357,13 +1413,13 @@
         <v>17</v>
       </c>
       <c r="D39" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E39" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>44446</v>
       </c>
@@ -1371,16 +1427,16 @@
         <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D40" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E40" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>44447</v>
       </c>
@@ -1394,10 +1450,10 @@
         <v>25</v>
       </c>
       <c r="E41" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>44448</v>
       </c>
@@ -1411,10 +1467,10 @@
         <v>25</v>
       </c>
       <c r="E42" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>44449</v>
       </c>
@@ -1425,13 +1481,13 @@
         <v>17</v>
       </c>
       <c r="D43" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E43" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>44450</v>
       </c>
@@ -1439,16 +1495,16 @@
         <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D44" t="s">
         <v>14</v>
       </c>
       <c r="E44" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>44451</v>
       </c>
@@ -1459,7 +1515,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>44452</v>
       </c>
@@ -1473,10 +1529,10 @@
         <v>16</v>
       </c>
       <c r="E46" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>44453</v>
       </c>
@@ -1490,10 +1546,10 @@
         <v>25</v>
       </c>
       <c r="E47" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>44454</v>
       </c>
@@ -1504,13 +1560,13 @@
         <v>17</v>
       </c>
       <c r="D48" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>44455</v>
       </c>
@@ -1518,16 +1574,16 @@
         <v>10</v>
       </c>
       <c r="C49" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D49" t="s">
         <v>25</v>
       </c>
       <c r="E49" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>44456</v>
       </c>
@@ -1535,19 +1591,19 @@
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D50" t="s">
         <v>40</v>
       </c>
       <c r="E50" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F50" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>44457</v>
       </c>
@@ -1555,10 +1611,10 @@
         <v>5</v>
       </c>
       <c r="E51" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>44458</v>
       </c>
@@ -1569,7 +1625,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>44459</v>
       </c>
@@ -1583,10 +1639,10 @@
         <v>16</v>
       </c>
       <c r="E53" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>44460</v>
       </c>
@@ -1594,10 +1650,10 @@
         <v>8</v>
       </c>
       <c r="E54" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>44461</v>
       </c>
@@ -1605,10 +1661,10 @@
         <v>9</v>
       </c>
       <c r="E55" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>44462</v>
       </c>
@@ -1616,10 +1672,10 @@
         <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>44463</v>
       </c>
@@ -1627,10 +1683,10 @@
         <v>4</v>
       </c>
       <c r="E57" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>44464</v>
       </c>
@@ -1638,10 +1694,10 @@
         <v>5</v>
       </c>
       <c r="E58" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>44465</v>
       </c>
@@ -1652,7 +1708,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>44466</v>
       </c>
@@ -1666,10 +1722,10 @@
         <v>16</v>
       </c>
       <c r="E60" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>44467</v>
       </c>
@@ -1677,10 +1733,10 @@
         <v>8</v>
       </c>
       <c r="E61" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>44467</v>
       </c>
@@ -1688,16 +1744,16 @@
         <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D62" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E62" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>44468</v>
       </c>
@@ -1705,10 +1761,10 @@
         <v>9</v>
       </c>
       <c r="E63" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>44469</v>
       </c>
@@ -1716,10 +1772,10 @@
         <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>44470</v>
       </c>
@@ -1727,10 +1783,10 @@
         <v>4</v>
       </c>
       <c r="E65" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>44471</v>
       </c>
@@ -1738,7 +1794,7 @@
         <v>5</v>
       </c>
       <c r="C66" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D66" t="s">
         <v>15</v>
@@ -1750,7 +1806,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>44472</v>
       </c>
@@ -1761,7 +1817,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>44473</v>
       </c>
@@ -1775,10 +1831,10 @@
         <v>16</v>
       </c>
       <c r="E68" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>44474</v>
       </c>
@@ -1786,10 +1842,10 @@
         <v>8</v>
       </c>
       <c r="E69" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>44475</v>
       </c>
@@ -1797,10 +1853,10 @@
         <v>9</v>
       </c>
       <c r="E70" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>44476</v>
       </c>
@@ -1808,10 +1864,10 @@
         <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>44477</v>
       </c>
@@ -1819,19 +1875,19 @@
         <v>4</v>
       </c>
       <c r="C72" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D72" t="s">
         <v>41</v>
       </c>
       <c r="E72" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F72" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>44478</v>
       </c>
@@ -1839,10 +1895,10 @@
         <v>5</v>
       </c>
       <c r="E73" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>44479</v>
       </c>
@@ -1853,7 +1909,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>44480</v>
       </c>
@@ -1867,10 +1923,10 @@
         <v>16</v>
       </c>
       <c r="E75" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>44481</v>
       </c>
@@ -1878,10 +1934,10 @@
         <v>8</v>
       </c>
       <c r="E76" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>44482</v>
       </c>
@@ -1889,10 +1945,10 @@
         <v>9</v>
       </c>
       <c r="E77" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>44483</v>
       </c>
@@ -1900,10 +1956,10 @@
         <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>44484</v>
       </c>
@@ -1911,7 +1967,7 @@
         <v>4</v>
       </c>
       <c r="C79" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D79" t="s">
         <v>36</v>
@@ -1923,7 +1979,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>44485</v>
       </c>
@@ -1931,10 +1987,10 @@
         <v>5</v>
       </c>
       <c r="E80" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>44486</v>
       </c>
@@ -1945,7 +2001,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>44487</v>
       </c>
@@ -1959,10 +2015,10 @@
         <v>16</v>
       </c>
       <c r="E82" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>44488</v>
       </c>
@@ -1970,10 +2026,10 @@
         <v>8</v>
       </c>
       <c r="E83" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>44488</v>
       </c>
@@ -1981,16 +2037,16 @@
         <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D84" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E84" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>44489</v>
       </c>
@@ -1998,10 +2054,10 @@
         <v>9</v>
       </c>
       <c r="E85" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>44490</v>
       </c>
@@ -2009,10 +2065,10 @@
         <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>44491</v>
       </c>
@@ -2020,10 +2076,10 @@
         <v>4</v>
       </c>
       <c r="E87" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>44492</v>
       </c>
@@ -2031,19 +2087,19 @@
         <v>5</v>
       </c>
       <c r="C88" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D88" t="s">
         <v>38</v>
       </c>
       <c r="E88" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F88" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>44493</v>
       </c>
@@ -2054,7 +2110,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>44494</v>
       </c>
@@ -2068,10 +2124,10 @@
         <v>16</v>
       </c>
       <c r="E90" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>44495</v>
       </c>
@@ -2079,10 +2135,10 @@
         <v>8</v>
       </c>
       <c r="E91" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>44496</v>
       </c>
@@ -2090,10 +2146,10 @@
         <v>9</v>
       </c>
       <c r="E92" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>44497</v>
       </c>
@@ -2101,10 +2157,10 @@
         <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>44498</v>
       </c>
@@ -2112,10 +2168,10 @@
         <v>4</v>
       </c>
       <c r="E94" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>44499</v>
       </c>
@@ -2123,10 +2179,10 @@
         <v>5</v>
       </c>
       <c r="E95" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>44500</v>
       </c>
@@ -2137,7 +2193,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>44501</v>
       </c>
@@ -2145,10 +2201,10 @@
         <v>7</v>
       </c>
       <c r="E97" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>44502</v>
       </c>
@@ -2156,10 +2212,10 @@
         <v>8</v>
       </c>
       <c r="E98" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>44503</v>
       </c>
@@ -2167,10 +2223,10 @@
         <v>9</v>
       </c>
       <c r="E99" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>44504</v>
       </c>
@@ -2178,10 +2234,10 @@
         <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>44505</v>
       </c>
@@ -2189,7 +2245,7 @@
         <v>4</v>
       </c>
       <c r="C101" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D101" t="s">
         <v>40</v>
@@ -2198,7 +2254,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>44506</v>
       </c>
@@ -2206,7 +2262,7 @@
         <v>5</v>
       </c>
       <c r="C102" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D102" t="s">
         <v>40</v>
@@ -2218,7 +2274,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>44507</v>
       </c>
@@ -2229,7 +2285,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>44508</v>
       </c>
@@ -2237,7 +2293,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>44509</v>
       </c>
@@ -2245,7 +2301,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>44509</v>
       </c>
@@ -2253,16 +2309,16 @@
         <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D106" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E106" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>44510</v>
       </c>
@@ -2270,7 +2326,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>44511</v>
       </c>
@@ -2278,7 +2334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>44512</v>
       </c>
@@ -2286,7 +2342,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>44513</v>
       </c>
@@ -2294,7 +2350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>44514</v>
       </c>
@@ -2302,7 +2358,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>44515</v>
       </c>
@@ -2310,7 +2366,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>44516</v>
       </c>
@@ -2318,7 +2374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>44517</v>
       </c>
@@ -2326,7 +2382,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>44518</v>
       </c>
@@ -2334,7 +2390,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>44519</v>
       </c>
@@ -2351,7 +2407,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>44520</v>
       </c>
@@ -2359,7 +2415,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>44521</v>
       </c>
@@ -2367,7 +2423,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>44522</v>
       </c>
@@ -2375,7 +2431,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>44523</v>
       </c>
@@ -2383,7 +2439,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>44524</v>
       </c>
@@ -2391,7 +2447,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>44525</v>
       </c>
@@ -2399,7 +2455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>44526</v>
       </c>
@@ -2407,7 +2463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>44527</v>
       </c>
@@ -2415,7 +2471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>44528</v>
       </c>
@@ -2423,7 +2479,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>44529</v>
       </c>
@@ -2431,7 +2487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>44530</v>
       </c>
@@ -2439,13 +2495,13 @@
         <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D127" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E127" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2457,22 +2513,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883D8E59-CB80-4D96-BB0B-8467B07800EC}">
-  <dimension ref="A1:F102"/>
+  <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" customWidth="1"/>
+    <col min="3" max="3" width="29.26953125" customWidth="1"/>
+    <col min="4" max="4" width="23.7265625" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2491,840 +2547,1078 @@
       <c r="F1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>44426</v>
+        <v>44613</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>44614</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>44615</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>44427</v>
-      </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>44616</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>44428</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>44617</v>
+      </c>
+      <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>44429</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>44618</v>
+      </c>
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>44430</v>
-      </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>44619</v>
+      </c>
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>44431</v>
-      </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>44620</v>
+      </c>
+      <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>44431</v>
-      </c>
-      <c r="C8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>44432</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>44433</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>44622</v>
+      </c>
+      <c r="B11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>44434</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>44623</v>
+      </c>
+      <c r="B12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>44435</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>44624</v>
+      </c>
+      <c r="B13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>44436</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>44625</v>
+      </c>
+      <c r="B14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>44437</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>44626</v>
+      </c>
+      <c r="B15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>44438</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>44627</v>
+      </c>
+      <c r="B16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>44439</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>44440</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>44629</v>
+      </c>
+      <c r="B18" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>44441</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>44630</v>
+      </c>
+      <c r="B19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>44442</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>44631</v>
+      </c>
+      <c r="B20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>44443</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B21" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>44444</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>44633</v>
+      </c>
+      <c r="B22" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>44445</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>44634</v>
+      </c>
+      <c r="B23" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>44446</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>44635</v>
+      </c>
+      <c r="B24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>44447</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>44636</v>
+      </c>
+      <c r="B25" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>44448</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>44637</v>
+      </c>
+      <c r="B26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>44449</v>
-      </c>
-      <c r="B26" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>44638</v>
+      </c>
+      <c r="B27" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>44450</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
+        <v>119</v>
+      </c>
+      <c r="D27" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>44639</v>
+      </c>
+      <c r="B28" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>44451</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>44640</v>
+      </c>
+      <c r="B29" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>44452</v>
-      </c>
-      <c r="B29" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>44641</v>
+      </c>
+      <c r="B30" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>44453</v>
-      </c>
-      <c r="B30" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>44642</v>
+      </c>
+      <c r="B31" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>44454</v>
-      </c>
-      <c r="B31" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>44643</v>
+      </c>
+      <c r="B32" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>44455</v>
-      </c>
-      <c r="B32" t="s">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>44644</v>
+      </c>
+      <c r="B33" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>44456</v>
-      </c>
-      <c r="B33" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>44645</v>
+      </c>
+      <c r="B34" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>44457</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
+        <v>118</v>
+      </c>
+      <c r="D34" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>44646</v>
+      </c>
+      <c r="B35" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>44458</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
+        <v>118</v>
+      </c>
+      <c r="D35" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>44647</v>
+      </c>
+      <c r="B36" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>44459</v>
-      </c>
-      <c r="B36" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>44648</v>
+      </c>
+      <c r="B37" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>44460</v>
-      </c>
-      <c r="B37" t="s">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B38" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>44461</v>
-      </c>
-      <c r="B38" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>44650</v>
+      </c>
+      <c r="B39" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>44462</v>
-      </c>
-      <c r="B39" t="s">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>44651</v>
+      </c>
+      <c r="B40" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>44463</v>
-      </c>
-      <c r="B40" t="s">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>44652</v>
+      </c>
+      <c r="B41" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>44464</v>
-      </c>
-      <c r="B41" t="s">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>44653</v>
+      </c>
+      <c r="B42" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>44465</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
+        <v>120</v>
+      </c>
+      <c r="D42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>44654</v>
+      </c>
+      <c r="B43" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>44466</v>
-      </c>
-      <c r="B43" t="s">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>44655</v>
+      </c>
+      <c r="B44" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>44467</v>
-      </c>
-      <c r="B44" t="s">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>44656</v>
+      </c>
+      <c r="B45" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>44468</v>
-      </c>
-      <c r="B45" t="s">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>44657</v>
+      </c>
+      <c r="B46" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>44469</v>
-      </c>
-      <c r="B46" t="s">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>44658</v>
+      </c>
+      <c r="B47" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>44470</v>
-      </c>
-      <c r="B47" t="s">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>44659</v>
+      </c>
+      <c r="B48" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>44471</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
+        <v>121</v>
+      </c>
+      <c r="D48" t="s">
+        <v>98</v>
+      </c>
+      <c r="E48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>44660</v>
+      </c>
+      <c r="B49" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>44472</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
+        <v>121</v>
+      </c>
+      <c r="D49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E49" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>44661</v>
+      </c>
+      <c r="B50" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>44473</v>
-      </c>
-      <c r="B50" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>44662</v>
+      </c>
+      <c r="B51" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>44474</v>
-      </c>
-      <c r="B51" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>44663</v>
+      </c>
+      <c r="B52" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>44475</v>
-      </c>
-      <c r="B52" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>44664</v>
+      </c>
+      <c r="B53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>44476</v>
-      </c>
-      <c r="B53" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>44665</v>
+      </c>
+      <c r="B54" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>44477</v>
-      </c>
-      <c r="B54" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>44666</v>
+      </c>
+      <c r="B55" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>44478</v>
-      </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
+        <v>111</v>
+      </c>
+      <c r="D55" t="s">
+        <v>41</v>
+      </c>
+      <c r="E55" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <v>44667</v>
+      </c>
+      <c r="B56" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>44479</v>
-      </c>
-      <c r="B56" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>44668</v>
+      </c>
+      <c r="B57" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>44480</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>44669</v>
+      </c>
+      <c r="B58" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>44481</v>
-      </c>
-      <c r="B58" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>44670</v>
+      </c>
+      <c r="B59" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>44482</v>
-      </c>
-      <c r="B59" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <v>44671</v>
+      </c>
+      <c r="B60" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>44483</v>
-      </c>
-      <c r="B60" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>44672</v>
+      </c>
+      <c r="B61" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>44484</v>
-      </c>
-      <c r="B61" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <v>44673</v>
+      </c>
+      <c r="B62" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>44485</v>
-      </c>
-      <c r="B62" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <v>44674</v>
+      </c>
+      <c r="B63" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>44486</v>
-      </c>
-      <c r="B63" t="s">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <v>44675</v>
+      </c>
+      <c r="B64" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>44487</v>
-      </c>
-      <c r="B64" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <v>44676</v>
+      </c>
+      <c r="B65" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>44488</v>
-      </c>
-      <c r="B65" t="s">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
+        <v>44677</v>
+      </c>
+      <c r="B66" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>44489</v>
-      </c>
-      <c r="B66" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <v>44678</v>
+      </c>
+      <c r="B67" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>44490</v>
-      </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
+        <v>44679</v>
+      </c>
+      <c r="B68" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>44491</v>
-      </c>
-      <c r="B68" t="s">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <v>44680</v>
+      </c>
+      <c r="B69" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>44492</v>
-      </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
+        <v>44681</v>
+      </c>
+      <c r="B70" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>44493</v>
-      </c>
-      <c r="B70" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
+        <v>44682</v>
+      </c>
+      <c r="B71" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>44494</v>
-      </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
+        <v>99</v>
+      </c>
+      <c r="D71" t="s">
+        <v>98</v>
+      </c>
+      <c r="E71" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
+        <v>44683</v>
+      </c>
+      <c r="B72" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>44495</v>
-      </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
+        <v>109</v>
+      </c>
+      <c r="D72" t="s">
+        <v>98</v>
+      </c>
+      <c r="E72" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
+        <v>44684</v>
+      </c>
+      <c r="B73" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>44496</v>
-      </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
+        <v>44685</v>
+      </c>
+      <c r="B74" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>44497</v>
-      </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
+        <v>44686</v>
+      </c>
+      <c r="B75" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <v>44498</v>
-      </c>
-      <c r="B75" t="s">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
+        <v>44687</v>
+      </c>
+      <c r="B76" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>44499</v>
-      </c>
-      <c r="B76" t="s">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
+        <v>44688</v>
+      </c>
+      <c r="B77" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>44500</v>
-      </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
+        <v>44689</v>
+      </c>
+      <c r="B78" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <v>44501</v>
-      </c>
-      <c r="B78" t="s">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
+        <v>44690</v>
+      </c>
+      <c r="B79" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <v>44502</v>
-      </c>
-      <c r="B79" t="s">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B80" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <v>44503</v>
-      </c>
-      <c r="B80" t="s">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
+        <v>44692</v>
+      </c>
+      <c r="B81" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <v>44504</v>
-      </c>
-      <c r="B81" t="s">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
+        <v>44693</v>
+      </c>
+      <c r="B82" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <v>44505</v>
-      </c>
-      <c r="B82" t="s">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" s="1">
+        <v>44694</v>
+      </c>
+      <c r="B83" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
-        <v>44506</v>
-      </c>
-      <c r="B83" t="s">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" s="1">
+        <v>44695</v>
+      </c>
+      <c r="B84" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
-        <v>44507</v>
-      </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
+        <v>102</v>
+      </c>
+      <c r="D84" t="s">
+        <v>103</v>
+      </c>
+      <c r="E84" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" s="1">
+        <v>44696</v>
+      </c>
+      <c r="B85" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
-        <v>44508</v>
-      </c>
-      <c r="B85" t="s">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" s="1">
+        <v>44697</v>
+      </c>
+      <c r="B86" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
-        <v>44509</v>
-      </c>
-      <c r="B86" t="s">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" s="1">
+        <v>44698</v>
+      </c>
+      <c r="B87" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
-        <v>44510</v>
-      </c>
-      <c r="B87" t="s">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" s="1">
+        <v>44699</v>
+      </c>
+      <c r="B88" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
-        <v>44511</v>
-      </c>
-      <c r="B88" t="s">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" s="1">
+        <v>44700</v>
+      </c>
+      <c r="B89" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <v>44512</v>
-      </c>
-      <c r="B89" t="s">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" s="1">
+        <v>44701</v>
+      </c>
+      <c r="B90" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
-        <v>44513</v>
-      </c>
-      <c r="B90" t="s">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" s="1">
+        <v>44702</v>
+      </c>
+      <c r="B91" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
-        <v>44514</v>
-      </c>
-      <c r="B91" t="s">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92" s="1">
+        <v>44703</v>
+      </c>
+      <c r="B92" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
-        <v>44515</v>
-      </c>
-      <c r="B92" t="s">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" s="1">
+        <v>44704</v>
+      </c>
+      <c r="B93" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
-        <v>44516</v>
-      </c>
-      <c r="B93" t="s">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94" s="1">
+        <v>44705</v>
+      </c>
+      <c r="B94" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
-        <v>44517</v>
-      </c>
-      <c r="B94" t="s">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95" s="1">
+        <v>44706</v>
+      </c>
+      <c r="B95" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
-        <v>44518</v>
-      </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
+        <v>100</v>
+      </c>
+      <c r="D95" t="s">
+        <v>101</v>
+      </c>
+      <c r="E95" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96" s="1">
+        <v>44707</v>
+      </c>
+      <c r="B96" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
-        <v>44519</v>
-      </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
+        <v>100</v>
+      </c>
+      <c r="D96" t="s">
+        <v>101</v>
+      </c>
+      <c r="E96" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A97" s="1">
+        <v>44708</v>
+      </c>
+      <c r="B97" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
-        <v>44520</v>
-      </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
+        <v>100</v>
+      </c>
+      <c r="D97" t="s">
+        <v>101</v>
+      </c>
+      <c r="E97" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A98" s="1">
+        <v>44709</v>
+      </c>
+      <c r="B98" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
-        <v>44521</v>
-      </c>
-      <c r="B98" t="s">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A99" s="1">
+        <v>44710</v>
+      </c>
+      <c r="B99" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
-        <v>44522</v>
-      </c>
-      <c r="B99" t="s">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A100" s="1">
+        <v>44711</v>
+      </c>
+      <c r="B100" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
-        <v>44523</v>
-      </c>
-      <c r="B100" t="s">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A101" s="1">
+        <v>44712</v>
+      </c>
+      <c r="B101" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
-        <v>44524</v>
-      </c>
-      <c r="B101" t="s">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A102" s="1">
+        <v>44713</v>
+      </c>
+      <c r="B102" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
-        <v>44525</v>
-      </c>
-      <c r="B102" t="s">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcxcl\Dropbox\2021XC\Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828F5E45-3AD6-4271-B231-AEBB4774CFDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D111772-0FE0-4966-BB25-833EE606E567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{1F97B90D-26B3-4DE4-ACCC-8E22994B6ECC}"/>
   </bookViews>
@@ -343,9 +343,6 @@
     <t>Gulf Shores, AL</t>
   </si>
   <si>
-    <t>Lee University Last Chance</t>
-  </si>
-  <si>
     <t>Cleveland, OH</t>
   </si>
   <si>
@@ -370,9 +367,6 @@
     <t>Graduation</t>
   </si>
   <si>
-    <t>Brescia Invitational / Good Friday - No Classes</t>
-  </si>
-  <si>
     <t>Easter</t>
   </si>
   <si>
@@ -401,6 +395,12 @@
   </si>
   <si>
     <t>&lt;a href="UCInfo.html" title="Go To Page"&gt;Cumberlands Invitational&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="BresciaTF.html" title="Go To Page"&gt;Brescia Invitational&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="LeeInfo.html" title="Go To Page"&gt;Lee University Last Chance&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -2515,8 +2515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883D8E59-CB80-4D96-BB0B-8467B07800EC}">
   <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2548,7 +2548,7 @@
         <v>43</v>
       </c>
       <c r="G1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -2663,7 +2663,7 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -2678,7 +2678,7 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -2692,7 +2692,7 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -2706,7 +2706,7 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -2717,7 +2717,7 @@
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -2728,7 +2728,7 @@
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -2739,7 +2739,7 @@
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -2750,7 +2750,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -2761,7 +2761,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -2772,7 +2772,7 @@
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -2783,7 +2783,7 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -2818,7 +2818,7 @@
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D27" t="s">
         <v>96</v>
@@ -2830,7 +2830,7 @@
         <v>42</v>
       </c>
       <c r="G27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -2841,7 +2841,7 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D28" t="s">
         <v>96</v>
@@ -2853,7 +2853,7 @@
         <v>42</v>
       </c>
       <c r="G28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -2904,7 +2904,7 @@
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D34" t="s">
         <v>97</v>
@@ -2916,7 +2916,7 @@
         <v>42</v>
       </c>
       <c r="G34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -2927,7 +2927,7 @@
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D35" t="s">
         <v>97</v>
@@ -2939,7 +2939,7 @@
         <v>42</v>
       </c>
       <c r="G35" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -2998,7 +2998,7 @@
         <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D42" t="s">
         <v>13</v>
@@ -3058,7 +3058,7 @@
         <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D48" t="s">
         <v>98</v>
@@ -3078,7 +3078,7 @@
         <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D49" t="s">
         <v>98</v>
@@ -3138,7 +3138,7 @@
         <v>4</v>
       </c>
       <c r="C55" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D55" t="s">
         <v>41</v>
@@ -3166,7 +3166,7 @@
         <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
@@ -3249,7 +3249,7 @@
         <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
@@ -3268,7 +3268,7 @@
         <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
@@ -3307,7 +3307,7 @@
         <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D72" t="s">
         <v>98</v>
@@ -3327,7 +3327,7 @@
         <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
@@ -3338,7 +3338,7 @@
         <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
@@ -3365,7 +3365,7 @@
         <v>5</v>
       </c>
       <c r="C77" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
@@ -3424,10 +3424,10 @@
         <v>5</v>
       </c>
       <c r="C84" t="s">
+        <v>121</v>
+      </c>
+      <c r="D84" t="s">
         <v>102</v>
-      </c>
-      <c r="D84" t="s">
-        <v>103</v>
       </c>
       <c r="E84" t="s">
         <v>14</v>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcxcl\Dropbox\2021XC\Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D111772-0FE0-4966-BB25-833EE606E567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A10E5E-4749-4F2D-8AB3-6925C03FEAD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{1F97B90D-26B3-4DE4-ACCC-8E22994B6ECC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="121">
   <si>
     <t>Date</t>
   </si>
@@ -352,9 +352,6 @@
     <t>Spring Break Begins</t>
   </si>
   <si>
-    <t>Spring Break Ends</t>
-  </si>
-  <si>
     <t>Spring Break</t>
   </si>
   <si>
@@ -370,9 +367,6 @@
     <t>Easter</t>
   </si>
   <si>
-    <t>Last Day of Classes</t>
-  </si>
-  <si>
     <t>Jav and 10k ONLY</t>
   </si>
   <si>
@@ -401,6 +395,9 @@
   </si>
   <si>
     <t>&lt;a href="LeeInfo.html" title="Go To Page"&gt;Lee University Last Chance&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>5pm</t>
   </si>
 </sst>
 </file>
@@ -2515,8 +2512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883D8E59-CB80-4D96-BB0B-8467B07800EC}">
   <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2678,7 +2675,7 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -2692,7 +2689,7 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -2706,7 +2703,7 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -2717,7 +2714,7 @@
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -2728,7 +2725,7 @@
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -2739,7 +2736,7 @@
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -2750,7 +2747,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -2761,7 +2758,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -2772,7 +2769,7 @@
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -2783,7 +2780,13 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>105</v>
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -2801,6 +2804,15 @@
       <c r="B25" t="s">
         <v>9</v>
       </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
@@ -2818,7 +2830,7 @@
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D27" t="s">
         <v>96</v>
@@ -2830,7 +2842,7 @@
         <v>42</v>
       </c>
       <c r="G27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -2841,7 +2853,7 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D28" t="s">
         <v>96</v>
@@ -2853,7 +2865,7 @@
         <v>42</v>
       </c>
       <c r="G28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -2871,6 +2883,15 @@
       <c r="B30" t="s">
         <v>7</v>
       </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
@@ -2887,6 +2908,15 @@
       <c r="B32" t="s">
         <v>9</v>
       </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
@@ -2904,7 +2934,7 @@
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D34" t="s">
         <v>97</v>
@@ -2916,7 +2946,7 @@
         <v>42</v>
       </c>
       <c r="G34" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -2927,7 +2957,7 @@
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D35" t="s">
         <v>97</v>
@@ -2939,7 +2969,7 @@
         <v>42</v>
       </c>
       <c r="G35" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -2957,6 +2987,15 @@
       <c r="B37" t="s">
         <v>7</v>
       </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
@@ -2973,6 +3012,15 @@
       <c r="B39" t="s">
         <v>9</v>
       </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
@@ -2998,7 +3046,7 @@
         <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D42" t="s">
         <v>13</v>
@@ -3025,6 +3073,15 @@
       <c r="B44" t="s">
         <v>7</v>
       </c>
+      <c r="C44" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
@@ -3041,6 +3098,15 @@
       <c r="B46" t="s">
         <v>9</v>
       </c>
+      <c r="C46" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
@@ -3058,7 +3124,7 @@
         <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D48" t="s">
         <v>98</v>
@@ -3078,7 +3144,7 @@
         <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D49" t="s">
         <v>98</v>
@@ -3105,6 +3171,15 @@
       <c r="B51" t="s">
         <v>7</v>
       </c>
+      <c r="C51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
@@ -3121,6 +3196,15 @@
       <c r="B53" t="s">
         <v>9</v>
       </c>
+      <c r="C53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
@@ -3138,7 +3222,7 @@
         <v>4</v>
       </c>
       <c r="C55" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D55" t="s">
         <v>41</v>
@@ -3166,7 +3250,7 @@
         <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
@@ -3176,6 +3260,15 @@
       <c r="B58" t="s">
         <v>7</v>
       </c>
+      <c r="C58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
@@ -3192,6 +3285,15 @@
       <c r="B60" t="s">
         <v>9</v>
       </c>
+      <c r="C60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
@@ -3232,6 +3334,15 @@
       <c r="B65" t="s">
         <v>7</v>
       </c>
+      <c r="C65" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
@@ -3249,7 +3360,13 @@
         <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>111</v>
+        <v>17</v>
+      </c>
+      <c r="D67" t="s">
+        <v>16</v>
+      </c>
+      <c r="E67" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
@@ -3268,7 +3385,7 @@
         <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
@@ -3307,7 +3424,7 @@
         <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D72" t="s">
         <v>98</v>
@@ -3327,7 +3444,7 @@
         <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
@@ -3338,7 +3455,7 @@
         <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
@@ -3365,7 +3482,7 @@
         <v>5</v>
       </c>
       <c r="C77" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
@@ -3424,7 +3541,7 @@
         <v>5</v>
       </c>
       <c r="C84" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D84" t="s">
         <v>102</v>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcxcl\Dropbox\2021XC\Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A10E5E-4749-4F2D-8AB3-6925C03FEAD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9745F99E-F696-4CC0-BFCF-F20DC6DD9181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{1F97B90D-26B3-4DE4-ACCC-8E22994B6ECC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="122">
   <si>
     <t>Date</t>
   </si>
@@ -373,12 +373,6 @@
     <t>All Other Events</t>
   </si>
   <si>
-    <t>1500m and up</t>
-  </si>
-  <si>
-    <t>800m and down</t>
-  </si>
-  <si>
     <t>&lt;a href="MontreatInfo.html" title="Go To Page"&gt;Montreat Invitational&lt;/a&gt;</t>
   </si>
   <si>
@@ -398,6 +392,15 @@
   </si>
   <si>
     <t>5pm</t>
+  </si>
+  <si>
+    <t>&lt;a href="Cedarville.html" title="Go To Page"&gt;Cedarville Yellow Jacket Open&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Hep HJ Only</t>
+  </si>
+  <si>
+    <t>Cedarville, OH</t>
   </si>
 </sst>
 </file>
@@ -2510,10 +2513,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883D8E59-CB80-4D96-BB0B-8467B07800EC}">
-  <dimension ref="A1:J102"/>
+  <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2786,7 +2789,7 @@
         <v>16</v>
       </c>
       <c r="E23" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -2811,7 +2814,7 @@
         <v>16</v>
       </c>
       <c r="E25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -2830,7 +2833,7 @@
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D27" t="s">
         <v>96</v>
@@ -2853,7 +2856,7 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D28" t="s">
         <v>96</v>
@@ -2890,7 +2893,7 @@
         <v>16</v>
       </c>
       <c r="E30" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -2915,7 +2918,7 @@
         <v>16</v>
       </c>
       <c r="E32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -2934,7 +2937,7 @@
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D34" t="s">
         <v>97</v>
@@ -2946,7 +2949,7 @@
         <v>42</v>
       </c>
       <c r="G34" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -2957,7 +2960,7 @@
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D35" t="s">
         <v>97</v>
@@ -2969,182 +2972,179 @@
         <v>42</v>
       </c>
       <c r="G35" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>44647</v>
+        <v>44646</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" t="s">
+        <v>121</v>
+      </c>
+      <c r="F36" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>44648</v>
+        <v>44647</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" t="s">
-        <v>16</v>
-      </c>
-      <c r="E37" t="s">
-        <v>120</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>44649</v>
+        <v>44648</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>44650</v>
+        <v>44649</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" t="s">
-        <v>16</v>
-      </c>
-      <c r="E39" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>44651</v>
+        <v>44650</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>44652</v>
+        <v>44651</v>
       </c>
       <c r="B41" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>44653</v>
+        <v>44652</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" t="s">
-        <v>116</v>
-      </c>
-      <c r="D42" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>44654</v>
+        <v>44653</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>114</v>
+      </c>
+      <c r="D43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>44655</v>
+        <v>44654</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" t="s">
-        <v>16</v>
-      </c>
-      <c r="E44" t="s">
-        <v>120</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>44656</v>
+        <v>44655</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="C45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>44657</v>
+        <v>44656</v>
       </c>
       <c r="B46" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" t="s">
-        <v>16</v>
-      </c>
-      <c r="E46" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>44658</v>
+        <v>44657</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>44659</v>
+        <v>44658</v>
       </c>
       <c r="B48" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" t="s">
-        <v>117</v>
-      </c>
-      <c r="D48" t="s">
-        <v>98</v>
-      </c>
-      <c r="E48" t="s">
-        <v>14</v>
-      </c>
-      <c r="F48" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>44660</v>
+        <v>44659</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D49" t="s">
         <v>98</v>
@@ -3158,273 +3158,273 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>44661</v>
+        <v>44660</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>115</v>
+      </c>
+      <c r="D50" t="s">
+        <v>98</v>
+      </c>
+      <c r="E50" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>44662</v>
+        <v>44661</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" t="s">
-        <v>17</v>
-      </c>
-      <c r="D51" t="s">
-        <v>16</v>
-      </c>
-      <c r="E51" t="s">
-        <v>120</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>44663</v>
+        <v>44662</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="C52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>44664</v>
+        <v>44663</v>
       </c>
       <c r="B53" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" t="s">
-        <v>17</v>
-      </c>
-      <c r="D53" t="s">
-        <v>16</v>
-      </c>
-      <c r="E53" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>44665</v>
+        <v>44664</v>
       </c>
       <c r="B54" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="C54" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>44666</v>
+        <v>44665</v>
       </c>
       <c r="B55" t="s">
-        <v>4</v>
-      </c>
-      <c r="C55" t="s">
-        <v>118</v>
-      </c>
-      <c r="D55" t="s">
-        <v>41</v>
-      </c>
-      <c r="E55" t="s">
-        <v>14</v>
-      </c>
-      <c r="F55" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>44667</v>
+        <v>44666</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C56" t="s">
+        <v>116</v>
+      </c>
+      <c r="D56" t="s">
+        <v>41</v>
+      </c>
+      <c r="E56" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>44668</v>
+        <v>44667</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" t="s">
-        <v>109</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>44669</v>
+        <v>44668</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>17</v>
-      </c>
-      <c r="D58" t="s">
-        <v>16</v>
-      </c>
-      <c r="E58" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>44670</v>
+        <v>44669</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="C59" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>44671</v>
+        <v>44670</v>
       </c>
       <c r="B60" t="s">
-        <v>9</v>
-      </c>
-      <c r="C60" t="s">
-        <v>17</v>
-      </c>
-      <c r="D60" t="s">
-        <v>16</v>
-      </c>
-      <c r="E60" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>44672</v>
+        <v>44671</v>
       </c>
       <c r="B61" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="C61" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>44673</v>
+        <v>44672</v>
       </c>
       <c r="B62" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>44674</v>
+        <v>44673</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>44675</v>
+        <v>44674</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>44676</v>
+        <v>44675</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
-      </c>
-      <c r="C65" t="s">
-        <v>17</v>
-      </c>
-      <c r="D65" t="s">
-        <v>16</v>
-      </c>
-      <c r="E65" t="s">
-        <v>120</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>44677</v>
+        <v>44676</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="C66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>44678</v>
+        <v>44677</v>
       </c>
       <c r="B67" t="s">
-        <v>9</v>
-      </c>
-      <c r="C67" t="s">
-        <v>17</v>
-      </c>
-      <c r="D67" t="s">
-        <v>16</v>
-      </c>
-      <c r="E67" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>44679</v>
+        <v>44678</v>
       </c>
       <c r="B68" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="C68" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>44680</v>
+        <v>44679</v>
       </c>
       <c r="B69" t="s">
-        <v>4</v>
-      </c>
-      <c r="C69" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>44681</v>
+        <v>44680</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C70" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>44682</v>
+        <v>44681</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C71" t="s">
-        <v>99</v>
-      </c>
-      <c r="D71" t="s">
-        <v>98</v>
-      </c>
-      <c r="E71" t="s">
-        <v>14</v>
-      </c>
-      <c r="F71" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>44683</v>
+        <v>44682</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C72" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D72" t="s">
         <v>98</v>
@@ -3438,21 +3438,30 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>44684</v>
+        <v>44683</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="D73" t="s">
+        <v>98</v>
+      </c>
+      <c r="E73" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>44685</v>
+        <v>44684</v>
       </c>
       <c r="B74" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
         <v>106</v>
@@ -3460,205 +3469,196 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>44686</v>
+        <v>44685</v>
       </c>
       <c r="B75" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="C75" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>44687</v>
+        <v>44686</v>
       </c>
       <c r="B76" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>44688</v>
+        <v>44687</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
-      </c>
-      <c r="C77" t="s">
-        <v>108</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>44689</v>
+        <v>44688</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="C78" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>44690</v>
+        <v>44689</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>44691</v>
+        <v>44690</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>44692</v>
+        <v>44691</v>
       </c>
       <c r="B81" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>44693</v>
+        <v>44692</v>
       </c>
       <c r="B82" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>44694</v>
+        <v>44693</v>
       </c>
       <c r="B83" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>44695</v>
+        <v>44694</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
-      </c>
-      <c r="C84" t="s">
-        <v>119</v>
-      </c>
-      <c r="D84" t="s">
-        <v>102</v>
-      </c>
-      <c r="E84" t="s">
-        <v>14</v>
-      </c>
-      <c r="F84" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <v>44696</v>
+        <v>44695</v>
       </c>
       <c r="B85" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="C85" t="s">
+        <v>117</v>
+      </c>
+      <c r="D85" t="s">
+        <v>102</v>
+      </c>
+      <c r="E85" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <v>44697</v>
+        <v>44696</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
-        <v>44698</v>
+        <v>44697</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <v>44699</v>
+        <v>44698</v>
       </c>
       <c r="B88" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
-        <v>44700</v>
+        <v>44699</v>
       </c>
       <c r="B89" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
-        <v>44701</v>
+        <v>44700</v>
       </c>
       <c r="B90" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="B91" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
-        <v>44703</v>
+        <v>44702</v>
       </c>
       <c r="B92" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
-        <v>44704</v>
+        <v>44703</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
-        <v>44705</v>
+        <v>44704</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
-        <v>44706</v>
+        <v>44705</v>
       </c>
       <c r="B95" t="s">
-        <v>9</v>
-      </c>
-      <c r="C95" t="s">
-        <v>100</v>
-      </c>
-      <c r="D95" t="s">
-        <v>101</v>
-      </c>
-      <c r="E95" t="s">
-        <v>14</v>
-      </c>
-      <c r="F95" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
-        <v>44707</v>
+        <v>44706</v>
       </c>
       <c r="B96" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
         <v>100</v>
@@ -3675,10 +3675,10 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
-        <v>44708</v>
+        <v>44707</v>
       </c>
       <c r="B97" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C97" t="s">
         <v>100</v>
@@ -3695,41 +3695,61 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
-        <v>44709</v>
+        <v>44708</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C98" t="s">
+        <v>100</v>
+      </c>
+      <c r="D98" t="s">
+        <v>101</v>
+      </c>
+      <c r="E98" t="s">
+        <v>14</v>
+      </c>
+      <c r="F98" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
-        <v>44710</v>
+        <v>44709</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
-        <v>44711</v>
+        <v>44710</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
-        <v>44712</v>
+        <v>44711</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
+        <v>44712</v>
+      </c>
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A103" s="1">
         <v>44713</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B103" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcxcl\Dropbox\2021XC\Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9745F99E-F696-4CC0-BFCF-F20DC6DD9181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727E284D-BBD5-49D9-9809-3CFF7817262C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{1F97B90D-26B3-4DE4-ACCC-8E22994B6ECC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="125">
   <si>
     <t>Date</t>
   </si>
@@ -401,6 +401,15 @@
   </si>
   <si>
     <t>Cedarville, OH</t>
+  </si>
+  <si>
+    <t>&lt;a href="MSJInfo.html" title="Go To Page"&gt;MSJ Invitational&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Cincinnati, OH</t>
+  </si>
+  <si>
+    <t>11:30am</t>
   </si>
 </sst>
 </file>
@@ -2515,8 +2524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883D8E59-CB80-4D96-BB0B-8467B07800EC}">
   <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3338,6 +3347,18 @@
       <c r="B64" t="s">
         <v>5</v>
       </c>
+      <c r="C64" t="s">
+        <v>122</v>
+      </c>
+      <c r="D64" t="s">
+        <v>123</v>
+      </c>
+      <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="1">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcxcl\Dropbox\2021XC\Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727E284D-BBD5-49D9-9809-3CFF7817262C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC8ED7A-5FBA-4D3C-9A21-E0FDD3CE3F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{1F97B90D-26B3-4DE4-ACCC-8E22994B6ECC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="124">
   <si>
     <t>Date</t>
   </si>
@@ -334,9 +334,6 @@
     <t>Williamsburg, KY</t>
   </si>
   <si>
-    <t>MSC Championships</t>
-  </si>
-  <si>
     <t>NAIA Nationals</t>
   </si>
   <si>
@@ -358,9 +355,6 @@
     <t>Finals</t>
   </si>
   <si>
-    <t>MSC Championships / Finals</t>
-  </si>
-  <si>
     <t>Graduation</t>
   </si>
   <si>
@@ -410,6 +404,9 @@
   </si>
   <si>
     <t>11:30am</t>
+  </si>
+  <si>
+    <t>&lt;a href="MSCTFInfo.html" title="Go To Page"&gt;MSC Championships&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -2524,8 +2521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883D8E59-CB80-4D96-BB0B-8467B07800EC}">
   <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2557,7 +2554,7 @@
         <v>43</v>
       </c>
       <c r="G1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -2672,7 +2669,7 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -2687,7 +2684,7 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -2701,7 +2698,7 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -2715,7 +2712,7 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -2726,7 +2723,7 @@
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -2737,7 +2734,7 @@
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -2748,7 +2745,7 @@
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -2759,7 +2756,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -2770,7 +2767,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -2781,7 +2778,7 @@
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -2798,7 +2795,7 @@
         <v>16</v>
       </c>
       <c r="E23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -2823,7 +2820,7 @@
         <v>16</v>
       </c>
       <c r="E25" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -2842,7 +2839,7 @@
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D27" t="s">
         <v>96</v>
@@ -2854,7 +2851,7 @@
         <v>42</v>
       </c>
       <c r="G27" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -2865,7 +2862,7 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D28" t="s">
         <v>96</v>
@@ -2877,7 +2874,7 @@
         <v>42</v>
       </c>
       <c r="G28" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -2902,7 +2899,7 @@
         <v>16</v>
       </c>
       <c r="E30" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -2927,7 +2924,7 @@
         <v>16</v>
       </c>
       <c r="E32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -2946,7 +2943,7 @@
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D34" t="s">
         <v>97</v>
@@ -2958,7 +2955,7 @@
         <v>42</v>
       </c>
       <c r="G34" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -2969,7 +2966,7 @@
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D35" t="s">
         <v>97</v>
@@ -2981,7 +2978,7 @@
         <v>42</v>
       </c>
       <c r="G35" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -2992,10 +2989,10 @@
         <v>5</v>
       </c>
       <c r="C36" t="s">
+        <v>117</v>
+      </c>
+      <c r="D36" t="s">
         <v>119</v>
-      </c>
-      <c r="D36" t="s">
-        <v>121</v>
       </c>
       <c r="F36" t="s">
         <v>42</v>
@@ -3023,7 +3020,7 @@
         <v>16</v>
       </c>
       <c r="E38" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -3048,7 +3045,7 @@
         <v>16</v>
       </c>
       <c r="E40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -3075,7 +3072,7 @@
         <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D43" t="s">
         <v>13</v>
@@ -3109,7 +3106,7 @@
         <v>16</v>
       </c>
       <c r="E45" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -3134,7 +3131,7 @@
         <v>16</v>
       </c>
       <c r="E47" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -3153,7 +3150,7 @@
         <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D49" t="s">
         <v>98</v>
@@ -3173,7 +3170,7 @@
         <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D50" t="s">
         <v>98</v>
@@ -3207,7 +3204,7 @@
         <v>16</v>
       </c>
       <c r="E52" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
@@ -3232,7 +3229,7 @@
         <v>16</v>
       </c>
       <c r="E54" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
@@ -3251,7 +3248,7 @@
         <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D56" t="s">
         <v>41</v>
@@ -3279,7 +3276,7 @@
         <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
@@ -3296,7 +3293,7 @@
         <v>16</v>
       </c>
       <c r="E59" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
@@ -3321,7 +3318,7 @@
         <v>16</v>
       </c>
       <c r="E61" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
@@ -3348,13 +3345,13 @@
         <v>5</v>
       </c>
       <c r="C64" t="s">
+        <v>120</v>
+      </c>
+      <c r="D64" t="s">
+        <v>121</v>
+      </c>
+      <c r="E64" t="s">
         <v>122</v>
-      </c>
-      <c r="D64" t="s">
-        <v>123</v>
-      </c>
-      <c r="E64" t="s">
-        <v>124</v>
       </c>
       <c r="F64" t="s">
         <v>42</v>
@@ -3382,7 +3379,7 @@
         <v>16</v>
       </c>
       <c r="E66" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
@@ -3407,7 +3404,7 @@
         <v>16</v>
       </c>
       <c r="E68" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
@@ -3426,7 +3423,7 @@
         <v>4</v>
       </c>
       <c r="C70" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
@@ -3445,7 +3442,7 @@
         <v>6</v>
       </c>
       <c r="C72" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="D72" t="s">
         <v>98</v>
@@ -3465,7 +3462,7 @@
         <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D73" t="s">
         <v>98</v>
@@ -3485,7 +3482,7 @@
         <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
@@ -3496,7 +3493,7 @@
         <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
@@ -3523,7 +3520,7 @@
         <v>5</v>
       </c>
       <c r="C78" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
@@ -3582,10 +3579,10 @@
         <v>5</v>
       </c>
       <c r="C85" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D85" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E85" t="s">
         <v>14</v>
@@ -3682,10 +3679,10 @@
         <v>9</v>
       </c>
       <c r="C96" t="s">
+        <v>99</v>
+      </c>
+      <c r="D96" t="s">
         <v>100</v>
-      </c>
-      <c r="D96" t="s">
-        <v>101</v>
       </c>
       <c r="E96" t="s">
         <v>14</v>
@@ -3702,10 +3699,10 @@
         <v>10</v>
       </c>
       <c r="C97" t="s">
+        <v>99</v>
+      </c>
+      <c r="D97" t="s">
         <v>100</v>
-      </c>
-      <c r="D97" t="s">
-        <v>101</v>
       </c>
       <c r="E97" t="s">
         <v>14</v>
@@ -3722,10 +3719,10 @@
         <v>4</v>
       </c>
       <c r="C98" t="s">
+        <v>99</v>
+      </c>
+      <c r="D98" t="s">
         <v>100</v>
-      </c>
-      <c r="D98" t="s">
-        <v>101</v>
       </c>
       <c r="E98" t="s">
         <v>14</v>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcxcl\Dropbox\2021XC\Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC8ED7A-5FBA-4D3C-9A21-E0FDD3CE3F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2932528-A19E-4A46-B88A-9BC830998ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{1F97B90D-26B3-4DE4-ACCC-8E22994B6ECC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="125">
   <si>
     <t>Date</t>
   </si>
@@ -340,9 +340,6 @@
     <t>Gulf Shores, AL</t>
   </si>
   <si>
-    <t>Cleveland, OH</t>
-  </si>
-  <si>
     <t>Note</t>
   </si>
   <si>
@@ -382,9 +379,6 @@
     <t>&lt;a href="BresciaTF.html" title="Go To Page"&gt;Brescia Invitational&lt;/a&gt;</t>
   </si>
   <si>
-    <t>&lt;a href="LeeInfo.html" title="Go To Page"&gt;Lee University Last Chance&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>5pm</t>
   </si>
   <si>
@@ -407,6 +401,15 @@
   </si>
   <si>
     <t>&lt;a href="MSCTFInfo.html" title="Go To Page"&gt;MSC Championships&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="NAIATFInfo.html" title="Go To Page"&gt;NAIA Nationals&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Rio Grande Last Chance</t>
+  </si>
+  <si>
+    <t>Rio Grande, OH</t>
   </si>
 </sst>
 </file>
@@ -2521,8 +2524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883D8E59-CB80-4D96-BB0B-8467B07800EC}">
   <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2554,7 +2557,7 @@
         <v>43</v>
       </c>
       <c r="G1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -2669,7 +2672,7 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -2684,7 +2687,7 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -2698,7 +2701,7 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -2712,7 +2715,7 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -2723,7 +2726,7 @@
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -2734,7 +2737,7 @@
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -2745,7 +2748,7 @@
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -2756,7 +2759,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -2767,7 +2770,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -2778,7 +2781,7 @@
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -2795,7 +2798,7 @@
         <v>16</v>
       </c>
       <c r="E23" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -2820,7 +2823,7 @@
         <v>16</v>
       </c>
       <c r="E25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -2839,7 +2842,7 @@
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D27" t="s">
         <v>96</v>
@@ -2851,7 +2854,7 @@
         <v>42</v>
       </c>
       <c r="G27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -2862,7 +2865,7 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D28" t="s">
         <v>96</v>
@@ -2874,7 +2877,7 @@
         <v>42</v>
       </c>
       <c r="G28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -2899,7 +2902,7 @@
         <v>16</v>
       </c>
       <c r="E30" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -2924,7 +2927,7 @@
         <v>16</v>
       </c>
       <c r="E32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -2943,7 +2946,7 @@
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D34" t="s">
         <v>97</v>
@@ -2955,7 +2958,7 @@
         <v>42</v>
       </c>
       <c r="G34" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -2966,7 +2969,7 @@
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" t="s">
         <v>97</v>
@@ -2978,7 +2981,7 @@
         <v>42</v>
       </c>
       <c r="G35" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -2989,10 +2992,10 @@
         <v>5</v>
       </c>
       <c r="C36" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" t="s">
         <v>117</v>
-      </c>
-      <c r="D36" t="s">
-        <v>119</v>
       </c>
       <c r="F36" t="s">
         <v>42</v>
@@ -3020,7 +3023,7 @@
         <v>16</v>
       </c>
       <c r="E38" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -3045,7 +3048,7 @@
         <v>16</v>
       </c>
       <c r="E40" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -3072,7 +3075,7 @@
         <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D43" t="s">
         <v>13</v>
@@ -3106,7 +3109,7 @@
         <v>16</v>
       </c>
       <c r="E45" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -3131,7 +3134,7 @@
         <v>16</v>
       </c>
       <c r="E47" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -3150,7 +3153,7 @@
         <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D49" t="s">
         <v>98</v>
@@ -3170,7 +3173,7 @@
         <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D50" t="s">
         <v>98</v>
@@ -3204,7 +3207,7 @@
         <v>16</v>
       </c>
       <c r="E52" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
@@ -3229,7 +3232,7 @@
         <v>16</v>
       </c>
       <c r="E54" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
@@ -3248,7 +3251,7 @@
         <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D56" t="s">
         <v>41</v>
@@ -3276,7 +3279,7 @@
         <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
@@ -3293,7 +3296,7 @@
         <v>16</v>
       </c>
       <c r="E59" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
@@ -3318,7 +3321,7 @@
         <v>16</v>
       </c>
       <c r="E61" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
@@ -3345,13 +3348,13 @@
         <v>5</v>
       </c>
       <c r="C64" t="s">
+        <v>118</v>
+      </c>
+      <c r="D64" t="s">
+        <v>119</v>
+      </c>
+      <c r="E64" t="s">
         <v>120</v>
-      </c>
-      <c r="D64" t="s">
-        <v>121</v>
-      </c>
-      <c r="E64" t="s">
-        <v>122</v>
       </c>
       <c r="F64" t="s">
         <v>42</v>
@@ -3379,7 +3382,7 @@
         <v>16</v>
       </c>
       <c r="E66" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
@@ -3404,7 +3407,7 @@
         <v>16</v>
       </c>
       <c r="E68" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
@@ -3423,7 +3426,7 @@
         <v>4</v>
       </c>
       <c r="C70" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
@@ -3442,7 +3445,7 @@
         <v>6</v>
       </c>
       <c r="C72" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D72" t="s">
         <v>98</v>
@@ -3462,7 +3465,7 @@
         <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D73" t="s">
         <v>98</v>
@@ -3482,7 +3485,7 @@
         <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
@@ -3493,7 +3496,7 @@
         <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
@@ -3520,7 +3523,7 @@
         <v>5</v>
       </c>
       <c r="C78" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
@@ -3579,10 +3582,10 @@
         <v>5</v>
       </c>
       <c r="C85" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="D85" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="E85" t="s">
         <v>14</v>
@@ -3679,7 +3682,7 @@
         <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="D96" t="s">
         <v>100</v>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcxcl\Dropbox\2021XC\Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2932528-A19E-4A46-B88A-9BC830998ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C13D4EA-5839-4950-A027-560CC15E041C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{1F97B90D-26B3-4DE4-ACCC-8E22994B6ECC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="114">
   <si>
     <t>Date</t>
   </si>
@@ -325,91 +325,58 @@
     <t>PRE MEET</t>
   </si>
   <si>
-    <t>Lexington, KY</t>
-  </si>
-  <si>
-    <t>Montreat, NC</t>
-  </si>
-  <si>
-    <t>Williamsburg, KY</t>
-  </si>
-  <si>
-    <t>NAIA Nationals</t>
-  </si>
-  <si>
-    <t>Gulf Shores, AL</t>
-  </si>
-  <si>
     <t>Note</t>
   </si>
   <si>
-    <t>Spring Break Begins</t>
-  </si>
-  <si>
-    <t>Spring Break</t>
-  </si>
-  <si>
-    <t>Finals</t>
-  </si>
-  <si>
-    <t>Graduation</t>
-  </si>
-  <si>
-    <t>Easter</t>
-  </si>
-  <si>
-    <t>Jav and 10k ONLY</t>
-  </si>
-  <si>
-    <t>All Other Events</t>
-  </si>
-  <si>
-    <t>&lt;a href="MontreatInfo.html" title="Go To Page"&gt;Montreat Invitational&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href="TransyInfo.html" title="Go To Page"&gt;Transylvania Invitational&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href="LBInfo.html" title="Go To Page"&gt;Landon Bond Invitational&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href="UCInfo.html" title="Go To Page"&gt;Cumberlands Invitational&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href="BresciaTF.html" title="Go To Page"&gt;Brescia Invitational&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>5pm</t>
-  </si>
-  <si>
-    <t>&lt;a href="Cedarville.html" title="Go To Page"&gt;Cedarville Yellow Jacket Open&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Hep HJ Only</t>
-  </si>
-  <si>
-    <t>Cedarville, OH</t>
-  </si>
-  <si>
-    <t>&lt;a href="MSJInfo.html" title="Go To Page"&gt;MSJ Invitational&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Cincinnati, OH</t>
-  </si>
-  <si>
-    <t>11:30am</t>
-  </si>
-  <si>
-    <t>&lt;a href="MSCTFInfo.html" title="Go To Page"&gt;MSC Championships&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href="NAIATFInfo.html" title="Go To Page"&gt;NAIA Nationals&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Rio Grande Last Chance</t>
-  </si>
-  <si>
-    <t>Rio Grande, OH</t>
+    <t>MOVE IN DAY!</t>
+  </si>
+  <si>
+    <t>BCCC Jamboree</t>
+  </si>
+  <si>
+    <t>2mile / 5k</t>
+  </si>
+  <si>
+    <t>Berea Invite OR MSC Preview</t>
+  </si>
+  <si>
+    <t>Live In Lou Classic</t>
+  </si>
+  <si>
+    <t>E.P. Tom Sawyer Park, Louisville, KY</t>
+  </si>
+  <si>
+    <t>Yellow Creek Park, Owensboro, KY</t>
+  </si>
+  <si>
+    <t>Top 10 Only</t>
+  </si>
+  <si>
+    <t>Jenna Strong Fall Classic</t>
+  </si>
+  <si>
+    <t>MSC Championships</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSC Championships </t>
+  </si>
+  <si>
+    <t>Either the 4th or the 5th</t>
+  </si>
+  <si>
+    <t>Grand Rapids, MI</t>
+  </si>
+  <si>
+    <t>NAIA Great Lakes Challenge*</t>
+  </si>
+  <si>
+    <t>Unconfirmed Date</t>
+  </si>
+  <si>
+    <t>Brescia Invite*</t>
+  </si>
+  <si>
+    <t>11th+ Only. Unconfirmed Date</t>
   </si>
 </sst>
 </file>
@@ -2522,10 +2489,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883D8E59-CB80-4D96-BB0B-8467B07800EC}">
-  <dimension ref="A1:J103"/>
+  <dimension ref="A1:J185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2557,71 +2524,71 @@
         <v>43</v>
       </c>
       <c r="G1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>44613</v>
+        <v>44743</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>44614</v>
+        <v>44744</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>44615</v>
+        <v>44745</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>44616</v>
+        <v>44746</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>44617</v>
+        <v>44747</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>44618</v>
+        <v>44748</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>44619</v>
+        <v>44749</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>44620</v>
+        <v>44750</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -2630,10 +2597,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>44621</v>
+        <v>44751</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -2642,10 +2609,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>44622</v>
+        <v>44752</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -2654,10 +2621,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>44623</v>
+        <v>44753</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -2666,13 +2633,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>44624</v>
+        <v>44754</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -2681,13 +2645,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>44625</v>
+        <v>44755</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -2695,13 +2656,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>44626</v>
+        <v>44756</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -2709,1069 +2667,1479 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>44627</v>
+        <v>44757</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>44758</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>44759</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>44760</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>44761</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>44762</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>44763</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>44764</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>44765</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>44766</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>44767</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>44769</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>44770</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>44771</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>44772</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>44773</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>44774</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>44775</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>44776</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>44777</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>44778</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>44779</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>44780</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>44781</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>44782</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>44783</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>44784</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>44785</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>44786</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>44787</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>44788</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>44789</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>44790</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>44791</v>
+      </c>
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>44792</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>44793</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>44794</v>
+      </c>
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>44795</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>44796</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <v>44797</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>44798</v>
+      </c>
+      <c r="B57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>44799</v>
+      </c>
+      <c r="B58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>44800</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <v>44801</v>
+      </c>
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>44802</v>
+      </c>
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <v>44803</v>
+      </c>
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <v>44804</v>
+      </c>
+      <c r="B63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <v>44805</v>
+      </c>
+      <c r="B64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <v>44806</v>
+      </c>
+      <c r="B65" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" t="s">
+        <v>98</v>
+      </c>
+      <c r="D65" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" t="s">
+        <v>42</v>
+      </c>
+      <c r="G65" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
+        <v>44807</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <v>44808</v>
+      </c>
+      <c r="B67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
+        <v>44809</v>
+      </c>
+      <c r="B68" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <v>44810</v>
+      </c>
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
+        <v>44811</v>
+      </c>
+      <c r="B70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
+        <v>44812</v>
+      </c>
+      <c r="B71" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
+        <v>44813</v>
+      </c>
+      <c r="B72" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
+        <v>44814</v>
+      </c>
+      <c r="B73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
+        <v>44815</v>
+      </c>
+      <c r="B74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
+        <v>44816</v>
+      </c>
+      <c r="B75" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
+        <v>44817</v>
+      </c>
+      <c r="B76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
+        <v>44818</v>
+      </c>
+      <c r="B77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
+        <v>44819</v>
+      </c>
+      <c r="B78" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
+        <v>44820</v>
+      </c>
+      <c r="B79" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
+        <v>44821</v>
+      </c>
+      <c r="B80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" t="s">
+        <v>100</v>
+      </c>
+      <c r="D80" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
+        <v>44822</v>
+      </c>
+      <c r="B81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
+        <v>44823</v>
+      </c>
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83" s="1">
+        <v>44824</v>
+      </c>
+      <c r="B83" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84" s="1">
+        <v>44825</v>
+      </c>
+      <c r="B84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85" s="1">
+        <v>44826</v>
+      </c>
+      <c r="B85" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86" s="1">
+        <v>44827</v>
+      </c>
+      <c r="B86" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87" s="1">
+        <v>44828</v>
+      </c>
+      <c r="B87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88" s="1">
+        <v>44829</v>
+      </c>
+      <c r="B88" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89" s="1">
+        <v>44830</v>
+      </c>
+      <c r="B89" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90" s="1">
+        <v>44831</v>
+      </c>
+      <c r="B90" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91" s="1">
+        <v>44832</v>
+      </c>
+      <c r="B91" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A92" s="1">
+        <v>44833</v>
+      </c>
+      <c r="B92" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A93" s="1">
+        <v>44834</v>
+      </c>
+      <c r="B93" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A94" s="1">
+        <v>44835</v>
+      </c>
+      <c r="B94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" t="s">
+        <v>101</v>
+      </c>
+      <c r="D94" t="s">
+        <v>102</v>
+      </c>
+      <c r="E94" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94" t="s">
+        <v>42</v>
+      </c>
+      <c r="G94" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95" s="1">
+        <v>44836</v>
+      </c>
+      <c r="B95" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A96" s="1">
+        <v>44837</v>
+      </c>
+      <c r="B96" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A97" s="1">
+        <v>44838</v>
+      </c>
+      <c r="B97" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A98" s="1">
+        <v>44839</v>
+      </c>
+      <c r="B98" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99" s="1">
+        <v>44840</v>
+      </c>
+      <c r="B99" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100" s="1">
+        <v>44841</v>
+      </c>
+      <c r="B100" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100" t="s">
+        <v>112</v>
+      </c>
+      <c r="D100" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>44628</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
-        <v>44629</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="E100" t="s">
+        <v>14</v>
+      </c>
+      <c r="F100" t="s">
+        <v>42</v>
+      </c>
+      <c r="G100" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101" s="1">
+        <v>44842</v>
+      </c>
+      <c r="B101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102" s="1">
+        <v>44843</v>
+      </c>
+      <c r="B102" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103" s="1">
+        <v>44844</v>
+      </c>
+      <c r="B103" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A104" s="1">
+        <v>44845</v>
+      </c>
+      <c r="B104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A105" s="1">
+        <v>44846</v>
+      </c>
+      <c r="B105" t="s">
         <v>9</v>
       </c>
-      <c r="C18" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>44630</v>
-      </c>
-      <c r="B19" t="s">
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106" s="1">
+        <v>44847</v>
+      </c>
+      <c r="B106" t="s">
         <v>10</v>
       </c>
-      <c r="C19" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>44631</v>
-      </c>
-      <c r="B20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>44632</v>
-      </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <v>44633</v>
-      </c>
-      <c r="B22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
-        <v>44634</v>
-      </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
-        <v>44635</v>
-      </c>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
-        <v>44636</v>
-      </c>
-      <c r="B25" t="s">
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A107" s="1">
+        <v>44848</v>
+      </c>
+      <c r="B107" t="s">
+        <v>4</v>
+      </c>
+      <c r="C107" t="s">
+        <v>105</v>
+      </c>
+      <c r="D107" t="s">
+        <v>36</v>
+      </c>
+      <c r="E107" t="s">
+        <v>14</v>
+      </c>
+      <c r="F107" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A108" s="1">
+        <v>44849</v>
+      </c>
+      <c r="B108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A109" s="1">
+        <v>44850</v>
+      </c>
+      <c r="B109" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A110" s="1">
+        <v>44851</v>
+      </c>
+      <c r="B110" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A111" s="1">
+        <v>44852</v>
+      </c>
+      <c r="B111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A112" s="1">
+        <v>44853</v>
+      </c>
+      <c r="B112" t="s">
         <v>9</v>
       </c>
-      <c r="C25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
-        <v>44637</v>
-      </c>
-      <c r="B26" t="s">
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A113" s="1">
+        <v>44854</v>
+      </c>
+      <c r="B113" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
-        <v>44638</v>
-      </c>
-      <c r="B27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" t="s">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A114" s="1">
+        <v>44855</v>
+      </c>
+      <c r="B114" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A115" s="1">
+        <v>44856</v>
+      </c>
+      <c r="B115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C115" t="s">
         <v>110</v>
       </c>
-      <c r="D27" t="s">
-        <v>96</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="D115" t="s">
+        <v>109</v>
+      </c>
+      <c r="E115" t="s">
         <v>14</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F115" t="s">
         <v>42</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G115" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A116" s="1">
+        <v>44857</v>
+      </c>
+      <c r="B116" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A117" s="1">
+        <v>44858</v>
+      </c>
+      <c r="B117" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A118" s="1">
+        <v>44859</v>
+      </c>
+      <c r="B118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A119" s="1">
+        <v>44860</v>
+      </c>
+      <c r="B119" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A120" s="1">
+        <v>44861</v>
+      </c>
+      <c r="B120" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A121" s="1">
+        <v>44862</v>
+      </c>
+      <c r="B121" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A122" s="1">
+        <v>44863</v>
+      </c>
+      <c r="B122" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A123" s="1">
+        <v>44864</v>
+      </c>
+      <c r="B123" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A124" s="1">
+        <v>44865</v>
+      </c>
+      <c r="B124" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A125" s="1">
+        <v>44866</v>
+      </c>
+      <c r="B125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A126" s="1">
+        <v>44867</v>
+      </c>
+      <c r="B126" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A127" s="1">
+        <v>44868</v>
+      </c>
+      <c r="B127" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A128" s="1">
+        <v>44869</v>
+      </c>
+      <c r="B128" t="s">
+        <v>4</v>
+      </c>
+      <c r="C128" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
-        <v>44639</v>
-      </c>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" t="s">
-        <v>110</v>
-      </c>
-      <c r="D28" t="s">
-        <v>96</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="D128" t="s">
         <v>14</v>
       </c>
-      <c r="F28" t="s">
+      <c r="E128" t="s">
+        <v>14</v>
+      </c>
+      <c r="F128" t="s">
         <v>42</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G128" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
-        <v>44640</v>
-      </c>
-      <c r="B29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
-        <v>44641</v>
-      </c>
-      <c r="B30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
-        <v>44642</v>
-      </c>
-      <c r="B31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
-        <v>44643</v>
-      </c>
-      <c r="B32" t="s">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A129" s="1">
+        <v>44870</v>
+      </c>
+      <c r="B129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C129" t="s">
+        <v>106</v>
+      </c>
+      <c r="D129" t="s">
+        <v>14</v>
+      </c>
+      <c r="E129" t="s">
+        <v>14</v>
+      </c>
+      <c r="F129" t="s">
+        <v>42</v>
+      </c>
+      <c r="G129" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A130" s="1">
+        <v>44871</v>
+      </c>
+      <c r="B130" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A131" s="1">
+        <v>44872</v>
+      </c>
+      <c r="B131" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A132" s="1">
+        <v>44873</v>
+      </c>
+      <c r="B132" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A133" s="1">
+        <v>44874</v>
+      </c>
+      <c r="B133" t="s">
         <v>9</v>
       </c>
-      <c r="C32" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
-        <v>44644</v>
-      </c>
-      <c r="B33" t="s">
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A134" s="1">
+        <v>44875</v>
+      </c>
+      <c r="B134" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
-        <v>44645</v>
-      </c>
-      <c r="B34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" t="s">
-        <v>109</v>
-      </c>
-      <c r="D34" t="s">
-        <v>97</v>
-      </c>
-      <c r="E34" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" t="s">
-        <v>42</v>
-      </c>
-      <c r="G34" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
-        <v>44646</v>
-      </c>
-      <c r="B35" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" t="s">
-        <v>109</v>
-      </c>
-      <c r="D35" t="s">
-        <v>97</v>
-      </c>
-      <c r="E35" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" t="s">
-        <v>42</v>
-      </c>
-      <c r="G35" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
-        <v>44646</v>
-      </c>
-      <c r="B36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" t="s">
-        <v>115</v>
-      </c>
-      <c r="D36" t="s">
-        <v>117</v>
-      </c>
-      <c r="F36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
-        <v>44647</v>
-      </c>
-      <c r="B37" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
-        <v>44648</v>
-      </c>
-      <c r="B38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" t="s">
-        <v>16</v>
-      </c>
-      <c r="E38" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
-        <v>44649</v>
-      </c>
-      <c r="B39" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
-        <v>44650</v>
-      </c>
-      <c r="B40" t="s">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A135" s="1">
+        <v>44876</v>
+      </c>
+      <c r="B135" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A136" s="1">
+        <v>44877</v>
+      </c>
+      <c r="B136" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A137" s="1">
+        <v>44878</v>
+      </c>
+      <c r="B137" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A138" s="1">
+        <v>44879</v>
+      </c>
+      <c r="B138" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A139" s="1">
+        <v>44880</v>
+      </c>
+      <c r="B139" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A140" s="1">
+        <v>44881</v>
+      </c>
+      <c r="B140" t="s">
         <v>9</v>
       </c>
-      <c r="C40" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" t="s">
-        <v>16</v>
-      </c>
-      <c r="E40" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
-        <v>44651</v>
-      </c>
-      <c r="B41" t="s">
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A141" s="1">
+        <v>44882</v>
+      </c>
+      <c r="B141" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
-        <v>44652</v>
-      </c>
-      <c r="B42" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
-        <v>44653</v>
-      </c>
-      <c r="B43" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" t="s">
-        <v>111</v>
-      </c>
-      <c r="D43" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
-        <v>44654</v>
-      </c>
-      <c r="B44" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
-        <v>44655</v>
-      </c>
-      <c r="B45" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" t="s">
-        <v>17</v>
-      </c>
-      <c r="D45" t="s">
-        <v>16</v>
-      </c>
-      <c r="E45" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
-        <v>44656</v>
-      </c>
-      <c r="B46" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
-        <v>44657</v>
-      </c>
-      <c r="B47" t="s">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A142" s="1">
+        <v>44883</v>
+      </c>
+      <c r="B142" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A143" s="1">
+        <v>44884</v>
+      </c>
+      <c r="B143" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A144" s="1">
+        <v>44885</v>
+      </c>
+      <c r="B144" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" s="1">
+        <v>44886</v>
+      </c>
+      <c r="B145" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" s="1">
+        <v>44887</v>
+      </c>
+      <c r="B146" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" s="1">
+        <v>44888</v>
+      </c>
+      <c r="B147" t="s">
         <v>9</v>
       </c>
-      <c r="C47" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" t="s">
-        <v>16</v>
-      </c>
-      <c r="E47" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
-        <v>44658</v>
-      </c>
-      <c r="B48" t="s">
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" s="1">
+        <v>44889</v>
+      </c>
+      <c r="B148" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
-        <v>44659</v>
-      </c>
-      <c r="B49" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" t="s">
-        <v>112</v>
-      </c>
-      <c r="D49" t="s">
-        <v>98</v>
-      </c>
-      <c r="E49" t="s">
-        <v>14</v>
-      </c>
-      <c r="F49" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" s="1">
-        <v>44660</v>
-      </c>
-      <c r="B50" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" t="s">
-        <v>112</v>
-      </c>
-      <c r="D50" t="s">
-        <v>98</v>
-      </c>
-      <c r="E50" t="s">
-        <v>14</v>
-      </c>
-      <c r="F50" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="1">
-        <v>44661</v>
-      </c>
-      <c r="B51" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="1">
-        <v>44662</v>
-      </c>
-      <c r="B52" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" t="s">
-        <v>17</v>
-      </c>
-      <c r="D52" t="s">
-        <v>16</v>
-      </c>
-      <c r="E52" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="1">
-        <v>44663</v>
-      </c>
-      <c r="B53" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="1">
-        <v>44664</v>
-      </c>
-      <c r="B54" t="s">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" s="1">
+        <v>44890</v>
+      </c>
+      <c r="B149" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" s="1">
+        <v>44891</v>
+      </c>
+      <c r="B150" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" s="1">
+        <v>44892</v>
+      </c>
+      <c r="B151" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" s="1">
+        <v>44893</v>
+      </c>
+      <c r="B152" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" s="1">
+        <v>44894</v>
+      </c>
+      <c r="B153" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" s="1">
+        <v>44895</v>
+      </c>
+      <c r="B154" t="s">
         <v>9</v>
       </c>
-      <c r="C54" t="s">
-        <v>17</v>
-      </c>
-      <c r="D54" t="s">
-        <v>16</v>
-      </c>
-      <c r="E54" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="1">
-        <v>44665</v>
-      </c>
-      <c r="B55" t="s">
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" s="1">
+        <v>44896</v>
+      </c>
+      <c r="B155" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="1">
-        <v>44666</v>
-      </c>
-      <c r="B56" t="s">
-        <v>4</v>
-      </c>
-      <c r="C56" t="s">
-        <v>113</v>
-      </c>
-      <c r="D56" t="s">
-        <v>41</v>
-      </c>
-      <c r="E56" t="s">
-        <v>14</v>
-      </c>
-      <c r="F56" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="1">
-        <v>44667</v>
-      </c>
-      <c r="B57" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="1">
-        <v>44668</v>
-      </c>
-      <c r="B58" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" s="1">
-        <v>44669</v>
-      </c>
-      <c r="B59" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" t="s">
-        <v>17</v>
-      </c>
-      <c r="D59" t="s">
-        <v>16</v>
-      </c>
-      <c r="E59" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="1">
-        <v>44670</v>
-      </c>
-      <c r="B60" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" s="1">
-        <v>44671</v>
-      </c>
-      <c r="B61" t="s">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" s="1">
+        <v>44897</v>
+      </c>
+      <c r="B156" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" s="1">
+        <v>44898</v>
+      </c>
+      <c r="B157" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158" s="1">
+        <v>44899</v>
+      </c>
+      <c r="B158" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159" s="1">
+        <v>44900</v>
+      </c>
+      <c r="B159" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" s="1">
+        <v>44901</v>
+      </c>
+      <c r="B160" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" s="1">
+        <v>44902</v>
+      </c>
+      <c r="B161" t="s">
         <v>9</v>
       </c>
-      <c r="C61" t="s">
-        <v>17</v>
-      </c>
-      <c r="D61" t="s">
-        <v>16</v>
-      </c>
-      <c r="E61" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" s="1">
-        <v>44672</v>
-      </c>
-      <c r="B62" t="s">
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162" s="1">
+        <v>44903</v>
+      </c>
+      <c r="B162" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="1">
-        <v>44673</v>
-      </c>
-      <c r="B63" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A64" s="1">
-        <v>44674</v>
-      </c>
-      <c r="B64" t="s">
-        <v>5</v>
-      </c>
-      <c r="C64" t="s">
-        <v>118</v>
-      </c>
-      <c r="D64" t="s">
-        <v>119</v>
-      </c>
-      <c r="E64" t="s">
-        <v>120</v>
-      </c>
-      <c r="F64" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" s="1">
-        <v>44675</v>
-      </c>
-      <c r="B65" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" s="1">
-        <v>44676</v>
-      </c>
-      <c r="B66" t="s">
-        <v>7</v>
-      </c>
-      <c r="C66" t="s">
-        <v>17</v>
-      </c>
-      <c r="D66" t="s">
-        <v>16</v>
-      </c>
-      <c r="E66" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A67" s="1">
-        <v>44677</v>
-      </c>
-      <c r="B67" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A68" s="1">
-        <v>44678</v>
-      </c>
-      <c r="B68" t="s">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" s="1">
+        <v>44904</v>
+      </c>
+      <c r="B163" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" s="1">
+        <v>44905</v>
+      </c>
+      <c r="B164" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" s="1">
+        <v>44906</v>
+      </c>
+      <c r="B165" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166" s="1">
+        <v>44907</v>
+      </c>
+      <c r="B166" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167" s="1">
+        <v>44908</v>
+      </c>
+      <c r="B167" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168" s="1">
+        <v>44909</v>
+      </c>
+      <c r="B168" t="s">
         <v>9</v>
       </c>
-      <c r="C68" t="s">
-        <v>17</v>
-      </c>
-      <c r="D68" t="s">
-        <v>16</v>
-      </c>
-      <c r="E68" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" s="1">
-        <v>44679</v>
-      </c>
-      <c r="B69" t="s">
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" s="1">
+        <v>44910</v>
+      </c>
+      <c r="B169" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70" s="1">
-        <v>44680</v>
-      </c>
-      <c r="B70" t="s">
-        <v>4</v>
-      </c>
-      <c r="C70" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A71" s="1">
-        <v>44681</v>
-      </c>
-      <c r="B71" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A72" s="1">
-        <v>44682</v>
-      </c>
-      <c r="B72" t="s">
-        <v>6</v>
-      </c>
-      <c r="C72" t="s">
-        <v>121</v>
-      </c>
-      <c r="D72" t="s">
-        <v>98</v>
-      </c>
-      <c r="E72" t="s">
-        <v>14</v>
-      </c>
-      <c r="F72" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A73" s="1">
-        <v>44683</v>
-      </c>
-      <c r="B73" t="s">
-        <v>7</v>
-      </c>
-      <c r="C73" t="s">
-        <v>121</v>
-      </c>
-      <c r="D73" t="s">
-        <v>98</v>
-      </c>
-      <c r="E73" t="s">
-        <v>14</v>
-      </c>
-      <c r="F73" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A74" s="1">
-        <v>44684</v>
-      </c>
-      <c r="B74" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A75" s="1">
-        <v>44685</v>
-      </c>
-      <c r="B75" t="s">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" s="1">
+        <v>44911</v>
+      </c>
+      <c r="B170" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" s="1">
+        <v>44912</v>
+      </c>
+      <c r="B171" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" s="1">
+        <v>44913</v>
+      </c>
+      <c r="B172" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173" s="1">
+        <v>44914</v>
+      </c>
+      <c r="B173" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174" s="1">
+        <v>44915</v>
+      </c>
+      <c r="B174" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175" s="1">
+        <v>44916</v>
+      </c>
+      <c r="B175" t="s">
         <v>9</v>
       </c>
-      <c r="C75" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A76" s="1">
-        <v>44686</v>
-      </c>
-      <c r="B76" t="s">
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176" s="1">
+        <v>44917</v>
+      </c>
+      <c r="B176" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A77" s="1">
-        <v>44687</v>
-      </c>
-      <c r="B77" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A78" s="1">
-        <v>44688</v>
-      </c>
-      <c r="B78" t="s">
-        <v>5</v>
-      </c>
-      <c r="C78" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A79" s="1">
-        <v>44689</v>
-      </c>
-      <c r="B79" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A80" s="1">
-        <v>44690</v>
-      </c>
-      <c r="B80" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A81" s="1">
-        <v>44691</v>
-      </c>
-      <c r="B81" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A82" s="1">
-        <v>44692</v>
-      </c>
-      <c r="B82" t="s">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177" s="1">
+        <v>44918</v>
+      </c>
+      <c r="B177" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" s="1">
+        <v>44919</v>
+      </c>
+      <c r="B178" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" s="1">
+        <v>44920</v>
+      </c>
+      <c r="B179" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" s="1">
+        <v>44921</v>
+      </c>
+      <c r="B180" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" s="1">
+        <v>44922</v>
+      </c>
+      <c r="B181" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182" s="1">
+        <v>44923</v>
+      </c>
+      <c r="B182" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A83" s="1">
-        <v>44693</v>
-      </c>
-      <c r="B83" t="s">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183" s="1">
+        <v>44924</v>
+      </c>
+      <c r="B183" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A84" s="1">
-        <v>44694</v>
-      </c>
-      <c r="B84" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A85" s="1">
-        <v>44695</v>
-      </c>
-      <c r="B85" t="s">
-        <v>5</v>
-      </c>
-      <c r="C85" t="s">
-        <v>123</v>
-      </c>
-      <c r="D85" t="s">
-        <v>124</v>
-      </c>
-      <c r="E85" t="s">
-        <v>14</v>
-      </c>
-      <c r="F85" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A86" s="1">
-        <v>44696</v>
-      </c>
-      <c r="B86" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A87" s="1">
-        <v>44697</v>
-      </c>
-      <c r="B87" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A88" s="1">
-        <v>44698</v>
-      </c>
-      <c r="B88" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A89" s="1">
-        <v>44699</v>
-      </c>
-      <c r="B89" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A90" s="1">
-        <v>44700</v>
-      </c>
-      <c r="B90" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A91" s="1">
-        <v>44701</v>
-      </c>
-      <c r="B91" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A92" s="1">
-        <v>44702</v>
-      </c>
-      <c r="B92" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A93" s="1">
-        <v>44703</v>
-      </c>
-      <c r="B93" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A94" s="1">
-        <v>44704</v>
-      </c>
-      <c r="B94" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A95" s="1">
-        <v>44705</v>
-      </c>
-      <c r="B95" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A96" s="1">
-        <v>44706</v>
-      </c>
-      <c r="B96" t="s">
-        <v>9</v>
-      </c>
-      <c r="C96" t="s">
-        <v>122</v>
-      </c>
-      <c r="D96" t="s">
-        <v>100</v>
-      </c>
-      <c r="E96" t="s">
-        <v>14</v>
-      </c>
-      <c r="F96" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A97" s="1">
-        <v>44707</v>
-      </c>
-      <c r="B97" t="s">
-        <v>10</v>
-      </c>
-      <c r="C97" t="s">
-        <v>99</v>
-      </c>
-      <c r="D97" t="s">
-        <v>100</v>
-      </c>
-      <c r="E97" t="s">
-        <v>14</v>
-      </c>
-      <c r="F97" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A98" s="1">
-        <v>44708</v>
-      </c>
-      <c r="B98" t="s">
-        <v>4</v>
-      </c>
-      <c r="C98" t="s">
-        <v>99</v>
-      </c>
-      <c r="D98" t="s">
-        <v>100</v>
-      </c>
-      <c r="E98" t="s">
-        <v>14</v>
-      </c>
-      <c r="F98" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A99" s="1">
-        <v>44709</v>
-      </c>
-      <c r="B99" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A100" s="1">
-        <v>44710</v>
-      </c>
-      <c r="B100" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A101" s="1">
-        <v>44711</v>
-      </c>
-      <c r="B101" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A102" s="1">
-        <v>44712</v>
-      </c>
-      <c r="B102" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A103" s="1">
-        <v>44713</v>
-      </c>
-      <c r="B103" t="s">
-        <v>9</v>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184" s="1">
+        <v>44925</v>
+      </c>
+      <c r="B184" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A185" s="1">
+        <v>44926</v>
+      </c>
+      <c r="B185" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcxcl\Dropbox\2021XC\Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C13D4EA-5839-4950-A027-560CC15E041C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558B5E62-31EB-4D76-829C-4657384796E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{1F97B90D-26B3-4DE4-ACCC-8E22994B6ECC}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{1F97B90D-26B3-4DE4-ACCC-8E22994B6ECC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="122">
   <si>
     <t>Date</t>
   </si>
@@ -337,12 +337,6 @@
     <t>2mile / 5k</t>
   </si>
   <si>
-    <t>Berea Invite OR MSC Preview</t>
-  </si>
-  <si>
-    <t>Live In Lou Classic</t>
-  </si>
-  <si>
     <t>E.P. Tom Sawyer Park, Louisville, KY</t>
   </si>
   <si>
@@ -355,28 +349,58 @@
     <t>Jenna Strong Fall Classic</t>
   </si>
   <si>
-    <t>MSC Championships</t>
-  </si>
-  <si>
     <t xml:space="preserve">MSC Championships </t>
   </si>
   <si>
-    <t>Either the 4th or the 5th</t>
-  </si>
-  <si>
     <t>Grand Rapids, MI</t>
   </si>
   <si>
     <t>NAIA Great Lakes Challenge*</t>
   </si>
   <si>
-    <t>Unconfirmed Date</t>
-  </si>
-  <si>
-    <t>Brescia Invite*</t>
-  </si>
-  <si>
-    <t>11th+ Only. Unconfirmed Date</t>
+    <t>Host</t>
+  </si>
+  <si>
+    <t>Berea College and Centre College</t>
+  </si>
+  <si>
+    <t>Mike and Mark Kay Johnson Invitational</t>
+  </si>
+  <si>
+    <t>Louisville Sports Commission</t>
+  </si>
+  <si>
+    <t>Live In Lou Cross Country Classic Classic</t>
+  </si>
+  <si>
+    <t>Brescia University Invitational</t>
+  </si>
+  <si>
+    <t>11th+ Only</t>
+  </si>
+  <si>
+    <t>Wilmington College</t>
+  </si>
+  <si>
+    <t>Aquinas College</t>
+  </si>
+  <si>
+    <t>Mid-South Conference</t>
+  </si>
+  <si>
+    <t>Phil More Park, Bowling Green, KY</t>
+  </si>
+  <si>
+    <t>NAIA National Championships</t>
+  </si>
+  <si>
+    <t>NAIA</t>
+  </si>
+  <si>
+    <t>Tallahassee, FL</t>
+  </si>
+  <si>
+    <t>Brescia University</t>
   </si>
 </sst>
 </file>
@@ -2489,22 +2513,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883D8E59-CB80-4D96-BB0B-8467B07800EC}">
-  <dimension ref="A1:J185"/>
+  <dimension ref="A1:K185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="G100" sqref="G100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.81640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.26953125" customWidth="1"/>
-    <col min="3" max="3" width="29.26953125" customWidth="1"/>
-    <col min="4" max="4" width="23.7265625" customWidth="1"/>
-    <col min="5" max="5" width="16.1796875" customWidth="1"/>
+    <col min="3" max="4" width="29.26953125" customWidth="1"/>
+    <col min="5" max="5" width="29.453125" customWidth="1"/>
+    <col min="6" max="6" width="16.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2515,19 +2539,22 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>43</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>44743</v>
       </c>
@@ -2535,7 +2562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>44744</v>
       </c>
@@ -2543,7 +2570,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>44745</v>
       </c>
@@ -2551,7 +2578,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>44746</v>
       </c>
@@ -2559,7 +2586,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>44747</v>
       </c>
@@ -2567,7 +2594,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>44748</v>
       </c>
@@ -2575,7 +2602,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>44749</v>
       </c>
@@ -2583,89 +2610,89 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>44750</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J9" s="3"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>44751</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J10" s="3"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>44752</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J11" s="3"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>44753</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J12" s="3"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>44754</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J13" s="3"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>44755</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>44756</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>44757</v>
       </c>
@@ -3060,7 +3087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>44806</v>
       </c>
@@ -3071,19 +3098,22 @@
         <v>98</v>
       </c>
       <c r="D65" t="s">
+        <v>108</v>
+      </c>
+      <c r="E65" t="s">
         <v>13</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>14</v>
       </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>42</v>
       </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>44807</v>
       </c>
@@ -3091,7 +3121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>44808</v>
       </c>
@@ -3099,7 +3129,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>44809</v>
       </c>
@@ -3107,7 +3137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>44810</v>
       </c>
@@ -3115,7 +3145,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>44811</v>
       </c>
@@ -3123,7 +3153,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>44812</v>
       </c>
@@ -3131,7 +3161,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>44813</v>
       </c>
@@ -3139,7 +3169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>44814</v>
       </c>
@@ -3147,7 +3177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>44815</v>
       </c>
@@ -3155,7 +3185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>44816</v>
       </c>
@@ -3163,7 +3193,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>44817</v>
       </c>
@@ -3171,7 +3201,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>44818</v>
       </c>
@@ -3179,7 +3209,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>44819</v>
       </c>
@@ -3187,7 +3217,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>44820</v>
       </c>
@@ -3195,7 +3225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>44821</v>
       </c>
@@ -3203,19 +3233,22 @@
         <v>5</v>
       </c>
       <c r="C80" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D80" t="s">
+        <v>108</v>
+      </c>
+      <c r="E80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" t="s">
         <v>14</v>
       </c>
-      <c r="E80" t="s">
-        <v>14</v>
-      </c>
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>44822</v>
       </c>
@@ -3223,7 +3256,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>44823</v>
       </c>
@@ -3231,7 +3264,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>44824</v>
       </c>
@@ -3239,7 +3272,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>44825</v>
       </c>
@@ -3247,7 +3280,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>44826</v>
       </c>
@@ -3255,7 +3288,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>44827</v>
       </c>
@@ -3263,7 +3296,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>44828</v>
       </c>
@@ -3271,7 +3304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>44829</v>
       </c>
@@ -3279,7 +3312,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>44830</v>
       </c>
@@ -3287,7 +3320,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>44831</v>
       </c>
@@ -3295,7 +3328,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>44832</v>
       </c>
@@ -3303,7 +3336,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>44833</v>
       </c>
@@ -3311,7 +3344,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>44834</v>
       </c>
@@ -3319,7 +3352,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>44835</v>
       </c>
@@ -3327,22 +3360,25 @@
         <v>5</v>
       </c>
       <c r="C94" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D94" t="s">
+        <v>110</v>
+      </c>
+      <c r="E94" t="s">
+        <v>100</v>
+      </c>
+      <c r="F94" t="s">
+        <v>14</v>
+      </c>
+      <c r="G94" t="s">
+        <v>42</v>
+      </c>
+      <c r="H94" t="s">
         <v>102</v>
       </c>
-      <c r="E94" t="s">
-        <v>14</v>
-      </c>
-      <c r="F94" t="s">
-        <v>42</v>
-      </c>
-      <c r="G94" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>44836</v>
       </c>
@@ -3350,7 +3386,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>44837</v>
       </c>
@@ -3358,7 +3394,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>44838</v>
       </c>
@@ -3366,7 +3402,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>44839</v>
       </c>
@@ -3374,7 +3410,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>44840</v>
       </c>
@@ -3382,7 +3418,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>44841</v>
       </c>
@@ -3393,19 +3429,22 @@
         <v>112</v>
       </c>
       <c r="D100" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="E100" t="s">
+        <v>101</v>
+      </c>
+      <c r="F100" t="s">
         <v>14</v>
       </c>
-      <c r="F100" t="s">
+      <c r="G100" t="s">
         <v>42</v>
       </c>
-      <c r="G100" t="s">
+      <c r="H100" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>44842</v>
       </c>
@@ -3413,7 +3452,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>44843</v>
       </c>
@@ -3421,7 +3460,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>44844</v>
       </c>
@@ -3429,7 +3468,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>44845</v>
       </c>
@@ -3437,7 +3476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>44846</v>
       </c>
@@ -3445,7 +3484,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>44847</v>
       </c>
@@ -3453,7 +3492,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>44848</v>
       </c>
@@ -3461,19 +3500,22 @@
         <v>4</v>
       </c>
       <c r="C107" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D107" t="s">
+        <v>114</v>
+      </c>
+      <c r="E107" t="s">
         <v>36</v>
       </c>
-      <c r="E107" t="s">
+      <c r="F107" t="s">
         <v>14</v>
       </c>
-      <c r="F107" t="s">
+      <c r="G107" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>44849</v>
       </c>
@@ -3481,7 +3523,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>44850</v>
       </c>
@@ -3489,7 +3531,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>44851</v>
       </c>
@@ -3497,7 +3539,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>44852</v>
       </c>
@@ -3505,7 +3547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>44853</v>
       </c>
@@ -3537,19 +3579,19 @@
         <v>5</v>
       </c>
       <c r="C115" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D115" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E115" t="s">
+        <v>105</v>
+      </c>
+      <c r="F115" t="s">
         <v>14</v>
       </c>
-      <c r="F115" t="s">
+      <c r="G115" t="s">
         <v>42</v>
-      </c>
-      <c r="G115" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
@@ -3656,19 +3698,19 @@
         <v>4</v>
       </c>
       <c r="C128" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D128" t="s">
+        <v>116</v>
+      </c>
+      <c r="E128" t="s">
+        <v>117</v>
+      </c>
+      <c r="F128" t="s">
         <v>14</v>
       </c>
-      <c r="E128" t="s">
-        <v>14</v>
-      </c>
-      <c r="F128" t="s">
+      <c r="G128" t="s">
         <v>42</v>
-      </c>
-      <c r="G128" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.35">
@@ -3678,21 +3720,6 @@
       <c r="B129" t="s">
         <v>5</v>
       </c>
-      <c r="C129" t="s">
-        <v>106</v>
-      </c>
-      <c r="D129" t="s">
-        <v>14</v>
-      </c>
-      <c r="E129" t="s">
-        <v>14</v>
-      </c>
-      <c r="F129" t="s">
-        <v>42</v>
-      </c>
-      <c r="G129" t="s">
-        <v>108</v>
-      </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
@@ -3796,6 +3823,21 @@
       </c>
       <c r="B142" t="s">
         <v>4</v>
+      </c>
+      <c r="C142" t="s">
+        <v>118</v>
+      </c>
+      <c r="D142" t="s">
+        <v>119</v>
+      </c>
+      <c r="E142" t="s">
+        <v>120</v>
+      </c>
+      <c r="F142" t="s">
+        <v>14</v>
+      </c>
+      <c r="G142" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.35">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcxcl\Dropbox\2021XC\Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558B5E62-31EB-4D76-829C-4657384796E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856A2C78-E582-4623-ACA6-BF85326DAF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{1F97B90D-26B3-4DE4-ACCC-8E22994B6ECC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="123">
   <si>
     <t>Date</t>
   </si>
@@ -355,18 +355,12 @@
     <t>Grand Rapids, MI</t>
   </si>
   <si>
-    <t>NAIA Great Lakes Challenge*</t>
-  </si>
-  <si>
     <t>Host</t>
   </si>
   <si>
     <t>Berea College and Centre College</t>
   </si>
   <si>
-    <t>Mike and Mark Kay Johnson Invitational</t>
-  </si>
-  <si>
     <t>Louisville Sports Commission</t>
   </si>
   <si>
@@ -401,6 +395,15 @@
   </si>
   <si>
     <t>Brescia University</t>
+  </si>
+  <si>
+    <t>Berea College</t>
+  </si>
+  <si>
+    <t>Mike and Mary Kay Johnson Invitational</t>
+  </si>
+  <si>
+    <t>NAIA Great Lakes Challenge</t>
   </si>
 </sst>
 </file>
@@ -2515,8 +2518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883D8E59-CB80-4D96-BB0B-8467B07800EC}">
   <dimension ref="A1:K185"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2539,7 +2542,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -3098,7 +3101,7 @@
         <v>98</v>
       </c>
       <c r="D65" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E65" t="s">
         <v>13</v>
@@ -3233,10 +3236,10 @@
         <v>5</v>
       </c>
       <c r="C80" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="D80" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="E80" t="s">
         <v>13</v>
@@ -3360,10 +3363,10 @@
         <v>5</v>
       </c>
       <c r="C94" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D94" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E94" t="s">
         <v>100</v>
@@ -3426,10 +3429,10 @@
         <v>4</v>
       </c>
       <c r="C100" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D100" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E100" t="s">
         <v>101</v>
@@ -3441,7 +3444,7 @@
         <v>42</v>
       </c>
       <c r="H100" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.35">
@@ -3503,7 +3506,7 @@
         <v>103</v>
       </c>
       <c r="D107" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E107" t="s">
         <v>36</v>
@@ -3579,10 +3582,10 @@
         <v>5</v>
       </c>
       <c r="C115" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="D115" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E115" t="s">
         <v>105</v>
@@ -3701,10 +3704,10 @@
         <v>104</v>
       </c>
       <c r="D128" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E128" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F128" t="s">
         <v>14</v>
@@ -3825,13 +3828,13 @@
         <v>4</v>
       </c>
       <c r="C142" t="s">
+        <v>116</v>
+      </c>
+      <c r="D142" t="s">
+        <v>117</v>
+      </c>
+      <c r="E142" t="s">
         <v>118</v>
-      </c>
-      <c r="D142" t="s">
-        <v>119</v>
-      </c>
-      <c r="E142" t="s">
-        <v>120</v>
       </c>
       <c r="F142" t="s">
         <v>14</v>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcxcl\Dropbox\2021XC\Calendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856A2C78-E582-4623-ACA6-BF85326DAF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929B6DFE-24A6-43E6-9D63-EAD05B82962D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{1F97B90D-26B3-4DE4-ACCC-8E22994B6ECC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{1F97B90D-26B3-4DE4-ACCC-8E22994B6ECC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="160">
   <si>
     <t>Date</t>
   </si>
@@ -404,6 +405,117 @@
   </si>
   <si>
     <t>NAIA Great Lakes Challenge</t>
+  </si>
+  <si>
+    <t>Team Meeting</t>
+  </si>
+  <si>
+    <t>10:30am</t>
+  </si>
+  <si>
+    <t>All Physicals at Conference Center</t>
+  </si>
+  <si>
+    <t>NEW Athletes Doctors Visit</t>
+  </si>
+  <si>
+    <t>Conference Center</t>
+  </si>
+  <si>
+    <t>Gym Basement</t>
+  </si>
+  <si>
+    <t>8:00pm</t>
+  </si>
+  <si>
+    <t>6:15pm</t>
+  </si>
+  <si>
+    <t>Track &amp; Field Physicals (ALL Who have not gotten a physical prior)</t>
+  </si>
+  <si>
+    <t>Track and Firls Doctor for returners (Will be told Monday if need to go)</t>
+  </si>
+  <si>
+    <t>Basement of Gym</t>
+  </si>
+  <si>
+    <t>Track and Firls Doctor for New members (All new members need to go)</t>
+  </si>
+  <si>
+    <t>Time Trial</t>
+  </si>
+  <si>
+    <t>7:00am</t>
+  </si>
+  <si>
+    <t>6:30am</t>
+  </si>
+  <si>
+    <t>6:00am</t>
+  </si>
+  <si>
+    <t>7:30am</t>
+  </si>
+  <si>
+    <t>10:00am</t>
+  </si>
+  <si>
+    <t>12:00pm</t>
+  </si>
+  <si>
+    <t>1:00pm</t>
+  </si>
+  <si>
+    <t>2:00pm</t>
+  </si>
+  <si>
+    <t>3:00pm</t>
+  </si>
+  <si>
+    <t>5:00pm</t>
+  </si>
+  <si>
+    <t>9:00pm</t>
+  </si>
+  <si>
+    <t>10:00pm</t>
+  </si>
+  <si>
+    <t>Team Activity</t>
+  </si>
+  <si>
+    <t>Dinner</t>
+  </si>
+  <si>
+    <t>2nd Run</t>
+  </si>
+  <si>
+    <t>Weight Room</t>
+  </si>
+  <si>
+    <t>Lunch</t>
+  </si>
+  <si>
+    <t>Meeting Time</t>
+  </si>
+  <si>
+    <t>Breakfast</t>
+  </si>
+  <si>
+    <t>1st Run</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Hurdle Drills</t>
+  </si>
+  <si>
+    <t>Team Decides</t>
+  </si>
+  <si>
+    <t>Workout</t>
   </si>
 </sst>
 </file>
@@ -428,12 +540,42 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -448,12 +590,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2516,10 +2673,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883D8E59-CB80-4D96-BB0B-8467B07800EC}">
-  <dimension ref="A1:K185"/>
+  <dimension ref="A1:K188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="D114" sqref="D114"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2831,7 +2988,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>44774</v>
       </c>
@@ -2839,7 +2996,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>44775</v>
       </c>
@@ -2847,7 +3004,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>44776</v>
       </c>
@@ -2855,7 +3012,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>44777</v>
       </c>
@@ -2863,7 +3020,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>44778</v>
       </c>
@@ -2871,7 +3028,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>44779</v>
       </c>
@@ -2879,7 +3036,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>44780</v>
       </c>
@@ -2887,7 +3044,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>44781</v>
       </c>
@@ -2898,1292 +3055,1409 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
+        <v>44781</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
+        <v>125</v>
+      </c>
+      <c r="E41" t="s">
+        <v>127</v>
+      </c>
+      <c r="F41" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>44781</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
+        <v>126</v>
+      </c>
+      <c r="E42" t="s">
+        <v>128</v>
+      </c>
+      <c r="F42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>44781</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s">
+        <v>123</v>
+      </c>
+      <c r="E43" t="s">
+        <v>54</v>
+      </c>
+      <c r="F43" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
         <v>44782</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B44" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
+      <c r="C44" t="s">
+        <v>135</v>
+      </c>
+      <c r="E44" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
         <v>44783</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B45" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
+      <c r="C45" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
         <v>44784</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B46" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
+      <c r="C46" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
         <v>44785</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B47" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
+      <c r="C47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
         <v>44786</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B48" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
+      <c r="C48" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
         <v>44787</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B49" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
+      <c r="C49" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
         <v>44788</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B50" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
+      <c r="C50" t="s">
+        <v>131</v>
+      </c>
+      <c r="E50" t="s">
+        <v>127</v>
+      </c>
+      <c r="F50" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
         <v>44789</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B51" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
+      <c r="C51" t="s">
+        <v>132</v>
+      </c>
+      <c r="E51" t="s">
+        <v>133</v>
+      </c>
+      <c r="F51" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
         <v>44790</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B52" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="1">
+      <c r="C52" t="s">
+        <v>134</v>
+      </c>
+      <c r="E52" t="s">
+        <v>127</v>
+      </c>
+      <c r="F52" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
         <v>44791</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B53" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="1">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
         <v>44792</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B54" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="1">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
         <v>44793</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B55" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="1">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
         <v>44794</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B56" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="1">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
         <v>44795</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B57" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="1">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
         <v>44796</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B58" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" s="1">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
         <v>44797</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B59" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" s="1">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
         <v>44798</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B60" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" s="1">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
         <v>44799</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B61" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" s="1">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
         <v>44800</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B62" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" s="1">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
         <v>44801</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B63" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" s="1">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
         <v>44802</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B64" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" s="1">
-        <v>44803</v>
-      </c>
-      <c r="B62" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" s="1">
-        <v>44804</v>
-      </c>
-      <c r="B63" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" s="1">
-        <v>44805</v>
-      </c>
-      <c r="B64" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>44806</v>
+        <v>44803</v>
       </c>
       <c r="B65" t="s">
-        <v>4</v>
-      </c>
-      <c r="C65" t="s">
-        <v>98</v>
-      </c>
-      <c r="D65" t="s">
-        <v>107</v>
-      </c>
-      <c r="E65" t="s">
-        <v>13</v>
-      </c>
-      <c r="F65" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" t="s">
-        <v>42</v>
-      </c>
-      <c r="H65" t="s">
-        <v>99</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>44807</v>
+        <v>44804</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>44808</v>
+        <v>44805</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>44809</v>
+        <v>44806</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="C68" t="s">
+        <v>98</v>
+      </c>
+      <c r="D68" t="s">
+        <v>107</v>
+      </c>
+      <c r="E68" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" t="s">
+        <v>14</v>
+      </c>
+      <c r="G68" t="s">
+        <v>42</v>
+      </c>
+      <c r="H68" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>44810</v>
+        <v>44807</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>44811</v>
+        <v>44808</v>
       </c>
       <c r="B70" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>44812</v>
+        <v>44809</v>
       </c>
       <c r="B71" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>44813</v>
+        <v>44810</v>
       </c>
       <c r="B72" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>44814</v>
+        <v>44811</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>44815</v>
+        <v>44812</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>44816</v>
+        <v>44813</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>44817</v>
+        <v>44814</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>44818</v>
+        <v>44815</v>
       </c>
       <c r="B77" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>44819</v>
+        <v>44816</v>
       </c>
       <c r="B78" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>44820</v>
+        <v>44817</v>
       </c>
       <c r="B79" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
+        <v>44818</v>
+      </c>
+      <c r="B80" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
+        <v>44819</v>
+      </c>
+      <c r="B81" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
+        <v>44820</v>
+      </c>
+      <c r="B82" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83" s="1">
         <v>44821</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B83" t="s">
         <v>5</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C83" t="s">
         <v>121</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D83" t="s">
         <v>120</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E83" t="s">
         <v>13</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F83" t="s">
         <v>14</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G83" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A81" s="1">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84" s="1">
         <v>44822</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B84" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A82" s="1">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85" s="1">
         <v>44823</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B85" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A83" s="1">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86" s="1">
         <v>44824</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B86" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A84" s="1">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87" s="1">
         <v>44825</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B87" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A85" s="1">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88" s="1">
         <v>44826</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B88" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A86" s="1">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89" s="1">
         <v>44827</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B89" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A87" s="1">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90" s="1">
         <v>44828</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B90" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A88" s="1">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91" s="1">
         <v>44829</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B91" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A89" s="1">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A92" s="1">
         <v>44830</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B92" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A90" s="1">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A93" s="1">
         <v>44831</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B93" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A91" s="1">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A94" s="1">
         <v>44832</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B94" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A92" s="1">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95" s="1">
         <v>44833</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B95" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A93" s="1">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A96" s="1">
         <v>44834</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B96" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A94" s="1">
-        <v>44835</v>
-      </c>
-      <c r="B94" t="s">
-        <v>5</v>
-      </c>
-      <c r="C94" t="s">
-        <v>109</v>
-      </c>
-      <c r="D94" t="s">
-        <v>108</v>
-      </c>
-      <c r="E94" t="s">
-        <v>100</v>
-      </c>
-      <c r="F94" t="s">
-        <v>14</v>
-      </c>
-      <c r="G94" t="s">
-        <v>42</v>
-      </c>
-      <c r="H94" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A95" s="1">
-        <v>44836</v>
-      </c>
-      <c r="B95" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A96" s="1">
-        <v>44837</v>
-      </c>
-      <c r="B96" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
-        <v>44838</v>
+        <v>44835</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C97" t="s">
+        <v>109</v>
+      </c>
+      <c r="D97" t="s">
+        <v>108</v>
+      </c>
+      <c r="E97" t="s">
+        <v>100</v>
+      </c>
+      <c r="F97" t="s">
+        <v>14</v>
+      </c>
+      <c r="G97" t="s">
+        <v>42</v>
+      </c>
+      <c r="H97" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
-        <v>44839</v>
+        <v>44836</v>
       </c>
       <c r="B98" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
-        <v>44840</v>
+        <v>44837</v>
       </c>
       <c r="B99" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
-        <v>44841</v>
+        <v>44838</v>
       </c>
       <c r="B100" t="s">
-        <v>4</v>
-      </c>
-      <c r="C100" t="s">
-        <v>110</v>
-      </c>
-      <c r="D100" t="s">
-        <v>119</v>
-      </c>
-      <c r="E100" t="s">
-        <v>101</v>
-      </c>
-      <c r="F100" t="s">
-        <v>14</v>
-      </c>
-      <c r="G100" t="s">
-        <v>42</v>
-      </c>
-      <c r="H100" t="s">
-        <v>111</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
-        <v>44842</v>
+        <v>44839</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
-        <v>44843</v>
+        <v>44840</v>
       </c>
       <c r="B102" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
-        <v>44844</v>
+        <v>44841</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="C103" t="s">
+        <v>110</v>
+      </c>
+      <c r="D103" t="s">
+        <v>119</v>
+      </c>
+      <c r="E103" t="s">
+        <v>101</v>
+      </c>
+      <c r="F103" t="s">
+        <v>14</v>
+      </c>
+      <c r="G103" t="s">
+        <v>42</v>
+      </c>
+      <c r="H103" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
-        <v>44845</v>
+        <v>44842</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
-        <v>44846</v>
+        <v>44843</v>
       </c>
       <c r="B105" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
-        <v>44847</v>
+        <v>44844</v>
       </c>
       <c r="B106" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
-        <v>44848</v>
+        <v>44845</v>
       </c>
       <c r="B107" t="s">
-        <v>4</v>
-      </c>
-      <c r="C107" t="s">
-        <v>103</v>
-      </c>
-      <c r="D107" t="s">
-        <v>112</v>
-      </c>
-      <c r="E107" t="s">
-        <v>36</v>
-      </c>
-      <c r="F107" t="s">
-        <v>14</v>
-      </c>
-      <c r="G107" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
-        <v>44849</v>
+        <v>44846</v>
       </c>
       <c r="B108" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
-        <v>44850</v>
+        <v>44847</v>
       </c>
       <c r="B109" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
-        <v>44851</v>
+        <v>44848</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="C110" t="s">
+        <v>103</v>
+      </c>
+      <c r="D110" t="s">
+        <v>112</v>
+      </c>
+      <c r="E110" t="s">
+        <v>36</v>
+      </c>
+      <c r="F110" t="s">
+        <v>14</v>
+      </c>
+      <c r="G110" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
-        <v>44852</v>
+        <v>44849</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
-        <v>44853</v>
+        <v>44850</v>
       </c>
       <c r="B112" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
-        <v>44854</v>
+        <v>44851</v>
       </c>
       <c r="B113" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
-        <v>44855</v>
+        <v>44852</v>
       </c>
       <c r="B114" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
-        <v>44856</v>
+        <v>44853</v>
       </c>
       <c r="B115" t="s">
-        <v>5</v>
-      </c>
-      <c r="C115" t="s">
-        <v>122</v>
-      </c>
-      <c r="D115" t="s">
-        <v>113</v>
-      </c>
-      <c r="E115" t="s">
-        <v>105</v>
-      </c>
-      <c r="F115" t="s">
-        <v>14</v>
-      </c>
-      <c r="G115" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
-        <v>44857</v>
+        <v>44854</v>
       </c>
       <c r="B116" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
-        <v>44858</v>
+        <v>44855</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
-        <v>44859</v>
+        <v>44856</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C118" t="s">
+        <v>122</v>
+      </c>
+      <c r="D118" t="s">
+        <v>113</v>
+      </c>
+      <c r="E118" t="s">
+        <v>105</v>
+      </c>
+      <c r="F118" t="s">
+        <v>14</v>
+      </c>
+      <c r="G118" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
-        <v>44860</v>
+        <v>44857</v>
       </c>
       <c r="B119" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
-        <v>44861</v>
+        <v>44858</v>
       </c>
       <c r="B120" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
-        <v>44862</v>
+        <v>44859</v>
       </c>
       <c r="B121" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
-        <v>44863</v>
+        <v>44860</v>
       </c>
       <c r="B122" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
-        <v>44864</v>
+        <v>44861</v>
       </c>
       <c r="B123" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
-        <v>44865</v>
+        <v>44862</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
-        <v>44866</v>
+        <v>44863</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
-        <v>44867</v>
+        <v>44864</v>
       </c>
       <c r="B126" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
-        <v>44868</v>
+        <v>44865</v>
       </c>
       <c r="B127" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
-        <v>44869</v>
+        <v>44866</v>
       </c>
       <c r="B128" t="s">
-        <v>4</v>
-      </c>
-      <c r="C128" t="s">
-        <v>104</v>
-      </c>
-      <c r="D128" t="s">
-        <v>114</v>
-      </c>
-      <c r="E128" t="s">
-        <v>115</v>
-      </c>
-      <c r="F128" t="s">
-        <v>14</v>
-      </c>
-      <c r="G128" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
-        <v>44870</v>
+        <v>44867</v>
       </c>
       <c r="B129" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
-        <v>44871</v>
+        <v>44868</v>
       </c>
       <c r="B130" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
-        <v>44872</v>
+        <v>44869</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="C131" t="s">
+        <v>104</v>
+      </c>
+      <c r="D131" t="s">
+        <v>114</v>
+      </c>
+      <c r="E131" t="s">
+        <v>115</v>
+      </c>
+      <c r="F131" t="s">
+        <v>14</v>
+      </c>
+      <c r="G131" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
-        <v>44873</v>
+        <v>44870</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
-        <v>44874</v>
+        <v>44871</v>
       </c>
       <c r="B133" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
-        <v>44875</v>
+        <v>44872</v>
       </c>
       <c r="B134" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
-        <v>44876</v>
+        <v>44873</v>
       </c>
       <c r="B135" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
-        <v>44877</v>
+        <v>44874</v>
       </c>
       <c r="B136" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
-        <v>44878</v>
+        <v>44875</v>
       </c>
       <c r="B137" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
-        <v>44879</v>
+        <v>44876</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
-        <v>44880</v>
+        <v>44877</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
-        <v>44881</v>
+        <v>44878</v>
       </c>
       <c r="B140" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
-        <v>44882</v>
+        <v>44879</v>
       </c>
       <c r="B141" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
-        <v>44883</v>
+        <v>44880</v>
       </c>
       <c r="B142" t="s">
-        <v>4</v>
-      </c>
-      <c r="C142" t="s">
-        <v>116</v>
-      </c>
-      <c r="D142" t="s">
-        <v>117</v>
-      </c>
-      <c r="E142" t="s">
-        <v>118</v>
-      </c>
-      <c r="F142" t="s">
-        <v>14</v>
-      </c>
-      <c r="G142" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
-        <v>44884</v>
+        <v>44881</v>
       </c>
       <c r="B143" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
+        <v>44882</v>
+      </c>
+      <c r="B144" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A145" s="1">
+        <v>44883</v>
+      </c>
+      <c r="B145" t="s">
+        <v>4</v>
+      </c>
+      <c r="C145" t="s">
+        <v>116</v>
+      </c>
+      <c r="D145" t="s">
+        <v>117</v>
+      </c>
+      <c r="E145" t="s">
+        <v>118</v>
+      </c>
+      <c r="F145" t="s">
+        <v>14</v>
+      </c>
+      <c r="G145" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A146" s="1">
+        <v>44884</v>
+      </c>
+      <c r="B146" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A147" s="1">
         <v>44885</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B147" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A145" s="1">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A148" s="1">
         <v>44886</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B148" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A146" s="1">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A149" s="1">
         <v>44887</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B149" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A147" s="1">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A150" s="1">
         <v>44888</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B150" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A148" s="1">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A151" s="1">
         <v>44889</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B151" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A149" s="1">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A152" s="1">
         <v>44890</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B152" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A150" s="1">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A153" s="1">
         <v>44891</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B153" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A151" s="1">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A154" s="1">
         <v>44892</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B154" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A152" s="1">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A155" s="1">
         <v>44893</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B155" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A153" s="1">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A156" s="1">
         <v>44894</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B156" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A154" s="1">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A157" s="1">
         <v>44895</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B157" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A155" s="1">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A158" s="1">
         <v>44896</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B158" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A156" s="1">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A159" s="1">
         <v>44897</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B159" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A157" s="1">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A160" s="1">
         <v>44898</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B160" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A158" s="1">
-        <v>44899</v>
-      </c>
-      <c r="B158" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A159" s="1">
-        <v>44900</v>
-      </c>
-      <c r="B159" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A160" s="1">
-        <v>44901</v>
-      </c>
-      <c r="B160" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
-        <v>44902</v>
+        <v>44899</v>
       </c>
       <c r="B161" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
-        <v>44903</v>
+        <v>44900</v>
       </c>
       <c r="B162" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
-        <v>44904</v>
+        <v>44901</v>
       </c>
       <c r="B163" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
-        <v>44905</v>
+        <v>44902</v>
       </c>
       <c r="B164" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
-        <v>44906</v>
+        <v>44903</v>
       </c>
       <c r="B165" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
-        <v>44907</v>
+        <v>44904</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
-        <v>44908</v>
+        <v>44905</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
-        <v>44909</v>
+        <v>44906</v>
       </c>
       <c r="B168" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
-        <v>44910</v>
+        <v>44907</v>
       </c>
       <c r="B169" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
-        <v>44911</v>
+        <v>44908</v>
       </c>
       <c r="B170" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
-        <v>44912</v>
+        <v>44909</v>
       </c>
       <c r="B171" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
-        <v>44913</v>
+        <v>44910</v>
       </c>
       <c r="B172" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
-        <v>44914</v>
+        <v>44911</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
-        <v>44915</v>
+        <v>44912</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
-        <v>44916</v>
+        <v>44913</v>
       </c>
       <c r="B175" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
-        <v>44917</v>
+        <v>44914</v>
       </c>
       <c r="B176" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
-        <v>44918</v>
+        <v>44915</v>
       </c>
       <c r="B177" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
-        <v>44919</v>
+        <v>44916</v>
       </c>
       <c r="B178" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
-        <v>44920</v>
+        <v>44917</v>
       </c>
       <c r="B179" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
-        <v>44921</v>
+        <v>44918</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
-        <v>44922</v>
+        <v>44919</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
-        <v>44923</v>
+        <v>44920</v>
       </c>
       <c r="B182" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
-        <v>44924</v>
+        <v>44921</v>
       </c>
       <c r="B183" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
-        <v>44925</v>
+        <v>44922</v>
       </c>
       <c r="B184" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
+        <v>44923</v>
+      </c>
+      <c r="B185" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186" s="1">
+        <v>44924</v>
+      </c>
+      <c r="B186" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187" s="1">
+        <v>44925</v>
+      </c>
+      <c r="B187" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A188" s="1">
         <v>44926</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B188" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4192,4 +4466,429 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C9E003F-171D-4D57-893F-5DAF7DC087F1}">
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="7" width="18.81640625" customWidth="1"/>
+    <col min="8" max="8" width="13.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>129</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="48">
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B12:B13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>